--- a/task.xlsx
+++ b/task.xlsx
@@ -1,54 +1,166 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="360" yWindow="495" windowWidth="19815" windowHeight="7110" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Rajesh.E" sheetId="1" r:id="rId1"/>
+    <sheet name="Revathi.M" sheetId="2" r:id="rId2"/>
+    <sheet name="Sampath kumar.P.N" sheetId="3" r:id="rId3"/>
+    <sheet name="Soundarayaa.R.K" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="21">
+  <si>
+    <t>S.no</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Sambath</t>
+    <t>Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Task </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status </t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>soundarayaa</t>
   </si>
   <si>
     <t>28/12/2017</t>
+  </si>
+  <si>
+    <t>10.40-12.15</t>
+  </si>
+  <si>
+    <t>discussion with  the mentor in KGFSL</t>
+  </si>
+  <si>
+    <t>rpa certification course -8th quiz</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>M.Revathi</t>
+  </si>
+  <si>
+    <t>rpa certification course -4th quiz</t>
+  </si>
+  <si>
+    <t>Sampath Kumar P.N</t>
+  </si>
+  <si>
+    <t>RPA Certification course -- Lesson 4 (Ui path essentials -Recording)Test</t>
+  </si>
+  <si>
+    <t>Discussion with  mentor Mr.Jyothi prasanth in KGFSL</t>
+  </si>
+  <si>
+    <t>RPA- Insurance claim Registration</t>
+  </si>
+  <si>
+    <t>1.00 - 4.15</t>
+  </si>
+  <si>
+    <t>E.Rajesh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+  </numFmts>
+  <fonts count="6">
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF999999"/>
+        <bgColor rgb="FF999999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2B2B2"/>
+        <bgColor rgb="FFB2B2B2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93C47D"/>
+        <bgColor rgb="FF93C47D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -56,14 +168,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -356,30 +529,1279 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="49.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="16" width="11.5703125" customWidth="1"/>
+    <col min="17" max="26" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" ht="14.25" customHeight="1"/>
+    <row r="34" ht="14.25" customHeight="1"/>
+    <row r="35" ht="14.25" customHeight="1"/>
+    <row r="36" ht="14.25" customHeight="1"/>
+    <row r="37" ht="14.25" customHeight="1"/>
+    <row r="38" ht="14.25" customHeight="1"/>
+    <row r="39" ht="14.25" customHeight="1"/>
+    <row r="40" ht="14.25" customHeight="1"/>
+    <row r="41" ht="14.25" customHeight="1"/>
+    <row r="42" ht="14.25" customHeight="1"/>
+    <row r="43" ht="14.25" customHeight="1"/>
+    <row r="44" ht="14.25" customHeight="1"/>
+    <row r="45" ht="14.25" customHeight="1"/>
+    <row r="46" ht="14.25" customHeight="1"/>
+    <row r="47" ht="14.25" customHeight="1"/>
+    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="49" ht="14.25" customHeight="1"/>
+    <row r="50" ht="14.25" customHeight="1"/>
+    <row r="51" ht="14.25" customHeight="1"/>
+    <row r="52" ht="14.25" customHeight="1"/>
+    <row r="53" ht="14.25" customHeight="1"/>
+    <row r="54" ht="14.25" customHeight="1"/>
+    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="56" ht="14.25" customHeight="1"/>
+    <row r="57" ht="14.25" customHeight="1"/>
+    <row r="58" ht="14.25" customHeight="1"/>
+    <row r="59" ht="14.25" customHeight="1"/>
+    <row r="60" ht="14.25" customHeight="1"/>
+    <row r="61" ht="14.25" customHeight="1"/>
+    <row r="62" ht="14.25" customHeight="1"/>
+    <row r="63" ht="14.25" customHeight="1"/>
+    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="65" ht="14.25" customHeight="1"/>
+    <row r="66" ht="14.25" customHeight="1"/>
+    <row r="67" ht="14.25" customHeight="1"/>
+    <row r="68" ht="14.25" customHeight="1"/>
+    <row r="69" ht="14.25" customHeight="1"/>
+    <row r="70" ht="14.25" customHeight="1"/>
+    <row r="71" ht="14.25" customHeight="1"/>
+    <row r="72" ht="14.25" customHeight="1"/>
+    <row r="73" ht="14.25" customHeight="1"/>
+    <row r="74" ht="14.25" customHeight="1"/>
+    <row r="75" ht="14.25" customHeight="1"/>
+    <row r="76" ht="14.25" customHeight="1"/>
+    <row r="77" ht="14.25" customHeight="1"/>
+    <row r="78" ht="14.25" customHeight="1"/>
+    <row r="79" ht="14.25" customHeight="1"/>
+    <row r="80" ht="14.25" customHeight="1"/>
+    <row r="81" ht="14.25" customHeight="1"/>
+    <row r="82" ht="14.25" customHeight="1"/>
+    <row r="83" ht="14.25" customHeight="1"/>
+    <row r="84" ht="14.25" customHeight="1"/>
+    <row r="85" ht="14.25" customHeight="1"/>
+    <row r="86" ht="14.25" customHeight="1"/>
+    <row r="87" ht="14.25" customHeight="1"/>
+    <row r="88" ht="14.25" customHeight="1"/>
+    <row r="89" ht="14.25" customHeight="1"/>
+    <row r="90" ht="14.25" customHeight="1"/>
+    <row r="91" ht="14.25" customHeight="1"/>
+    <row r="92" ht="14.25" customHeight="1"/>
+    <row r="93" ht="14.25" customHeight="1"/>
+    <row r="94" ht="14.25" customHeight="1"/>
+    <row r="95" ht="14.25" customHeight="1"/>
+    <row r="96" ht="14.25" customHeight="1"/>
+    <row r="97" ht="14.25" customHeight="1"/>
+    <row r="98" ht="14.25" customHeight="1"/>
+    <row r="99" ht="14.25" customHeight="1"/>
+    <row r="100" ht="14.25" customHeight="1"/>
+    <row r="101" ht="14.25" customHeight="1"/>
+    <row r="102" ht="14.25" customHeight="1"/>
+    <row r="103" ht="14.25" customHeight="1"/>
+    <row r="104" ht="14.25" customHeight="1"/>
+    <row r="105" ht="14.25" customHeight="1"/>
+    <row r="106" ht="14.25" customHeight="1"/>
+    <row r="107" ht="14.25" customHeight="1"/>
+    <row r="108" ht="14.25" customHeight="1"/>
+    <row r="109" ht="14.25" customHeight="1"/>
+    <row r="110" ht="14.25" customHeight="1"/>
+    <row r="111" ht="14.25" customHeight="1"/>
+    <row r="112" ht="14.25" customHeight="1"/>
+    <row r="113" ht="14.25" customHeight="1"/>
+    <row r="114" ht="14.25" customHeight="1"/>
+    <row r="115" ht="14.25" customHeight="1"/>
+    <row r="116" ht="14.25" customHeight="1"/>
+    <row r="117" ht="14.25" customHeight="1"/>
+    <row r="118" ht="14.25" customHeight="1"/>
+    <row r="119" ht="14.25" customHeight="1"/>
+    <row r="120" ht="14.25" customHeight="1"/>
+    <row r="121" ht="14.25" customHeight="1"/>
+    <row r="122" ht="14.25" customHeight="1"/>
+    <row r="123" ht="14.25" customHeight="1"/>
+    <row r="124" ht="14.25" customHeight="1"/>
+    <row r="125" ht="14.25" customHeight="1"/>
+    <row r="126" ht="14.25" customHeight="1"/>
+    <row r="127" ht="14.25" customHeight="1"/>
+    <row r="128" ht="14.25" customHeight="1"/>
+    <row r="129" ht="14.25" customHeight="1"/>
+    <row r="130" ht="14.25" customHeight="1"/>
+    <row r="131" ht="14.25" customHeight="1"/>
+    <row r="132" ht="14.25" customHeight="1"/>
+    <row r="133" ht="14.25" customHeight="1"/>
+    <row r="134" ht="14.25" customHeight="1"/>
+    <row r="135" ht="14.25" customHeight="1"/>
+    <row r="136" ht="14.25" customHeight="1"/>
+    <row r="137" ht="14.25" customHeight="1"/>
+    <row r="138" ht="14.25" customHeight="1"/>
+    <row r="139" ht="14.25" customHeight="1"/>
+    <row r="140" ht="14.25" customHeight="1"/>
+    <row r="141" ht="14.25" customHeight="1"/>
+    <row r="142" ht="14.25" customHeight="1"/>
+    <row r="143" ht="14.25" customHeight="1"/>
+    <row r="144" ht="14.25" customHeight="1"/>
+    <row r="145" ht="14.25" customHeight="1"/>
+    <row r="146" ht="14.25" customHeight="1"/>
+    <row r="147" ht="14.25" customHeight="1"/>
+    <row r="148" ht="14.25" customHeight="1"/>
+    <row r="149" ht="14.25" customHeight="1"/>
+    <row r="150" ht="14.25" customHeight="1"/>
+    <row r="151" ht="14.25" customHeight="1"/>
+    <row r="152" ht="14.25" customHeight="1"/>
+    <row r="153" ht="14.25" customHeight="1"/>
+    <row r="154" ht="14.25" customHeight="1"/>
+    <row r="155" ht="14.25" customHeight="1"/>
+    <row r="156" ht="14.25" customHeight="1"/>
+    <row r="157" ht="14.25" customHeight="1"/>
+    <row r="158" ht="14.25" customHeight="1"/>
+    <row r="159" ht="14.25" customHeight="1"/>
+    <row r="160" ht="14.25" customHeight="1"/>
+    <row r="161" ht="14.25" customHeight="1"/>
+    <row r="162" ht="14.25" customHeight="1"/>
+    <row r="163" ht="14.25" customHeight="1"/>
+    <row r="164" ht="14.25" customHeight="1"/>
+    <row r="165" ht="14.25" customHeight="1"/>
+    <row r="166" ht="14.25" customHeight="1"/>
+    <row r="167" ht="14.25" customHeight="1"/>
+    <row r="168" ht="14.25" customHeight="1"/>
+    <row r="169" ht="14.25" customHeight="1"/>
+    <row r="170" ht="14.25" customHeight="1"/>
+    <row r="171" ht="14.25" customHeight="1"/>
+    <row r="172" ht="14.25" customHeight="1"/>
+    <row r="173" ht="14.25" customHeight="1"/>
+    <row r="174" ht="14.25" customHeight="1"/>
+    <row r="175" ht="14.25" customHeight="1"/>
+    <row r="176" ht="14.25" customHeight="1"/>
+    <row r="177" ht="14.25" customHeight="1"/>
+    <row r="178" ht="14.25" customHeight="1"/>
+    <row r="179" ht="14.25" customHeight="1"/>
+    <row r="180" ht="14.25" customHeight="1"/>
+    <row r="181" ht="14.25" customHeight="1"/>
+    <row r="182" ht="14.25" customHeight="1"/>
+    <row r="183" ht="14.25" customHeight="1"/>
+    <row r="184" ht="14.25" customHeight="1"/>
+    <row r="185" ht="14.25" customHeight="1"/>
+    <row r="186" ht="14.25" customHeight="1"/>
+    <row r="187" ht="14.25" customHeight="1"/>
+    <row r="188" ht="14.25" customHeight="1"/>
+    <row r="189" ht="14.25" customHeight="1"/>
+    <row r="190" ht="14.25" customHeight="1"/>
+    <row r="191" ht="14.25" customHeight="1"/>
+    <row r="192" ht="14.25" customHeight="1"/>
+    <row r="193" ht="14.25" customHeight="1"/>
+    <row r="194" ht="14.25" customHeight="1"/>
+    <row r="195" ht="14.25" customHeight="1"/>
+    <row r="196" ht="14.25" customHeight="1"/>
+    <row r="197" ht="14.25" customHeight="1"/>
+    <row r="198" ht="14.25" customHeight="1"/>
+    <row r="199" ht="14.25" customHeight="1"/>
+    <row r="200" ht="14.25" customHeight="1"/>
+    <row r="201" ht="14.25" customHeight="1"/>
+    <row r="202" ht="14.25" customHeight="1"/>
+    <row r="203" ht="14.25" customHeight="1"/>
+    <row r="204" ht="14.25" customHeight="1"/>
+    <row r="205" ht="14.25" customHeight="1"/>
+    <row r="206" ht="14.25" customHeight="1"/>
+    <row r="207" ht="14.25" customHeight="1"/>
+    <row r="208" ht="14.25" customHeight="1"/>
+    <row r="209" ht="14.25" customHeight="1"/>
+    <row r="210" ht="14.25" customHeight="1"/>
+    <row r="211" ht="14.25" customHeight="1"/>
+    <row r="212" ht="14.25" customHeight="1"/>
+    <row r="213" ht="14.25" customHeight="1"/>
+    <row r="214" ht="14.25" customHeight="1"/>
+    <row r="215" ht="14.25" customHeight="1"/>
+    <row r="216" ht="14.25" customHeight="1"/>
+    <row r="217" ht="14.25" customHeight="1"/>
+    <row r="218" ht="14.25" customHeight="1"/>
+    <row r="219" ht="14.25" customHeight="1"/>
+    <row r="220" ht="14.25" customHeight="1"/>
+    <row r="221" ht="14.25" customHeight="1"/>
+    <row r="222" ht="14.25" customHeight="1"/>
+    <row r="223" ht="14.25" customHeight="1"/>
+    <row r="224" ht="14.25" customHeight="1"/>
+    <row r="225" ht="14.25" customHeight="1"/>
+    <row r="226" ht="14.25" customHeight="1"/>
+    <row r="227" ht="14.25" customHeight="1"/>
+    <row r="228" ht="14.25" customHeight="1"/>
+    <row r="229" ht="14.25" customHeight="1"/>
+    <row r="230" ht="14.25" customHeight="1"/>
+    <row r="231" ht="14.25" customHeight="1"/>
+    <row r="232" ht="14.25" customHeight="1"/>
+    <row r="233" ht="14.25" customHeight="1"/>
+    <row r="234" ht="14.25" customHeight="1"/>
+    <row r="235" ht="14.25" customHeight="1"/>
+    <row r="236" ht="14.25" customHeight="1"/>
+    <row r="237" ht="14.25" customHeight="1"/>
+    <row r="238" ht="14.25" customHeight="1"/>
+    <row r="239" ht="14.25" customHeight="1"/>
+    <row r="240" ht="14.25" customHeight="1"/>
+    <row r="241" ht="14.25" customHeight="1"/>
+    <row r="242" ht="14.25" customHeight="1"/>
+    <row r="243" ht="14.25" customHeight="1"/>
+    <row r="244" ht="14.25" customHeight="1"/>
+    <row r="245" ht="14.25" customHeight="1"/>
+    <row r="246" ht="14.25" customHeight="1"/>
+    <row r="247" ht="14.25" customHeight="1"/>
+    <row r="248" ht="14.25" customHeight="1"/>
+    <row r="249" ht="14.25" customHeight="1"/>
+    <row r="250" ht="14.25" customHeight="1"/>
+    <row r="251" ht="14.25" customHeight="1"/>
+    <row r="252" ht="14.25" customHeight="1"/>
+    <row r="253" ht="14.25" customHeight="1"/>
+    <row r="254" ht="14.25" customHeight="1"/>
+    <row r="255" ht="14.25" customHeight="1"/>
+    <row r="256" ht="14.25" customHeight="1"/>
+    <row r="257" ht="14.25" customHeight="1"/>
+    <row r="258" ht="14.25" customHeight="1"/>
+    <row r="259" ht="14.25" customHeight="1"/>
+    <row r="260" ht="14.25" customHeight="1"/>
+    <row r="261" ht="14.25" customHeight="1"/>
+    <row r="262" ht="14.25" customHeight="1"/>
+    <row r="263" ht="14.25" customHeight="1"/>
+    <row r="264" ht="14.25" customHeight="1"/>
+    <row r="265" ht="14.25" customHeight="1"/>
+    <row r="266" ht="14.25" customHeight="1"/>
+    <row r="267" ht="14.25" customHeight="1"/>
+    <row r="268" ht="14.25" customHeight="1"/>
+    <row r="269" ht="14.25" customHeight="1"/>
+    <row r="270" ht="14.25" customHeight="1"/>
+    <row r="271" ht="14.25" customHeight="1"/>
+    <row r="272" ht="14.25" customHeight="1"/>
+    <row r="273" ht="14.25" customHeight="1"/>
+    <row r="274" ht="14.25" customHeight="1"/>
+    <row r="275" ht="14.25" customHeight="1"/>
+    <row r="276" ht="14.25" customHeight="1"/>
+    <row r="277" ht="14.25" customHeight="1"/>
+    <row r="278" ht="14.25" customHeight="1"/>
+    <row r="279" ht="14.25" customHeight="1"/>
+    <row r="280" ht="14.25" customHeight="1"/>
+    <row r="281" ht="14.25" customHeight="1"/>
+    <row r="282" ht="14.25" customHeight="1"/>
+    <row r="283" ht="14.25" customHeight="1"/>
+    <row r="284" ht="14.25" customHeight="1"/>
+    <row r="285" ht="14.25" customHeight="1"/>
+    <row r="286" ht="14.25" customHeight="1"/>
+    <row r="287" ht="14.25" customHeight="1"/>
+    <row r="288" ht="14.25" customHeight="1"/>
+    <row r="289" ht="14.25" customHeight="1"/>
+    <row r="290" ht="14.25" customHeight="1"/>
+    <row r="291" ht="14.25" customHeight="1"/>
+    <row r="292" ht="14.25" customHeight="1"/>
+    <row r="293" ht="14.25" customHeight="1"/>
+    <row r="294" ht="14.25" customHeight="1"/>
+    <row r="295" ht="14.25" customHeight="1"/>
+    <row r="296" ht="14.25" customHeight="1"/>
+    <row r="297" ht="14.25" customHeight="1"/>
+    <row r="298" ht="14.25" customHeight="1"/>
+    <row r="299" ht="14.25" customHeight="1"/>
+    <row r="300" ht="14.25" customHeight="1"/>
+    <row r="301" ht="14.25" customHeight="1"/>
+    <row r="302" ht="14.25" customHeight="1"/>
+    <row r="303" ht="14.25" customHeight="1"/>
+    <row r="304" ht="14.25" customHeight="1"/>
+    <row r="305" ht="14.25" customHeight="1"/>
+    <row r="306" ht="14.25" customHeight="1"/>
+    <row r="307" ht="14.25" customHeight="1"/>
+    <row r="308" ht="14.25" customHeight="1"/>
+    <row r="309" ht="14.25" customHeight="1"/>
+    <row r="310" ht="14.25" customHeight="1"/>
+    <row r="311" ht="14.25" customHeight="1"/>
+    <row r="312" ht="14.25" customHeight="1"/>
+    <row r="313" ht="14.25" customHeight="1"/>
+    <row r="314" ht="14.25" customHeight="1"/>
+    <row r="315" ht="14.25" customHeight="1"/>
+    <row r="316" ht="14.25" customHeight="1"/>
+    <row r="317" ht="14.25" customHeight="1"/>
+    <row r="318" ht="14.25" customHeight="1"/>
+    <row r="319" ht="14.25" customHeight="1"/>
+    <row r="320" ht="14.25" customHeight="1"/>
+    <row r="321" ht="14.25" customHeight="1"/>
+    <row r="322" ht="14.25" customHeight="1"/>
+    <row r="323" ht="14.25" customHeight="1"/>
+    <row r="324" ht="14.25" customHeight="1"/>
+    <row r="325" ht="14.25" customHeight="1"/>
+    <row r="326" ht="14.25" customHeight="1"/>
+    <row r="327" ht="14.25" customHeight="1"/>
+    <row r="328" ht="14.25" customHeight="1"/>
+    <row r="329" ht="14.25" customHeight="1"/>
+    <row r="330" ht="14.25" customHeight="1"/>
+    <row r="331" ht="14.25" customHeight="1"/>
+    <row r="332" ht="14.25" customHeight="1"/>
+    <row r="333" ht="14.25" customHeight="1"/>
+    <row r="334" ht="14.25" customHeight="1"/>
+    <row r="335" ht="14.25" customHeight="1"/>
+    <row r="336" ht="14.25" customHeight="1"/>
+    <row r="337" ht="14.25" customHeight="1"/>
+    <row r="338" ht="14.25" customHeight="1"/>
+    <row r="339" ht="14.25" customHeight="1"/>
+    <row r="340" ht="14.25" customHeight="1"/>
+    <row r="341" ht="14.25" customHeight="1"/>
+    <row r="342" ht="14.25" customHeight="1"/>
+    <row r="343" ht="14.25" customHeight="1"/>
+    <row r="344" ht="14.25" customHeight="1"/>
+    <row r="345" ht="14.25" customHeight="1"/>
+    <row r="346" ht="14.25" customHeight="1"/>
+    <row r="347" ht="14.25" customHeight="1"/>
+    <row r="348" ht="14.25" customHeight="1"/>
+    <row r="349" ht="14.25" customHeight="1"/>
+    <row r="350" ht="14.25" customHeight="1"/>
+    <row r="351" ht="14.25" customHeight="1"/>
+    <row r="352" ht="14.25" customHeight="1"/>
+    <row r="353" ht="14.25" customHeight="1"/>
+    <row r="354" ht="14.25" customHeight="1"/>
+    <row r="355" ht="14.25" customHeight="1"/>
+    <row r="356" ht="14.25" customHeight="1"/>
+    <row r="357" ht="14.25" customHeight="1"/>
+    <row r="358" ht="14.25" customHeight="1"/>
+    <row r="359" ht="14.25" customHeight="1"/>
+    <row r="360" ht="14.25" customHeight="1"/>
+    <row r="361" ht="14.25" customHeight="1"/>
+    <row r="362" ht="14.25" customHeight="1"/>
+    <row r="363" ht="14.25" customHeight="1"/>
+    <row r="364" ht="14.25" customHeight="1"/>
+    <row r="365" ht="14.25" customHeight="1"/>
+    <row r="366" ht="14.25" customHeight="1"/>
+    <row r="367" ht="14.25" customHeight="1"/>
+    <row r="368" ht="14.25" customHeight="1"/>
+    <row r="369" ht="14.25" customHeight="1"/>
+    <row r="370" ht="14.25" customHeight="1"/>
+    <row r="371" ht="14.25" customHeight="1"/>
+    <row r="372" ht="14.25" customHeight="1"/>
+    <row r="373" ht="14.25" customHeight="1"/>
+    <row r="374" ht="14.25" customHeight="1"/>
+    <row r="375" ht="14.25" customHeight="1"/>
+    <row r="376" ht="14.25" customHeight="1"/>
+    <row r="377" ht="14.25" customHeight="1"/>
+    <row r="378" ht="14.25" customHeight="1"/>
+    <row r="379" ht="14.25" customHeight="1"/>
+    <row r="380" ht="14.25" customHeight="1"/>
+    <row r="381" ht="14.25" customHeight="1"/>
+    <row r="382" ht="14.25" customHeight="1"/>
+    <row r="383" ht="14.25" customHeight="1"/>
+    <row r="384" ht="14.25" customHeight="1"/>
+    <row r="385" ht="14.25" customHeight="1"/>
+    <row r="386" ht="14.25" customHeight="1"/>
+    <row r="387" ht="14.25" customHeight="1"/>
+    <row r="388" ht="14.25" customHeight="1"/>
+    <row r="389" ht="14.25" customHeight="1"/>
+    <row r="390" ht="14.25" customHeight="1"/>
+    <row r="391" ht="14.25" customHeight="1"/>
+    <row r="392" ht="14.25" customHeight="1"/>
+    <row r="393" ht="14.25" customHeight="1"/>
+    <row r="394" ht="14.25" customHeight="1"/>
+    <row r="395" ht="14.25" customHeight="1"/>
+    <row r="396" ht="14.25" customHeight="1"/>
+    <row r="397" ht="14.25" customHeight="1"/>
+    <row r="398" ht="14.25" customHeight="1"/>
+    <row r="399" ht="14.25" customHeight="1"/>
+    <row r="400" ht="14.25" customHeight="1"/>
+    <row r="401" ht="14.25" customHeight="1"/>
+    <row r="402" ht="14.25" customHeight="1"/>
+    <row r="403" ht="14.25" customHeight="1"/>
+    <row r="404" ht="14.25" customHeight="1"/>
+    <row r="405" ht="14.25" customHeight="1"/>
+    <row r="406" ht="14.25" customHeight="1"/>
+    <row r="407" ht="14.25" customHeight="1"/>
+    <row r="408" ht="14.25" customHeight="1"/>
+    <row r="409" ht="14.25" customHeight="1"/>
+    <row r="410" ht="14.25" customHeight="1"/>
+    <row r="411" ht="14.25" customHeight="1"/>
+    <row r="412" ht="14.25" customHeight="1"/>
+    <row r="413" ht="14.25" customHeight="1"/>
+    <row r="414" ht="14.25" customHeight="1"/>
+    <row r="415" ht="14.25" customHeight="1"/>
+    <row r="416" ht="14.25" customHeight="1"/>
+    <row r="417" ht="14.25" customHeight="1"/>
+    <row r="418" ht="14.25" customHeight="1"/>
+    <row r="419" ht="14.25" customHeight="1"/>
+    <row r="420" ht="14.25" customHeight="1"/>
+    <row r="421" ht="14.25" customHeight="1"/>
+    <row r="422" ht="14.25" customHeight="1"/>
+    <row r="423" ht="14.25" customHeight="1"/>
+    <row r="424" ht="14.25" customHeight="1"/>
+    <row r="425" ht="14.25" customHeight="1"/>
+    <row r="426" ht="14.25" customHeight="1"/>
+    <row r="427" ht="14.25" customHeight="1"/>
+    <row r="428" ht="14.25" customHeight="1"/>
+    <row r="429" ht="14.25" customHeight="1"/>
+    <row r="430" ht="14.25" customHeight="1"/>
+    <row r="431" ht="14.25" customHeight="1"/>
+    <row r="432" ht="14.25" customHeight="1"/>
+    <row r="433" ht="14.25" customHeight="1"/>
+    <row r="434" ht="14.25" customHeight="1"/>
+    <row r="435" ht="14.25" customHeight="1"/>
+    <row r="436" ht="14.25" customHeight="1"/>
+    <row r="437" ht="14.25" customHeight="1"/>
+    <row r="438" ht="14.25" customHeight="1"/>
+    <row r="439" ht="14.25" customHeight="1"/>
+    <row r="440" ht="14.25" customHeight="1"/>
+    <row r="441" ht="14.25" customHeight="1"/>
+    <row r="442" ht="14.25" customHeight="1"/>
+    <row r="443" ht="14.25" customHeight="1"/>
+    <row r="444" ht="14.25" customHeight="1"/>
+    <row r="445" ht="14.25" customHeight="1"/>
+    <row r="446" ht="14.25" customHeight="1"/>
+    <row r="447" ht="14.25" customHeight="1"/>
+    <row r="448" ht="14.25" customHeight="1"/>
+    <row r="449" ht="14.25" customHeight="1"/>
+    <row r="450" ht="14.25" customHeight="1"/>
+    <row r="451" ht="14.25" customHeight="1"/>
+    <row r="452" ht="14.25" customHeight="1"/>
+    <row r="453" ht="14.25" customHeight="1"/>
+    <row r="454" ht="14.25" customHeight="1"/>
+    <row r="455" ht="14.25" customHeight="1"/>
+    <row r="456" ht="14.25" customHeight="1"/>
+    <row r="457" ht="14.25" customHeight="1"/>
+    <row r="458" ht="14.25" customHeight="1"/>
+    <row r="459" ht="14.25" customHeight="1"/>
+    <row r="460" ht="14.25" customHeight="1"/>
+    <row r="461" ht="14.25" customHeight="1"/>
+    <row r="462" ht="14.25" customHeight="1"/>
+    <row r="463" ht="14.25" customHeight="1"/>
+    <row r="464" ht="14.25" customHeight="1"/>
+    <row r="465" ht="14.25" customHeight="1"/>
+    <row r="466" ht="14.25" customHeight="1"/>
+    <row r="467" ht="14.25" customHeight="1"/>
+    <row r="468" ht="14.25" customHeight="1"/>
+    <row r="469" ht="14.25" customHeight="1"/>
+    <row r="470" ht="14.25" customHeight="1"/>
+    <row r="471" ht="14.25" customHeight="1"/>
+    <row r="472" ht="14.25" customHeight="1"/>
+    <row r="473" ht="14.25" customHeight="1"/>
+    <row r="474" ht="14.25" customHeight="1"/>
+    <row r="475" ht="14.25" customHeight="1"/>
+    <row r="476" ht="14.25" customHeight="1"/>
+    <row r="477" ht="14.25" customHeight="1"/>
+    <row r="478" ht="14.25" customHeight="1"/>
+    <row r="479" ht="14.25" customHeight="1"/>
+    <row r="480" ht="14.25" customHeight="1"/>
+    <row r="481" ht="14.25" customHeight="1"/>
+    <row r="482" ht="14.25" customHeight="1"/>
+    <row r="483" ht="14.25" customHeight="1"/>
+    <row r="484" ht="14.25" customHeight="1"/>
+    <row r="485" ht="14.25" customHeight="1"/>
+    <row r="486" ht="14.25" customHeight="1"/>
+    <row r="487" ht="14.25" customHeight="1"/>
+    <row r="488" ht="14.25" customHeight="1"/>
+    <row r="489" ht="14.25" customHeight="1"/>
+    <row r="490" ht="14.25" customHeight="1"/>
+    <row r="491" ht="14.25" customHeight="1"/>
+    <row r="492" ht="14.25" customHeight="1"/>
+    <row r="493" ht="14.25" customHeight="1"/>
+    <row r="494" ht="14.25" customHeight="1"/>
+    <row r="495" ht="14.25" customHeight="1"/>
+    <row r="496" ht="14.25" customHeight="1"/>
+    <row r="497" ht="14.25" customHeight="1"/>
+    <row r="498" ht="14.25" customHeight="1"/>
+    <row r="499" ht="14.25" customHeight="1"/>
+    <row r="500" ht="14.25" customHeight="1"/>
+    <row r="501" ht="14.25" customHeight="1"/>
+    <row r="502" ht="14.25" customHeight="1"/>
+    <row r="503" ht="14.25" customHeight="1"/>
+    <row r="504" ht="14.25" customHeight="1"/>
+    <row r="505" ht="14.25" customHeight="1"/>
+    <row r="506" ht="14.25" customHeight="1"/>
+    <row r="507" ht="14.25" customHeight="1"/>
+    <row r="508" ht="14.25" customHeight="1"/>
+    <row r="509" ht="14.25" customHeight="1"/>
+    <row r="510" ht="14.25" customHeight="1"/>
+    <row r="511" ht="14.25" customHeight="1"/>
+    <row r="512" ht="14.25" customHeight="1"/>
+    <row r="513" ht="14.25" customHeight="1"/>
+    <row r="514" ht="14.25" customHeight="1"/>
+    <row r="515" ht="14.25" customHeight="1"/>
+    <row r="516" ht="14.25" customHeight="1"/>
+    <row r="517" ht="14.25" customHeight="1"/>
+    <row r="518" ht="14.25" customHeight="1"/>
+    <row r="519" ht="14.25" customHeight="1"/>
+    <row r="520" ht="14.25" customHeight="1"/>
+    <row r="521" ht="14.25" customHeight="1"/>
+    <row r="522" ht="14.25" customHeight="1"/>
+    <row r="523" ht="14.25" customHeight="1"/>
+    <row r="524" ht="14.25" customHeight="1"/>
+    <row r="525" ht="14.25" customHeight="1"/>
+    <row r="526" ht="14.25" customHeight="1"/>
+    <row r="527" ht="14.25" customHeight="1"/>
+    <row r="528" ht="14.25" customHeight="1"/>
+    <row r="529" ht="14.25" customHeight="1"/>
+    <row r="530" ht="14.25" customHeight="1"/>
+    <row r="531" ht="14.25" customHeight="1"/>
+    <row r="532" ht="14.25" customHeight="1"/>
+    <row r="533" ht="14.25" customHeight="1"/>
+    <row r="534" ht="14.25" customHeight="1"/>
+    <row r="535" ht="14.25" customHeight="1"/>
+    <row r="536" ht="14.25" customHeight="1"/>
+    <row r="537" ht="14.25" customHeight="1"/>
+    <row r="538" ht="14.25" customHeight="1"/>
+    <row r="539" ht="14.25" customHeight="1"/>
+    <row r="540" ht="14.25" customHeight="1"/>
+    <row r="541" ht="14.25" customHeight="1"/>
+    <row r="542" ht="14.25" customHeight="1"/>
+    <row r="543" ht="14.25" customHeight="1"/>
+    <row r="544" ht="14.25" customHeight="1"/>
+    <row r="545" ht="14.25" customHeight="1"/>
+    <row r="546" ht="14.25" customHeight="1"/>
+    <row r="547" ht="14.25" customHeight="1"/>
+    <row r="548" ht="14.25" customHeight="1"/>
+    <row r="549" ht="14.25" customHeight="1"/>
+    <row r="550" ht="14.25" customHeight="1"/>
+    <row r="551" ht="14.25" customHeight="1"/>
+    <row r="552" ht="14.25" customHeight="1"/>
+    <row r="553" ht="14.25" customHeight="1"/>
+    <row r="554" ht="14.25" customHeight="1"/>
+    <row r="555" ht="14.25" customHeight="1"/>
+    <row r="556" ht="14.25" customHeight="1"/>
+    <row r="557" ht="14.25" customHeight="1"/>
+    <row r="558" ht="14.25" customHeight="1"/>
+    <row r="559" ht="14.25" customHeight="1"/>
+    <row r="560" ht="14.25" customHeight="1"/>
+    <row r="561" ht="14.25" customHeight="1"/>
+    <row r="562" ht="14.25" customHeight="1"/>
+    <row r="563" ht="14.25" customHeight="1"/>
+    <row r="564" ht="14.25" customHeight="1"/>
+    <row r="565" ht="14.25" customHeight="1"/>
+    <row r="566" ht="14.25" customHeight="1"/>
+    <row r="567" ht="14.25" customHeight="1"/>
+    <row r="568" ht="14.25" customHeight="1"/>
+    <row r="569" ht="14.25" customHeight="1"/>
+    <row r="570" ht="14.25" customHeight="1"/>
+    <row r="571" ht="14.25" customHeight="1"/>
+    <row r="572" ht="14.25" customHeight="1"/>
+    <row r="573" ht="14.25" customHeight="1"/>
+    <row r="574" ht="14.25" customHeight="1"/>
+    <row r="575" ht="14.25" customHeight="1"/>
+    <row r="576" ht="14.25" customHeight="1"/>
+    <row r="577" ht="14.25" customHeight="1"/>
+    <row r="578" ht="14.25" customHeight="1"/>
+    <row r="579" ht="14.25" customHeight="1"/>
+    <row r="580" ht="14.25" customHeight="1"/>
+    <row r="581" ht="14.25" customHeight="1"/>
+    <row r="582" ht="14.25" customHeight="1"/>
+    <row r="583" ht="14.25" customHeight="1"/>
+    <row r="584" ht="14.25" customHeight="1"/>
+    <row r="585" ht="14.25" customHeight="1"/>
+    <row r="586" ht="14.25" customHeight="1"/>
+    <row r="587" ht="14.25" customHeight="1"/>
+    <row r="588" ht="14.25" customHeight="1"/>
+    <row r="589" ht="14.25" customHeight="1"/>
+    <row r="590" ht="14.25" customHeight="1"/>
+    <row r="591" ht="14.25" customHeight="1"/>
+    <row r="592" ht="14.25" customHeight="1"/>
+    <row r="593" ht="14.25" customHeight="1"/>
+    <row r="594" ht="14.25" customHeight="1"/>
+    <row r="595" ht="14.25" customHeight="1"/>
+    <row r="596" ht="14.25" customHeight="1"/>
+    <row r="597" ht="14.25" customHeight="1"/>
+    <row r="598" ht="14.25" customHeight="1"/>
+    <row r="599" ht="14.25" customHeight="1"/>
+    <row r="600" ht="14.25" customHeight="1"/>
+    <row r="601" ht="14.25" customHeight="1"/>
+    <row r="602" ht="14.25" customHeight="1"/>
+    <row r="603" ht="14.25" customHeight="1"/>
+    <row r="604" ht="14.25" customHeight="1"/>
+    <row r="605" ht="14.25" customHeight="1"/>
+    <row r="606" ht="14.25" customHeight="1"/>
+    <row r="607" ht="14.25" customHeight="1"/>
+    <row r="608" ht="14.25" customHeight="1"/>
+    <row r="609" ht="14.25" customHeight="1"/>
+    <row r="610" ht="14.25" customHeight="1"/>
+    <row r="611" ht="14.25" customHeight="1"/>
+    <row r="612" ht="14.25" customHeight="1"/>
+    <row r="613" ht="14.25" customHeight="1"/>
+    <row r="614" ht="14.25" customHeight="1"/>
+    <row r="615" ht="14.25" customHeight="1"/>
+    <row r="616" ht="14.25" customHeight="1"/>
+    <row r="617" ht="14.25" customHeight="1"/>
+    <row r="618" ht="14.25" customHeight="1"/>
+    <row r="619" ht="14.25" customHeight="1"/>
+    <row r="620" ht="14.25" customHeight="1"/>
+    <row r="621" ht="14.25" customHeight="1"/>
+    <row r="622" ht="14.25" customHeight="1"/>
+    <row r="623" ht="14.25" customHeight="1"/>
+    <row r="624" ht="14.25" customHeight="1"/>
+    <row r="625" ht="14.25" customHeight="1"/>
+    <row r="626" ht="14.25" customHeight="1"/>
+    <row r="627" ht="14.25" customHeight="1"/>
+    <row r="628" ht="14.25" customHeight="1"/>
+    <row r="629" ht="14.25" customHeight="1"/>
+    <row r="630" ht="14.25" customHeight="1"/>
+    <row r="631" ht="14.25" customHeight="1"/>
+    <row r="632" ht="14.25" customHeight="1"/>
+    <row r="633" ht="14.25" customHeight="1"/>
+    <row r="634" ht="14.25" customHeight="1"/>
+    <row r="635" ht="14.25" customHeight="1"/>
+    <row r="636" ht="14.25" customHeight="1"/>
+    <row r="637" ht="14.25" customHeight="1"/>
+    <row r="638" ht="14.25" customHeight="1"/>
+    <row r="639" ht="14.25" customHeight="1"/>
+    <row r="640" ht="14.25" customHeight="1"/>
+    <row r="641" ht="14.25" customHeight="1"/>
+    <row r="642" ht="14.25" customHeight="1"/>
+    <row r="643" ht="14.25" customHeight="1"/>
+    <row r="644" ht="14.25" customHeight="1"/>
+    <row r="645" ht="14.25" customHeight="1"/>
+    <row r="646" ht="14.25" customHeight="1"/>
+    <row r="647" ht="14.25" customHeight="1"/>
+    <row r="648" ht="14.25" customHeight="1"/>
+    <row r="649" ht="14.25" customHeight="1"/>
+    <row r="650" ht="14.25" customHeight="1"/>
+    <row r="651" ht="14.25" customHeight="1"/>
+    <row r="652" ht="14.25" customHeight="1"/>
+    <row r="653" ht="14.25" customHeight="1"/>
+    <row r="654" ht="14.25" customHeight="1"/>
+    <row r="655" ht="14.25" customHeight="1"/>
+    <row r="656" ht="14.25" customHeight="1"/>
+    <row r="657" ht="14.25" customHeight="1"/>
+    <row r="658" ht="14.25" customHeight="1"/>
+    <row r="659" ht="14.25" customHeight="1"/>
+    <row r="660" ht="14.25" customHeight="1"/>
+    <row r="661" ht="14.25" customHeight="1"/>
+    <row r="662" ht="14.25" customHeight="1"/>
+    <row r="663" ht="14.25" customHeight="1"/>
+    <row r="664" ht="14.25" customHeight="1"/>
+    <row r="665" ht="14.25" customHeight="1"/>
+    <row r="666" ht="14.25" customHeight="1"/>
+    <row r="667" ht="14.25" customHeight="1"/>
+    <row r="668" ht="14.25" customHeight="1"/>
+    <row r="669" ht="14.25" customHeight="1"/>
+    <row r="670" ht="14.25" customHeight="1"/>
+    <row r="671" ht="14.25" customHeight="1"/>
+    <row r="672" ht="14.25" customHeight="1"/>
+    <row r="673" ht="14.25" customHeight="1"/>
+    <row r="674" ht="14.25" customHeight="1"/>
+    <row r="675" ht="14.25" customHeight="1"/>
+    <row r="676" ht="14.25" customHeight="1"/>
+    <row r="677" ht="14.25" customHeight="1"/>
+    <row r="678" ht="14.25" customHeight="1"/>
+    <row r="679" ht="14.25" customHeight="1"/>
+    <row r="680" ht="14.25" customHeight="1"/>
+    <row r="681" ht="14.25" customHeight="1"/>
+    <row r="682" ht="14.25" customHeight="1"/>
+    <row r="683" ht="14.25" customHeight="1"/>
+    <row r="684" ht="14.25" customHeight="1"/>
+    <row r="685" ht="14.25" customHeight="1"/>
+    <row r="686" ht="14.25" customHeight="1"/>
+    <row r="687" ht="14.25" customHeight="1"/>
+    <row r="688" ht="14.25" customHeight="1"/>
+    <row r="689" ht="14.25" customHeight="1"/>
+    <row r="690" ht="14.25" customHeight="1"/>
+    <row r="691" ht="14.25" customHeight="1"/>
+    <row r="692" ht="14.25" customHeight="1"/>
+    <row r="693" ht="14.25" customHeight="1"/>
+    <row r="694" ht="14.25" customHeight="1"/>
+    <row r="695" ht="14.25" customHeight="1"/>
+    <row r="696" ht="14.25" customHeight="1"/>
+    <row r="697" ht="14.25" customHeight="1"/>
+    <row r="698" ht="14.25" customHeight="1"/>
+    <row r="699" ht="14.25" customHeight="1"/>
+    <row r="700" ht="14.25" customHeight="1"/>
+    <row r="701" ht="14.25" customHeight="1"/>
+    <row r="702" ht="14.25" customHeight="1"/>
+    <row r="703" ht="14.25" customHeight="1"/>
+    <row r="704" ht="14.25" customHeight="1"/>
+    <row r="705" ht="14.25" customHeight="1"/>
+    <row r="706" ht="14.25" customHeight="1"/>
+    <row r="707" ht="14.25" customHeight="1"/>
+    <row r="708" ht="14.25" customHeight="1"/>
+    <row r="709" ht="14.25" customHeight="1"/>
+    <row r="710" ht="14.25" customHeight="1"/>
+    <row r="711" ht="14.25" customHeight="1"/>
+    <row r="712" ht="14.25" customHeight="1"/>
+    <row r="713" ht="14.25" customHeight="1"/>
+    <row r="714" ht="14.25" customHeight="1"/>
+    <row r="715" ht="14.25" customHeight="1"/>
+    <row r="716" ht="14.25" customHeight="1"/>
+    <row r="717" ht="14.25" customHeight="1"/>
+    <row r="718" ht="14.25" customHeight="1"/>
+    <row r="719" ht="14.25" customHeight="1"/>
+    <row r="720" ht="14.25" customHeight="1"/>
+    <row r="721" ht="14.25" customHeight="1"/>
+    <row r="722" ht="14.25" customHeight="1"/>
+    <row r="723" ht="14.25" customHeight="1"/>
+    <row r="724" ht="14.25" customHeight="1"/>
+    <row r="725" ht="14.25" customHeight="1"/>
+    <row r="726" ht="14.25" customHeight="1"/>
+    <row r="727" ht="14.25" customHeight="1"/>
+    <row r="728" ht="14.25" customHeight="1"/>
+    <row r="729" ht="14.25" customHeight="1"/>
+    <row r="730" ht="14.25" customHeight="1"/>
+    <row r="731" ht="14.25" customHeight="1"/>
+    <row r="732" ht="14.25" customHeight="1"/>
+    <row r="733" ht="14.25" customHeight="1"/>
+    <row r="734" ht="14.25" customHeight="1"/>
+    <row r="735" ht="14.25" customHeight="1"/>
+    <row r="736" ht="14.25" customHeight="1"/>
+    <row r="737" ht="14.25" customHeight="1"/>
+    <row r="738" ht="14.25" customHeight="1"/>
+    <row r="739" ht="14.25" customHeight="1"/>
+    <row r="740" ht="14.25" customHeight="1"/>
+    <row r="741" ht="14.25" customHeight="1"/>
+    <row r="742" ht="14.25" customHeight="1"/>
+    <row r="743" ht="14.25" customHeight="1"/>
+    <row r="744" ht="14.25" customHeight="1"/>
+    <row r="745" ht="14.25" customHeight="1"/>
+    <row r="746" ht="14.25" customHeight="1"/>
+    <row r="747" ht="14.25" customHeight="1"/>
+    <row r="748" ht="14.25" customHeight="1"/>
+    <row r="749" ht="14.25" customHeight="1"/>
+    <row r="750" ht="14.25" customHeight="1"/>
+    <row r="751" ht="14.25" customHeight="1"/>
+    <row r="752" ht="14.25" customHeight="1"/>
+    <row r="753" ht="14.25" customHeight="1"/>
+    <row r="754" ht="14.25" customHeight="1"/>
+    <row r="755" ht="14.25" customHeight="1"/>
+    <row r="756" ht="14.25" customHeight="1"/>
+    <row r="757" ht="14.25" customHeight="1"/>
+    <row r="758" ht="14.25" customHeight="1"/>
+    <row r="759" ht="14.25" customHeight="1"/>
+    <row r="760" ht="14.25" customHeight="1"/>
+    <row r="761" ht="14.25" customHeight="1"/>
+    <row r="762" ht="14.25" customHeight="1"/>
+    <row r="763" ht="14.25" customHeight="1"/>
+    <row r="764" ht="14.25" customHeight="1"/>
+    <row r="765" ht="14.25" customHeight="1"/>
+    <row r="766" ht="14.25" customHeight="1"/>
+    <row r="767" ht="14.25" customHeight="1"/>
+    <row r="768" ht="14.25" customHeight="1"/>
+    <row r="769" ht="14.25" customHeight="1"/>
+    <row r="770" ht="14.25" customHeight="1"/>
+    <row r="771" ht="14.25" customHeight="1"/>
+    <row r="772" ht="14.25" customHeight="1"/>
+    <row r="773" ht="14.25" customHeight="1"/>
+    <row r="774" ht="14.25" customHeight="1"/>
+    <row r="775" ht="14.25" customHeight="1"/>
+    <row r="776" ht="14.25" customHeight="1"/>
+    <row r="777" ht="14.25" customHeight="1"/>
+    <row r="778" ht="14.25" customHeight="1"/>
+    <row r="779" ht="14.25" customHeight="1"/>
+    <row r="780" ht="14.25" customHeight="1"/>
+    <row r="781" ht="14.25" customHeight="1"/>
+    <row r="782" ht="14.25" customHeight="1"/>
+    <row r="783" ht="14.25" customHeight="1"/>
+    <row r="784" ht="14.25" customHeight="1"/>
+    <row r="785" ht="14.25" customHeight="1"/>
+    <row r="786" ht="14.25" customHeight="1"/>
+    <row r="787" ht="14.25" customHeight="1"/>
+    <row r="788" ht="14.25" customHeight="1"/>
+    <row r="789" ht="14.25" customHeight="1"/>
+    <row r="790" ht="14.25" customHeight="1"/>
+    <row r="791" ht="14.25" customHeight="1"/>
+    <row r="792" ht="14.25" customHeight="1"/>
+    <row r="793" ht="14.25" customHeight="1"/>
+    <row r="794" ht="14.25" customHeight="1"/>
+    <row r="795" ht="14.25" customHeight="1"/>
+    <row r="796" ht="14.25" customHeight="1"/>
+    <row r="797" ht="14.25" customHeight="1"/>
+    <row r="798" ht="14.25" customHeight="1"/>
+    <row r="799" ht="14.25" customHeight="1"/>
+    <row r="800" ht="14.25" customHeight="1"/>
+    <row r="801" ht="14.25" customHeight="1"/>
+    <row r="802" ht="14.25" customHeight="1"/>
+    <row r="803" ht="14.25" customHeight="1"/>
+    <row r="804" ht="14.25" customHeight="1"/>
+    <row r="805" ht="14.25" customHeight="1"/>
+    <row r="806" ht="14.25" customHeight="1"/>
+    <row r="807" ht="14.25" customHeight="1"/>
+    <row r="808" ht="14.25" customHeight="1"/>
+    <row r="809" ht="14.25" customHeight="1"/>
+    <row r="810" ht="14.25" customHeight="1"/>
+    <row r="811" ht="14.25" customHeight="1"/>
+    <row r="812" ht="14.25" customHeight="1"/>
+    <row r="813" ht="14.25" customHeight="1"/>
+    <row r="814" ht="14.25" customHeight="1"/>
+    <row r="815" ht="14.25" customHeight="1"/>
+    <row r="816" ht="14.25" customHeight="1"/>
+    <row r="817" ht="14.25" customHeight="1"/>
+    <row r="818" ht="14.25" customHeight="1"/>
+    <row r="819" ht="14.25" customHeight="1"/>
+    <row r="820" ht="14.25" customHeight="1"/>
+    <row r="821" ht="14.25" customHeight="1"/>
+    <row r="822" ht="14.25" customHeight="1"/>
+    <row r="823" ht="14.25" customHeight="1"/>
+    <row r="824" ht="14.25" customHeight="1"/>
+    <row r="825" ht="14.25" customHeight="1"/>
+    <row r="826" ht="14.25" customHeight="1"/>
+    <row r="827" ht="14.25" customHeight="1"/>
+    <row r="828" ht="14.25" customHeight="1"/>
+    <row r="829" ht="14.25" customHeight="1"/>
+    <row r="830" ht="14.25" customHeight="1"/>
+    <row r="831" ht="14.25" customHeight="1"/>
+    <row r="832" ht="14.25" customHeight="1"/>
+    <row r="833" ht="14.25" customHeight="1"/>
+    <row r="834" ht="14.25" customHeight="1"/>
+    <row r="835" ht="14.25" customHeight="1"/>
+    <row r="836" ht="14.25" customHeight="1"/>
+    <row r="837" ht="14.25" customHeight="1"/>
+    <row r="838" ht="14.25" customHeight="1"/>
+    <row r="839" ht="14.25" customHeight="1"/>
+    <row r="840" ht="14.25" customHeight="1"/>
+    <row r="841" ht="14.25" customHeight="1"/>
+    <row r="842" ht="14.25" customHeight="1"/>
+    <row r="843" ht="14.25" customHeight="1"/>
+    <row r="844" ht="14.25" customHeight="1"/>
+    <row r="845" ht="14.25" customHeight="1"/>
+    <row r="846" ht="14.25" customHeight="1"/>
+    <row r="847" ht="14.25" customHeight="1"/>
+    <row r="848" ht="14.25" customHeight="1"/>
+    <row r="849" ht="14.25" customHeight="1"/>
+    <row r="850" ht="14.25" customHeight="1"/>
+    <row r="851" ht="14.25" customHeight="1"/>
+    <row r="852" ht="14.25" customHeight="1"/>
+    <row r="853" ht="14.25" customHeight="1"/>
+    <row r="854" ht="14.25" customHeight="1"/>
+    <row r="855" ht="14.25" customHeight="1"/>
+    <row r="856" ht="14.25" customHeight="1"/>
+    <row r="857" ht="14.25" customHeight="1"/>
+    <row r="858" ht="14.25" customHeight="1"/>
+    <row r="859" ht="14.25" customHeight="1"/>
+    <row r="860" ht="14.25" customHeight="1"/>
+    <row r="861" ht="14.25" customHeight="1"/>
+    <row r="862" ht="14.25" customHeight="1"/>
+    <row r="863" ht="14.25" customHeight="1"/>
+    <row r="864" ht="14.25" customHeight="1"/>
+    <row r="865" ht="14.25" customHeight="1"/>
+    <row r="866" ht="14.25" customHeight="1"/>
+    <row r="867" ht="14.25" customHeight="1"/>
+    <row r="868" ht="14.25" customHeight="1"/>
+    <row r="869" ht="14.25" customHeight="1"/>
+    <row r="870" ht="14.25" customHeight="1"/>
+    <row r="871" ht="14.25" customHeight="1"/>
+    <row r="872" ht="14.25" customHeight="1"/>
+    <row r="873" ht="14.25" customHeight="1"/>
+    <row r="874" ht="14.25" customHeight="1"/>
+    <row r="875" ht="14.25" customHeight="1"/>
+    <row r="876" ht="14.25" customHeight="1"/>
+    <row r="877" ht="14.25" customHeight="1"/>
+    <row r="878" ht="14.25" customHeight="1"/>
+    <row r="879" ht="14.25" customHeight="1"/>
+    <row r="880" ht="14.25" customHeight="1"/>
+    <row r="881" ht="14.25" customHeight="1"/>
+    <row r="882" ht="14.25" customHeight="1"/>
+    <row r="883" ht="14.25" customHeight="1"/>
+    <row r="884" ht="14.25" customHeight="1"/>
+    <row r="885" ht="14.25" customHeight="1"/>
+    <row r="886" ht="14.25" customHeight="1"/>
+    <row r="887" ht="14.25" customHeight="1"/>
+    <row r="888" ht="14.25" customHeight="1"/>
+    <row r="889" ht="14.25" customHeight="1"/>
+    <row r="890" ht="14.25" customHeight="1"/>
+    <row r="891" ht="14.25" customHeight="1"/>
+    <row r="892" ht="14.25" customHeight="1"/>
+    <row r="893" ht="14.25" customHeight="1"/>
+    <row r="894" ht="14.25" customHeight="1"/>
+    <row r="895" ht="14.25" customHeight="1"/>
+    <row r="896" ht="14.25" customHeight="1"/>
+    <row r="897" ht="14.25" customHeight="1"/>
+    <row r="898" ht="14.25" customHeight="1"/>
+    <row r="899" ht="14.25" customHeight="1"/>
+    <row r="900" ht="14.25" customHeight="1"/>
+    <row r="901" ht="14.25" customHeight="1"/>
+    <row r="902" ht="14.25" customHeight="1"/>
+    <row r="903" ht="14.25" customHeight="1"/>
+    <row r="904" ht="14.25" customHeight="1"/>
+    <row r="905" ht="14.25" customHeight="1"/>
+    <row r="906" ht="14.25" customHeight="1"/>
+    <row r="907" ht="14.25" customHeight="1"/>
+    <row r="908" ht="14.25" customHeight="1"/>
+    <row r="909" ht="14.25" customHeight="1"/>
+    <row r="910" ht="14.25" customHeight="1"/>
+    <row r="911" ht="14.25" customHeight="1"/>
+    <row r="912" ht="14.25" customHeight="1"/>
+    <row r="913" ht="14.25" customHeight="1"/>
+    <row r="914" ht="14.25" customHeight="1"/>
+    <row r="915" ht="14.25" customHeight="1"/>
+    <row r="916" ht="14.25" customHeight="1"/>
+    <row r="917" ht="14.25" customHeight="1"/>
+    <row r="918" ht="14.25" customHeight="1"/>
+    <row r="919" ht="14.25" customHeight="1"/>
+    <row r="920" ht="14.25" customHeight="1"/>
+    <row r="921" ht="14.25" customHeight="1"/>
+    <row r="922" ht="14.25" customHeight="1"/>
+    <row r="923" ht="14.25" customHeight="1"/>
+    <row r="924" ht="14.25" customHeight="1"/>
+    <row r="925" ht="14.25" customHeight="1"/>
+    <row r="926" ht="14.25" customHeight="1"/>
+    <row r="927" ht="14.25" customHeight="1"/>
+    <row r="928" ht="14.25" customHeight="1"/>
+    <row r="929" ht="14.25" customHeight="1"/>
+    <row r="930" ht="14.25" customHeight="1"/>
+    <row r="931" ht="14.25" customHeight="1"/>
+    <row r="932" ht="14.25" customHeight="1"/>
+    <row r="933" ht="14.25" customHeight="1"/>
+    <row r="934" ht="14.25" customHeight="1"/>
+    <row r="935" ht="14.25" customHeight="1"/>
+    <row r="936" ht="14.25" customHeight="1"/>
+    <row r="937" ht="14.25" customHeight="1"/>
+    <row r="938" ht="14.25" customHeight="1"/>
+    <row r="939" ht="14.25" customHeight="1"/>
+    <row r="940" ht="14.25" customHeight="1"/>
+    <row r="941" ht="14.25" customHeight="1"/>
+    <row r="942" ht="14.25" customHeight="1"/>
+    <row r="943" ht="14.25" customHeight="1"/>
+    <row r="944" ht="14.25" customHeight="1"/>
+    <row r="945" ht="14.25" customHeight="1"/>
+    <row r="946" ht="14.25" customHeight="1"/>
+    <row r="947" ht="14.25" customHeight="1"/>
+    <row r="948" ht="14.25" customHeight="1"/>
+    <row r="949" ht="14.25" customHeight="1"/>
+    <row r="950" ht="14.25" customHeight="1"/>
+    <row r="951" ht="14.25" customHeight="1"/>
+    <row r="952" ht="14.25" customHeight="1"/>
+    <row r="953" ht="14.25" customHeight="1"/>
+    <row r="954" ht="14.25" customHeight="1"/>
+    <row r="955" ht="14.25" customHeight="1"/>
+    <row r="956" ht="14.25" customHeight="1"/>
+    <row r="957" ht="14.25" customHeight="1"/>
+    <row r="958" ht="14.25" customHeight="1"/>
+    <row r="959" ht="14.25" customHeight="1"/>
+    <row r="960" ht="14.25" customHeight="1"/>
+    <row r="961" ht="14.25" customHeight="1"/>
+    <row r="962" ht="14.25" customHeight="1"/>
+    <row r="963" ht="14.25" customHeight="1"/>
+    <row r="964" ht="14.25" customHeight="1"/>
+    <row r="965" ht="14.25" customHeight="1"/>
+    <row r="966" ht="14.25" customHeight="1"/>
+    <row r="967" ht="14.25" customHeight="1"/>
+    <row r="968" ht="14.25" customHeight="1"/>
+    <row r="969" ht="14.25" customHeight="1"/>
+    <row r="970" ht="14.25" customHeight="1"/>
+    <row r="971" ht="14.25" customHeight="1"/>
+    <row r="972" ht="14.25" customHeight="1"/>
+    <row r="973" ht="14.25" customHeight="1"/>
+    <row r="974" ht="14.25" customHeight="1"/>
+    <row r="975" ht="14.25" customHeight="1"/>
+    <row r="976" ht="14.25" customHeight="1"/>
+    <row r="977" ht="14.25" customHeight="1"/>
+    <row r="978" ht="14.25" customHeight="1"/>
+    <row r="979" ht="14.25" customHeight="1"/>
+    <row r="980" ht="14.25" customHeight="1"/>
+    <row r="981" ht="14.25" customHeight="1"/>
+    <row r="982" ht="14.25" customHeight="1"/>
+    <row r="983" ht="14.25" customHeight="1"/>
+    <row r="984" ht="14.25" customHeight="1"/>
+    <row r="985" ht="14.25" customHeight="1"/>
+    <row r="986" ht="14.25" customHeight="1"/>
+    <row r="987" ht="14.25" customHeight="1"/>
+    <row r="988" ht="14.25" customHeight="1"/>
+    <row r="989" ht="14.25" customHeight="1"/>
+    <row r="990" ht="14.25" customHeight="1"/>
+    <row r="991" ht="14.25" customHeight="1"/>
+    <row r="992" ht="14.25" customHeight="1"/>
+    <row r="993" ht="14.25" customHeight="1"/>
+    <row r="994" ht="14.25" customHeight="1"/>
+    <row r="995" ht="14.25" customHeight="1"/>
+    <row r="996" ht="14.25" customHeight="1"/>
+    <row r="997" ht="14.25" customHeight="1"/>
+    <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
+    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -387,24 +1809,3840 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="45.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="16" width="11.5703125" customWidth="1"/>
+    <col min="17" max="26" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" ht="14.25" customHeight="1"/>
+    <row r="34" ht="14.25" customHeight="1"/>
+    <row r="35" ht="14.25" customHeight="1"/>
+    <row r="36" ht="14.25" customHeight="1"/>
+    <row r="37" ht="14.25" customHeight="1"/>
+    <row r="38" ht="14.25" customHeight="1"/>
+    <row r="39" ht="14.25" customHeight="1"/>
+    <row r="40" ht="14.25" customHeight="1"/>
+    <row r="41" ht="14.25" customHeight="1"/>
+    <row r="42" ht="14.25" customHeight="1"/>
+    <row r="43" ht="14.25" customHeight="1"/>
+    <row r="44" ht="14.25" customHeight="1"/>
+    <row r="45" ht="14.25" customHeight="1"/>
+    <row r="46" ht="14.25" customHeight="1"/>
+    <row r="47" ht="14.25" customHeight="1"/>
+    <row r="48" ht="14.25" customHeight="1"/>
+    <row r="49" ht="14.25" customHeight="1"/>
+    <row r="50" ht="14.25" customHeight="1"/>
+    <row r="51" ht="14.25" customHeight="1"/>
+    <row r="52" ht="14.25" customHeight="1"/>
+    <row r="53" ht="14.25" customHeight="1"/>
+    <row r="54" ht="14.25" customHeight="1"/>
+    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="56" ht="14.25" customHeight="1"/>
+    <row r="57" ht="14.25" customHeight="1"/>
+    <row r="58" ht="14.25" customHeight="1"/>
+    <row r="59" ht="14.25" customHeight="1"/>
+    <row r="60" ht="14.25" customHeight="1"/>
+    <row r="61" ht="14.25" customHeight="1"/>
+    <row r="62" ht="14.25" customHeight="1"/>
+    <row r="63" ht="14.25" customHeight="1"/>
+    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="65" ht="14.25" customHeight="1"/>
+    <row r="66" ht="14.25" customHeight="1"/>
+    <row r="67" ht="14.25" customHeight="1"/>
+    <row r="68" ht="14.25" customHeight="1"/>
+    <row r="69" ht="14.25" customHeight="1"/>
+    <row r="70" ht="14.25" customHeight="1"/>
+    <row r="71" ht="14.25" customHeight="1"/>
+    <row r="72" ht="14.25" customHeight="1"/>
+    <row r="73" ht="14.25" customHeight="1"/>
+    <row r="74" ht="14.25" customHeight="1"/>
+    <row r="75" ht="14.25" customHeight="1"/>
+    <row r="76" ht="14.25" customHeight="1"/>
+    <row r="77" ht="14.25" customHeight="1"/>
+    <row r="78" ht="14.25" customHeight="1"/>
+    <row r="79" ht="14.25" customHeight="1"/>
+    <row r="80" ht="14.25" customHeight="1"/>
+    <row r="81" ht="14.25" customHeight="1"/>
+    <row r="82" ht="14.25" customHeight="1"/>
+    <row r="83" ht="14.25" customHeight="1"/>
+    <row r="84" ht="14.25" customHeight="1"/>
+    <row r="85" ht="14.25" customHeight="1"/>
+    <row r="86" ht="14.25" customHeight="1"/>
+    <row r="87" ht="14.25" customHeight="1"/>
+    <row r="88" ht="14.25" customHeight="1"/>
+    <row r="89" ht="14.25" customHeight="1"/>
+    <row r="90" ht="14.25" customHeight="1"/>
+    <row r="91" ht="14.25" customHeight="1"/>
+    <row r="92" ht="14.25" customHeight="1"/>
+    <row r="93" ht="14.25" customHeight="1"/>
+    <row r="94" ht="14.25" customHeight="1"/>
+    <row r="95" ht="14.25" customHeight="1"/>
+    <row r="96" ht="14.25" customHeight="1"/>
+    <row r="97" ht="14.25" customHeight="1"/>
+    <row r="98" ht="14.25" customHeight="1"/>
+    <row r="99" ht="14.25" customHeight="1"/>
+    <row r="100" ht="14.25" customHeight="1"/>
+    <row r="101" ht="14.25" customHeight="1"/>
+    <row r="102" ht="14.25" customHeight="1"/>
+    <row r="103" ht="14.25" customHeight="1"/>
+    <row r="104" ht="14.25" customHeight="1"/>
+    <row r="105" ht="14.25" customHeight="1"/>
+    <row r="106" ht="14.25" customHeight="1"/>
+    <row r="107" ht="14.25" customHeight="1"/>
+    <row r="108" ht="14.25" customHeight="1"/>
+    <row r="109" ht="14.25" customHeight="1"/>
+    <row r="110" ht="14.25" customHeight="1"/>
+    <row r="111" ht="14.25" customHeight="1"/>
+    <row r="112" ht="14.25" customHeight="1"/>
+    <row r="113" ht="14.25" customHeight="1"/>
+    <row r="114" ht="14.25" customHeight="1"/>
+    <row r="115" ht="14.25" customHeight="1"/>
+    <row r="116" ht="14.25" customHeight="1"/>
+    <row r="117" ht="14.25" customHeight="1"/>
+    <row r="118" ht="14.25" customHeight="1"/>
+    <row r="119" ht="14.25" customHeight="1"/>
+    <row r="120" ht="14.25" customHeight="1"/>
+    <row r="121" ht="14.25" customHeight="1"/>
+    <row r="122" ht="14.25" customHeight="1"/>
+    <row r="123" ht="14.25" customHeight="1"/>
+    <row r="124" ht="14.25" customHeight="1"/>
+    <row r="125" ht="14.25" customHeight="1"/>
+    <row r="126" ht="14.25" customHeight="1"/>
+    <row r="127" ht="14.25" customHeight="1"/>
+    <row r="128" ht="14.25" customHeight="1"/>
+    <row r="129" ht="14.25" customHeight="1"/>
+    <row r="130" ht="14.25" customHeight="1"/>
+    <row r="131" ht="14.25" customHeight="1"/>
+    <row r="132" ht="14.25" customHeight="1"/>
+    <row r="133" ht="14.25" customHeight="1"/>
+    <row r="134" ht="14.25" customHeight="1"/>
+    <row r="135" ht="14.25" customHeight="1"/>
+    <row r="136" ht="14.25" customHeight="1"/>
+    <row r="137" ht="14.25" customHeight="1"/>
+    <row r="138" ht="14.25" customHeight="1"/>
+    <row r="139" ht="14.25" customHeight="1"/>
+    <row r="140" ht="14.25" customHeight="1"/>
+    <row r="141" ht="14.25" customHeight="1"/>
+    <row r="142" ht="14.25" customHeight="1"/>
+    <row r="143" ht="14.25" customHeight="1"/>
+    <row r="144" ht="14.25" customHeight="1"/>
+    <row r="145" ht="14.25" customHeight="1"/>
+    <row r="146" ht="14.25" customHeight="1"/>
+    <row r="147" ht="14.25" customHeight="1"/>
+    <row r="148" ht="14.25" customHeight="1"/>
+    <row r="149" ht="14.25" customHeight="1"/>
+    <row r="150" ht="14.25" customHeight="1"/>
+    <row r="151" ht="14.25" customHeight="1"/>
+    <row r="152" ht="14.25" customHeight="1"/>
+    <row r="153" ht="14.25" customHeight="1"/>
+    <row r="154" ht="14.25" customHeight="1"/>
+    <row r="155" ht="14.25" customHeight="1"/>
+    <row r="156" ht="14.25" customHeight="1"/>
+    <row r="157" ht="14.25" customHeight="1"/>
+    <row r="158" ht="14.25" customHeight="1"/>
+    <row r="159" ht="14.25" customHeight="1"/>
+    <row r="160" ht="14.25" customHeight="1"/>
+    <row r="161" ht="14.25" customHeight="1"/>
+    <row r="162" ht="14.25" customHeight="1"/>
+    <row r="163" ht="14.25" customHeight="1"/>
+    <row r="164" ht="14.25" customHeight="1"/>
+    <row r="165" ht="14.25" customHeight="1"/>
+    <row r="166" ht="14.25" customHeight="1"/>
+    <row r="167" ht="14.25" customHeight="1"/>
+    <row r="168" ht="14.25" customHeight="1"/>
+    <row r="169" ht="14.25" customHeight="1"/>
+    <row r="170" ht="14.25" customHeight="1"/>
+    <row r="171" ht="14.25" customHeight="1"/>
+    <row r="172" ht="14.25" customHeight="1"/>
+    <row r="173" ht="14.25" customHeight="1"/>
+    <row r="174" ht="14.25" customHeight="1"/>
+    <row r="175" ht="14.25" customHeight="1"/>
+    <row r="176" ht="14.25" customHeight="1"/>
+    <row r="177" ht="14.25" customHeight="1"/>
+    <row r="178" ht="14.25" customHeight="1"/>
+    <row r="179" ht="14.25" customHeight="1"/>
+    <row r="180" ht="14.25" customHeight="1"/>
+    <row r="181" ht="14.25" customHeight="1"/>
+    <row r="182" ht="14.25" customHeight="1"/>
+    <row r="183" ht="14.25" customHeight="1"/>
+    <row r="184" ht="14.25" customHeight="1"/>
+    <row r="185" ht="14.25" customHeight="1"/>
+    <row r="186" ht="14.25" customHeight="1"/>
+    <row r="187" ht="14.25" customHeight="1"/>
+    <row r="188" ht="14.25" customHeight="1"/>
+    <row r="189" ht="14.25" customHeight="1"/>
+    <row r="190" ht="14.25" customHeight="1"/>
+    <row r="191" ht="14.25" customHeight="1"/>
+    <row r="192" ht="14.25" customHeight="1"/>
+    <row r="193" ht="14.25" customHeight="1"/>
+    <row r="194" ht="14.25" customHeight="1"/>
+    <row r="195" ht="14.25" customHeight="1"/>
+    <row r="196" ht="14.25" customHeight="1"/>
+    <row r="197" ht="14.25" customHeight="1"/>
+    <row r="198" ht="14.25" customHeight="1"/>
+    <row r="199" ht="14.25" customHeight="1"/>
+    <row r="200" ht="14.25" customHeight="1"/>
+    <row r="201" ht="14.25" customHeight="1"/>
+    <row r="202" ht="14.25" customHeight="1"/>
+    <row r="203" ht="14.25" customHeight="1"/>
+    <row r="204" ht="14.25" customHeight="1"/>
+    <row r="205" ht="14.25" customHeight="1"/>
+    <row r="206" ht="14.25" customHeight="1"/>
+    <row r="207" ht="14.25" customHeight="1"/>
+    <row r="208" ht="14.25" customHeight="1"/>
+    <row r="209" ht="14.25" customHeight="1"/>
+    <row r="210" ht="14.25" customHeight="1"/>
+    <row r="211" ht="14.25" customHeight="1"/>
+    <row r="212" ht="14.25" customHeight="1"/>
+    <row r="213" ht="14.25" customHeight="1"/>
+    <row r="214" ht="14.25" customHeight="1"/>
+    <row r="215" ht="14.25" customHeight="1"/>
+    <row r="216" ht="14.25" customHeight="1"/>
+    <row r="217" ht="14.25" customHeight="1"/>
+    <row r="218" ht="14.25" customHeight="1"/>
+    <row r="219" ht="14.25" customHeight="1"/>
+    <row r="220" ht="14.25" customHeight="1"/>
+    <row r="221" ht="14.25" customHeight="1"/>
+    <row r="222" ht="14.25" customHeight="1"/>
+    <row r="223" ht="14.25" customHeight="1"/>
+    <row r="224" ht="14.25" customHeight="1"/>
+    <row r="225" ht="14.25" customHeight="1"/>
+    <row r="226" ht="14.25" customHeight="1"/>
+    <row r="227" ht="14.25" customHeight="1"/>
+    <row r="228" ht="14.25" customHeight="1"/>
+    <row r="229" ht="14.25" customHeight="1"/>
+    <row r="230" ht="14.25" customHeight="1"/>
+    <row r="231" ht="14.25" customHeight="1"/>
+    <row r="232" ht="14.25" customHeight="1"/>
+    <row r="233" ht="14.25" customHeight="1"/>
+    <row r="234" ht="14.25" customHeight="1"/>
+    <row r="235" ht="14.25" customHeight="1"/>
+    <row r="236" ht="14.25" customHeight="1"/>
+    <row r="237" ht="14.25" customHeight="1"/>
+    <row r="238" ht="14.25" customHeight="1"/>
+    <row r="239" ht="14.25" customHeight="1"/>
+    <row r="240" ht="14.25" customHeight="1"/>
+    <row r="241" ht="14.25" customHeight="1"/>
+    <row r="242" ht="14.25" customHeight="1"/>
+    <row r="243" ht="14.25" customHeight="1"/>
+    <row r="244" ht="14.25" customHeight="1"/>
+    <row r="245" ht="14.25" customHeight="1"/>
+    <row r="246" ht="14.25" customHeight="1"/>
+    <row r="247" ht="14.25" customHeight="1"/>
+    <row r="248" ht="14.25" customHeight="1"/>
+    <row r="249" ht="14.25" customHeight="1"/>
+    <row r="250" ht="14.25" customHeight="1"/>
+    <row r="251" ht="14.25" customHeight="1"/>
+    <row r="252" ht="14.25" customHeight="1"/>
+    <row r="253" ht="14.25" customHeight="1"/>
+    <row r="254" ht="14.25" customHeight="1"/>
+    <row r="255" ht="14.25" customHeight="1"/>
+    <row r="256" ht="14.25" customHeight="1"/>
+    <row r="257" ht="14.25" customHeight="1"/>
+    <row r="258" ht="14.25" customHeight="1"/>
+    <row r="259" ht="14.25" customHeight="1"/>
+    <row r="260" ht="14.25" customHeight="1"/>
+    <row r="261" ht="14.25" customHeight="1"/>
+    <row r="262" ht="14.25" customHeight="1"/>
+    <row r="263" ht="14.25" customHeight="1"/>
+    <row r="264" ht="14.25" customHeight="1"/>
+    <row r="265" ht="14.25" customHeight="1"/>
+    <row r="266" ht="14.25" customHeight="1"/>
+    <row r="267" ht="14.25" customHeight="1"/>
+    <row r="268" ht="14.25" customHeight="1"/>
+    <row r="269" ht="14.25" customHeight="1"/>
+    <row r="270" ht="14.25" customHeight="1"/>
+    <row r="271" ht="14.25" customHeight="1"/>
+    <row r="272" ht="14.25" customHeight="1"/>
+    <row r="273" ht="14.25" customHeight="1"/>
+    <row r="274" ht="14.25" customHeight="1"/>
+    <row r="275" ht="14.25" customHeight="1"/>
+    <row r="276" ht="14.25" customHeight="1"/>
+    <row r="277" ht="14.25" customHeight="1"/>
+    <row r="278" ht="14.25" customHeight="1"/>
+    <row r="279" ht="14.25" customHeight="1"/>
+    <row r="280" ht="14.25" customHeight="1"/>
+    <row r="281" ht="14.25" customHeight="1"/>
+    <row r="282" ht="14.25" customHeight="1"/>
+    <row r="283" ht="14.25" customHeight="1"/>
+    <row r="284" ht="14.25" customHeight="1"/>
+    <row r="285" ht="14.25" customHeight="1"/>
+    <row r="286" ht="14.25" customHeight="1"/>
+    <row r="287" ht="14.25" customHeight="1"/>
+    <row r="288" ht="14.25" customHeight="1"/>
+    <row r="289" ht="14.25" customHeight="1"/>
+    <row r="290" ht="14.25" customHeight="1"/>
+    <row r="291" ht="14.25" customHeight="1"/>
+    <row r="292" ht="14.25" customHeight="1"/>
+    <row r="293" ht="14.25" customHeight="1"/>
+    <row r="294" ht="14.25" customHeight="1"/>
+    <row r="295" ht="14.25" customHeight="1"/>
+    <row r="296" ht="14.25" customHeight="1"/>
+    <row r="297" ht="14.25" customHeight="1"/>
+    <row r="298" ht="14.25" customHeight="1"/>
+    <row r="299" ht="14.25" customHeight="1"/>
+    <row r="300" ht="14.25" customHeight="1"/>
+    <row r="301" ht="14.25" customHeight="1"/>
+    <row r="302" ht="14.25" customHeight="1"/>
+    <row r="303" ht="14.25" customHeight="1"/>
+    <row r="304" ht="14.25" customHeight="1"/>
+    <row r="305" ht="14.25" customHeight="1"/>
+    <row r="306" ht="14.25" customHeight="1"/>
+    <row r="307" ht="14.25" customHeight="1"/>
+    <row r="308" ht="14.25" customHeight="1"/>
+    <row r="309" ht="14.25" customHeight="1"/>
+    <row r="310" ht="14.25" customHeight="1"/>
+    <row r="311" ht="14.25" customHeight="1"/>
+    <row r="312" ht="14.25" customHeight="1"/>
+    <row r="313" ht="14.25" customHeight="1"/>
+    <row r="314" ht="14.25" customHeight="1"/>
+    <row r="315" ht="14.25" customHeight="1"/>
+    <row r="316" ht="14.25" customHeight="1"/>
+    <row r="317" ht="14.25" customHeight="1"/>
+    <row r="318" ht="14.25" customHeight="1"/>
+    <row r="319" ht="14.25" customHeight="1"/>
+    <row r="320" ht="14.25" customHeight="1"/>
+    <row r="321" ht="14.25" customHeight="1"/>
+    <row r="322" ht="14.25" customHeight="1"/>
+    <row r="323" ht="14.25" customHeight="1"/>
+    <row r="324" ht="14.25" customHeight="1"/>
+    <row r="325" ht="14.25" customHeight="1"/>
+    <row r="326" ht="14.25" customHeight="1"/>
+    <row r="327" ht="14.25" customHeight="1"/>
+    <row r="328" ht="14.25" customHeight="1"/>
+    <row r="329" ht="14.25" customHeight="1"/>
+    <row r="330" ht="14.25" customHeight="1"/>
+    <row r="331" ht="14.25" customHeight="1"/>
+    <row r="332" ht="14.25" customHeight="1"/>
+    <row r="333" ht="14.25" customHeight="1"/>
+    <row r="334" ht="14.25" customHeight="1"/>
+    <row r="335" ht="14.25" customHeight="1"/>
+    <row r="336" ht="14.25" customHeight="1"/>
+    <row r="337" ht="14.25" customHeight="1"/>
+    <row r="338" ht="14.25" customHeight="1"/>
+    <row r="339" ht="14.25" customHeight="1"/>
+    <row r="340" ht="14.25" customHeight="1"/>
+    <row r="341" ht="14.25" customHeight="1"/>
+    <row r="342" ht="14.25" customHeight="1"/>
+    <row r="343" ht="14.25" customHeight="1"/>
+    <row r="344" ht="14.25" customHeight="1"/>
+    <row r="345" ht="14.25" customHeight="1"/>
+    <row r="346" ht="14.25" customHeight="1"/>
+    <row r="347" ht="14.25" customHeight="1"/>
+    <row r="348" ht="14.25" customHeight="1"/>
+    <row r="349" ht="14.25" customHeight="1"/>
+    <row r="350" ht="14.25" customHeight="1"/>
+    <row r="351" ht="14.25" customHeight="1"/>
+    <row r="352" ht="14.25" customHeight="1"/>
+    <row r="353" ht="14.25" customHeight="1"/>
+    <row r="354" ht="14.25" customHeight="1"/>
+    <row r="355" ht="14.25" customHeight="1"/>
+    <row r="356" ht="14.25" customHeight="1"/>
+    <row r="357" ht="14.25" customHeight="1"/>
+    <row r="358" ht="14.25" customHeight="1"/>
+    <row r="359" ht="14.25" customHeight="1"/>
+    <row r="360" ht="14.25" customHeight="1"/>
+    <row r="361" ht="14.25" customHeight="1"/>
+    <row r="362" ht="14.25" customHeight="1"/>
+    <row r="363" ht="14.25" customHeight="1"/>
+    <row r="364" ht="14.25" customHeight="1"/>
+    <row r="365" ht="14.25" customHeight="1"/>
+    <row r="366" ht="14.25" customHeight="1"/>
+    <row r="367" ht="14.25" customHeight="1"/>
+    <row r="368" ht="14.25" customHeight="1"/>
+    <row r="369" ht="14.25" customHeight="1"/>
+    <row r="370" ht="14.25" customHeight="1"/>
+    <row r="371" ht="14.25" customHeight="1"/>
+    <row r="372" ht="14.25" customHeight="1"/>
+    <row r="373" ht="14.25" customHeight="1"/>
+    <row r="374" ht="14.25" customHeight="1"/>
+    <row r="375" ht="14.25" customHeight="1"/>
+    <row r="376" ht="14.25" customHeight="1"/>
+    <row r="377" ht="14.25" customHeight="1"/>
+    <row r="378" ht="14.25" customHeight="1"/>
+    <row r="379" ht="14.25" customHeight="1"/>
+    <row r="380" ht="14.25" customHeight="1"/>
+    <row r="381" ht="14.25" customHeight="1"/>
+    <row r="382" ht="14.25" customHeight="1"/>
+    <row r="383" ht="14.25" customHeight="1"/>
+    <row r="384" ht="14.25" customHeight="1"/>
+    <row r="385" ht="14.25" customHeight="1"/>
+    <row r="386" ht="14.25" customHeight="1"/>
+    <row r="387" ht="14.25" customHeight="1"/>
+    <row r="388" ht="14.25" customHeight="1"/>
+    <row r="389" ht="14.25" customHeight="1"/>
+    <row r="390" ht="14.25" customHeight="1"/>
+    <row r="391" ht="14.25" customHeight="1"/>
+    <row r="392" ht="14.25" customHeight="1"/>
+    <row r="393" ht="14.25" customHeight="1"/>
+    <row r="394" ht="14.25" customHeight="1"/>
+    <row r="395" ht="14.25" customHeight="1"/>
+    <row r="396" ht="14.25" customHeight="1"/>
+    <row r="397" ht="14.25" customHeight="1"/>
+    <row r="398" ht="14.25" customHeight="1"/>
+    <row r="399" ht="14.25" customHeight="1"/>
+    <row r="400" ht="14.25" customHeight="1"/>
+    <row r="401" ht="14.25" customHeight="1"/>
+    <row r="402" ht="14.25" customHeight="1"/>
+    <row r="403" ht="14.25" customHeight="1"/>
+    <row r="404" ht="14.25" customHeight="1"/>
+    <row r="405" ht="14.25" customHeight="1"/>
+    <row r="406" ht="14.25" customHeight="1"/>
+    <row r="407" ht="14.25" customHeight="1"/>
+    <row r="408" ht="14.25" customHeight="1"/>
+    <row r="409" ht="14.25" customHeight="1"/>
+    <row r="410" ht="14.25" customHeight="1"/>
+    <row r="411" ht="14.25" customHeight="1"/>
+    <row r="412" ht="14.25" customHeight="1"/>
+    <row r="413" ht="14.25" customHeight="1"/>
+    <row r="414" ht="14.25" customHeight="1"/>
+    <row r="415" ht="14.25" customHeight="1"/>
+    <row r="416" ht="14.25" customHeight="1"/>
+    <row r="417" ht="14.25" customHeight="1"/>
+    <row r="418" ht="14.25" customHeight="1"/>
+    <row r="419" ht="14.25" customHeight="1"/>
+    <row r="420" ht="14.25" customHeight="1"/>
+    <row r="421" ht="14.25" customHeight="1"/>
+    <row r="422" ht="14.25" customHeight="1"/>
+    <row r="423" ht="14.25" customHeight="1"/>
+    <row r="424" ht="14.25" customHeight="1"/>
+    <row r="425" ht="14.25" customHeight="1"/>
+    <row r="426" ht="14.25" customHeight="1"/>
+    <row r="427" ht="14.25" customHeight="1"/>
+    <row r="428" ht="14.25" customHeight="1"/>
+    <row r="429" ht="14.25" customHeight="1"/>
+    <row r="430" ht="14.25" customHeight="1"/>
+    <row r="431" ht="14.25" customHeight="1"/>
+    <row r="432" ht="14.25" customHeight="1"/>
+    <row r="433" ht="14.25" customHeight="1"/>
+    <row r="434" ht="14.25" customHeight="1"/>
+    <row r="435" ht="14.25" customHeight="1"/>
+    <row r="436" ht="14.25" customHeight="1"/>
+    <row r="437" ht="14.25" customHeight="1"/>
+    <row r="438" ht="14.25" customHeight="1"/>
+    <row r="439" ht="14.25" customHeight="1"/>
+    <row r="440" ht="14.25" customHeight="1"/>
+    <row r="441" ht="14.25" customHeight="1"/>
+    <row r="442" ht="14.25" customHeight="1"/>
+    <row r="443" ht="14.25" customHeight="1"/>
+    <row r="444" ht="14.25" customHeight="1"/>
+    <row r="445" ht="14.25" customHeight="1"/>
+    <row r="446" ht="14.25" customHeight="1"/>
+    <row r="447" ht="14.25" customHeight="1"/>
+    <row r="448" ht="14.25" customHeight="1"/>
+    <row r="449" ht="14.25" customHeight="1"/>
+    <row r="450" ht="14.25" customHeight="1"/>
+    <row r="451" ht="14.25" customHeight="1"/>
+    <row r="452" ht="14.25" customHeight="1"/>
+    <row r="453" ht="14.25" customHeight="1"/>
+    <row r="454" ht="14.25" customHeight="1"/>
+    <row r="455" ht="14.25" customHeight="1"/>
+    <row r="456" ht="14.25" customHeight="1"/>
+    <row r="457" ht="14.25" customHeight="1"/>
+    <row r="458" ht="14.25" customHeight="1"/>
+    <row r="459" ht="14.25" customHeight="1"/>
+    <row r="460" ht="14.25" customHeight="1"/>
+    <row r="461" ht="14.25" customHeight="1"/>
+    <row r="462" ht="14.25" customHeight="1"/>
+    <row r="463" ht="14.25" customHeight="1"/>
+    <row r="464" ht="14.25" customHeight="1"/>
+    <row r="465" ht="14.25" customHeight="1"/>
+    <row r="466" ht="14.25" customHeight="1"/>
+    <row r="467" ht="14.25" customHeight="1"/>
+    <row r="468" ht="14.25" customHeight="1"/>
+    <row r="469" ht="14.25" customHeight="1"/>
+    <row r="470" ht="14.25" customHeight="1"/>
+    <row r="471" ht="14.25" customHeight="1"/>
+    <row r="472" ht="14.25" customHeight="1"/>
+    <row r="473" ht="14.25" customHeight="1"/>
+    <row r="474" ht="14.25" customHeight="1"/>
+    <row r="475" ht="14.25" customHeight="1"/>
+    <row r="476" ht="14.25" customHeight="1"/>
+    <row r="477" ht="14.25" customHeight="1"/>
+    <row r="478" ht="14.25" customHeight="1"/>
+    <row r="479" ht="14.25" customHeight="1"/>
+    <row r="480" ht="14.25" customHeight="1"/>
+    <row r="481" ht="14.25" customHeight="1"/>
+    <row r="482" ht="14.25" customHeight="1"/>
+    <row r="483" ht="14.25" customHeight="1"/>
+    <row r="484" ht="14.25" customHeight="1"/>
+    <row r="485" ht="14.25" customHeight="1"/>
+    <row r="486" ht="14.25" customHeight="1"/>
+    <row r="487" ht="14.25" customHeight="1"/>
+    <row r="488" ht="14.25" customHeight="1"/>
+    <row r="489" ht="14.25" customHeight="1"/>
+    <row r="490" ht="14.25" customHeight="1"/>
+    <row r="491" ht="14.25" customHeight="1"/>
+    <row r="492" ht="14.25" customHeight="1"/>
+    <row r="493" ht="14.25" customHeight="1"/>
+    <row r="494" ht="14.25" customHeight="1"/>
+    <row r="495" ht="14.25" customHeight="1"/>
+    <row r="496" ht="14.25" customHeight="1"/>
+    <row r="497" ht="14.25" customHeight="1"/>
+    <row r="498" ht="14.25" customHeight="1"/>
+    <row r="499" ht="14.25" customHeight="1"/>
+    <row r="500" ht="14.25" customHeight="1"/>
+    <row r="501" ht="14.25" customHeight="1"/>
+    <row r="502" ht="14.25" customHeight="1"/>
+    <row r="503" ht="14.25" customHeight="1"/>
+    <row r="504" ht="14.25" customHeight="1"/>
+    <row r="505" ht="14.25" customHeight="1"/>
+    <row r="506" ht="14.25" customHeight="1"/>
+    <row r="507" ht="14.25" customHeight="1"/>
+    <row r="508" ht="14.25" customHeight="1"/>
+    <row r="509" ht="14.25" customHeight="1"/>
+    <row r="510" ht="14.25" customHeight="1"/>
+    <row r="511" ht="14.25" customHeight="1"/>
+    <row r="512" ht="14.25" customHeight="1"/>
+    <row r="513" ht="14.25" customHeight="1"/>
+    <row r="514" ht="14.25" customHeight="1"/>
+    <row r="515" ht="14.25" customHeight="1"/>
+    <row r="516" ht="14.25" customHeight="1"/>
+    <row r="517" ht="14.25" customHeight="1"/>
+    <row r="518" ht="14.25" customHeight="1"/>
+    <row r="519" ht="14.25" customHeight="1"/>
+    <row r="520" ht="14.25" customHeight="1"/>
+    <row r="521" ht="14.25" customHeight="1"/>
+    <row r="522" ht="14.25" customHeight="1"/>
+    <row r="523" ht="14.25" customHeight="1"/>
+    <row r="524" ht="14.25" customHeight="1"/>
+    <row r="525" ht="14.25" customHeight="1"/>
+    <row r="526" ht="14.25" customHeight="1"/>
+    <row r="527" ht="14.25" customHeight="1"/>
+    <row r="528" ht="14.25" customHeight="1"/>
+    <row r="529" ht="14.25" customHeight="1"/>
+    <row r="530" ht="14.25" customHeight="1"/>
+    <row r="531" ht="14.25" customHeight="1"/>
+    <row r="532" ht="14.25" customHeight="1"/>
+    <row r="533" ht="14.25" customHeight="1"/>
+    <row r="534" ht="14.25" customHeight="1"/>
+    <row r="535" ht="14.25" customHeight="1"/>
+    <row r="536" ht="14.25" customHeight="1"/>
+    <row r="537" ht="14.25" customHeight="1"/>
+    <row r="538" ht="14.25" customHeight="1"/>
+    <row r="539" ht="14.25" customHeight="1"/>
+    <row r="540" ht="14.25" customHeight="1"/>
+    <row r="541" ht="14.25" customHeight="1"/>
+    <row r="542" ht="14.25" customHeight="1"/>
+    <row r="543" ht="14.25" customHeight="1"/>
+    <row r="544" ht="14.25" customHeight="1"/>
+    <row r="545" ht="14.25" customHeight="1"/>
+    <row r="546" ht="14.25" customHeight="1"/>
+    <row r="547" ht="14.25" customHeight="1"/>
+    <row r="548" ht="14.25" customHeight="1"/>
+    <row r="549" ht="14.25" customHeight="1"/>
+    <row r="550" ht="14.25" customHeight="1"/>
+    <row r="551" ht="14.25" customHeight="1"/>
+    <row r="552" ht="14.25" customHeight="1"/>
+    <row r="553" ht="14.25" customHeight="1"/>
+    <row r="554" ht="14.25" customHeight="1"/>
+    <row r="555" ht="14.25" customHeight="1"/>
+    <row r="556" ht="14.25" customHeight="1"/>
+    <row r="557" ht="14.25" customHeight="1"/>
+    <row r="558" ht="14.25" customHeight="1"/>
+    <row r="559" ht="14.25" customHeight="1"/>
+    <row r="560" ht="14.25" customHeight="1"/>
+    <row r="561" ht="14.25" customHeight="1"/>
+    <row r="562" ht="14.25" customHeight="1"/>
+    <row r="563" ht="14.25" customHeight="1"/>
+    <row r="564" ht="14.25" customHeight="1"/>
+    <row r="565" ht="14.25" customHeight="1"/>
+    <row r="566" ht="14.25" customHeight="1"/>
+    <row r="567" ht="14.25" customHeight="1"/>
+    <row r="568" ht="14.25" customHeight="1"/>
+    <row r="569" ht="14.25" customHeight="1"/>
+    <row r="570" ht="14.25" customHeight="1"/>
+    <row r="571" ht="14.25" customHeight="1"/>
+    <row r="572" ht="14.25" customHeight="1"/>
+    <row r="573" ht="14.25" customHeight="1"/>
+    <row r="574" ht="14.25" customHeight="1"/>
+    <row r="575" ht="14.25" customHeight="1"/>
+    <row r="576" ht="14.25" customHeight="1"/>
+    <row r="577" ht="14.25" customHeight="1"/>
+    <row r="578" ht="14.25" customHeight="1"/>
+    <row r="579" ht="14.25" customHeight="1"/>
+    <row r="580" ht="14.25" customHeight="1"/>
+    <row r="581" ht="14.25" customHeight="1"/>
+    <row r="582" ht="14.25" customHeight="1"/>
+    <row r="583" ht="14.25" customHeight="1"/>
+    <row r="584" ht="14.25" customHeight="1"/>
+    <row r="585" ht="14.25" customHeight="1"/>
+    <row r="586" ht="14.25" customHeight="1"/>
+    <row r="587" ht="14.25" customHeight="1"/>
+    <row r="588" ht="14.25" customHeight="1"/>
+    <row r="589" ht="14.25" customHeight="1"/>
+    <row r="590" ht="14.25" customHeight="1"/>
+    <row r="591" ht="14.25" customHeight="1"/>
+    <row r="592" ht="14.25" customHeight="1"/>
+    <row r="593" ht="14.25" customHeight="1"/>
+    <row r="594" ht="14.25" customHeight="1"/>
+    <row r="595" ht="14.25" customHeight="1"/>
+    <row r="596" ht="14.25" customHeight="1"/>
+    <row r="597" ht="14.25" customHeight="1"/>
+    <row r="598" ht="14.25" customHeight="1"/>
+    <row r="599" ht="14.25" customHeight="1"/>
+    <row r="600" ht="14.25" customHeight="1"/>
+    <row r="601" ht="14.25" customHeight="1"/>
+    <row r="602" ht="14.25" customHeight="1"/>
+    <row r="603" ht="14.25" customHeight="1"/>
+    <row r="604" ht="14.25" customHeight="1"/>
+    <row r="605" ht="14.25" customHeight="1"/>
+    <row r="606" ht="14.25" customHeight="1"/>
+    <row r="607" ht="14.25" customHeight="1"/>
+    <row r="608" ht="14.25" customHeight="1"/>
+    <row r="609" ht="14.25" customHeight="1"/>
+    <row r="610" ht="14.25" customHeight="1"/>
+    <row r="611" ht="14.25" customHeight="1"/>
+    <row r="612" ht="14.25" customHeight="1"/>
+    <row r="613" ht="14.25" customHeight="1"/>
+    <row r="614" ht="14.25" customHeight="1"/>
+    <row r="615" ht="14.25" customHeight="1"/>
+    <row r="616" ht="14.25" customHeight="1"/>
+    <row r="617" ht="14.25" customHeight="1"/>
+    <row r="618" ht="14.25" customHeight="1"/>
+    <row r="619" ht="14.25" customHeight="1"/>
+    <row r="620" ht="14.25" customHeight="1"/>
+    <row r="621" ht="14.25" customHeight="1"/>
+    <row r="622" ht="14.25" customHeight="1"/>
+    <row r="623" ht="14.25" customHeight="1"/>
+    <row r="624" ht="14.25" customHeight="1"/>
+    <row r="625" ht="14.25" customHeight="1"/>
+    <row r="626" ht="14.25" customHeight="1"/>
+    <row r="627" ht="14.25" customHeight="1"/>
+    <row r="628" ht="14.25" customHeight="1"/>
+    <row r="629" ht="14.25" customHeight="1"/>
+    <row r="630" ht="14.25" customHeight="1"/>
+    <row r="631" ht="14.25" customHeight="1"/>
+    <row r="632" ht="14.25" customHeight="1"/>
+    <row r="633" ht="14.25" customHeight="1"/>
+    <row r="634" ht="14.25" customHeight="1"/>
+    <row r="635" ht="14.25" customHeight="1"/>
+    <row r="636" ht="14.25" customHeight="1"/>
+    <row r="637" ht="14.25" customHeight="1"/>
+    <row r="638" ht="14.25" customHeight="1"/>
+    <row r="639" ht="14.25" customHeight="1"/>
+    <row r="640" ht="14.25" customHeight="1"/>
+    <row r="641" ht="14.25" customHeight="1"/>
+    <row r="642" ht="14.25" customHeight="1"/>
+    <row r="643" ht="14.25" customHeight="1"/>
+    <row r="644" ht="14.25" customHeight="1"/>
+    <row r="645" ht="14.25" customHeight="1"/>
+    <row r="646" ht="14.25" customHeight="1"/>
+    <row r="647" ht="14.25" customHeight="1"/>
+    <row r="648" ht="14.25" customHeight="1"/>
+    <row r="649" ht="14.25" customHeight="1"/>
+    <row r="650" ht="14.25" customHeight="1"/>
+    <row r="651" ht="14.25" customHeight="1"/>
+    <row r="652" ht="14.25" customHeight="1"/>
+    <row r="653" ht="14.25" customHeight="1"/>
+    <row r="654" ht="14.25" customHeight="1"/>
+    <row r="655" ht="14.25" customHeight="1"/>
+    <row r="656" ht="14.25" customHeight="1"/>
+    <row r="657" ht="14.25" customHeight="1"/>
+    <row r="658" ht="14.25" customHeight="1"/>
+    <row r="659" ht="14.25" customHeight="1"/>
+    <row r="660" ht="14.25" customHeight="1"/>
+    <row r="661" ht="14.25" customHeight="1"/>
+    <row r="662" ht="14.25" customHeight="1"/>
+    <row r="663" ht="14.25" customHeight="1"/>
+    <row r="664" ht="14.25" customHeight="1"/>
+    <row r="665" ht="14.25" customHeight="1"/>
+    <row r="666" ht="14.25" customHeight="1"/>
+    <row r="667" ht="14.25" customHeight="1"/>
+    <row r="668" ht="14.25" customHeight="1"/>
+    <row r="669" ht="14.25" customHeight="1"/>
+    <row r="670" ht="14.25" customHeight="1"/>
+    <row r="671" ht="14.25" customHeight="1"/>
+    <row r="672" ht="14.25" customHeight="1"/>
+    <row r="673" ht="14.25" customHeight="1"/>
+    <row r="674" ht="14.25" customHeight="1"/>
+    <row r="675" ht="14.25" customHeight="1"/>
+    <row r="676" ht="14.25" customHeight="1"/>
+    <row r="677" ht="14.25" customHeight="1"/>
+    <row r="678" ht="14.25" customHeight="1"/>
+    <row r="679" ht="14.25" customHeight="1"/>
+    <row r="680" ht="14.25" customHeight="1"/>
+    <row r="681" ht="14.25" customHeight="1"/>
+    <row r="682" ht="14.25" customHeight="1"/>
+    <row r="683" ht="14.25" customHeight="1"/>
+    <row r="684" ht="14.25" customHeight="1"/>
+    <row r="685" ht="14.25" customHeight="1"/>
+    <row r="686" ht="14.25" customHeight="1"/>
+    <row r="687" ht="14.25" customHeight="1"/>
+    <row r="688" ht="14.25" customHeight="1"/>
+    <row r="689" ht="14.25" customHeight="1"/>
+    <row r="690" ht="14.25" customHeight="1"/>
+    <row r="691" ht="14.25" customHeight="1"/>
+    <row r="692" ht="14.25" customHeight="1"/>
+    <row r="693" ht="14.25" customHeight="1"/>
+    <row r="694" ht="14.25" customHeight="1"/>
+    <row r="695" ht="14.25" customHeight="1"/>
+    <row r="696" ht="14.25" customHeight="1"/>
+    <row r="697" ht="14.25" customHeight="1"/>
+    <row r="698" ht="14.25" customHeight="1"/>
+    <row r="699" ht="14.25" customHeight="1"/>
+    <row r="700" ht="14.25" customHeight="1"/>
+    <row r="701" ht="14.25" customHeight="1"/>
+    <row r="702" ht="14.25" customHeight="1"/>
+    <row r="703" ht="14.25" customHeight="1"/>
+    <row r="704" ht="14.25" customHeight="1"/>
+    <row r="705" ht="14.25" customHeight="1"/>
+    <row r="706" ht="14.25" customHeight="1"/>
+    <row r="707" ht="14.25" customHeight="1"/>
+    <row r="708" ht="14.25" customHeight="1"/>
+    <row r="709" ht="14.25" customHeight="1"/>
+    <row r="710" ht="14.25" customHeight="1"/>
+    <row r="711" ht="14.25" customHeight="1"/>
+    <row r="712" ht="14.25" customHeight="1"/>
+    <row r="713" ht="14.25" customHeight="1"/>
+    <row r="714" ht="14.25" customHeight="1"/>
+    <row r="715" ht="14.25" customHeight="1"/>
+    <row r="716" ht="14.25" customHeight="1"/>
+    <row r="717" ht="14.25" customHeight="1"/>
+    <row r="718" ht="14.25" customHeight="1"/>
+    <row r="719" ht="14.25" customHeight="1"/>
+    <row r="720" ht="14.25" customHeight="1"/>
+    <row r="721" ht="14.25" customHeight="1"/>
+    <row r="722" ht="14.25" customHeight="1"/>
+    <row r="723" ht="14.25" customHeight="1"/>
+    <row r="724" ht="14.25" customHeight="1"/>
+    <row r="725" ht="14.25" customHeight="1"/>
+    <row r="726" ht="14.25" customHeight="1"/>
+    <row r="727" ht="14.25" customHeight="1"/>
+    <row r="728" ht="14.25" customHeight="1"/>
+    <row r="729" ht="14.25" customHeight="1"/>
+    <row r="730" ht="14.25" customHeight="1"/>
+    <row r="731" ht="14.25" customHeight="1"/>
+    <row r="732" ht="14.25" customHeight="1"/>
+    <row r="733" ht="14.25" customHeight="1"/>
+    <row r="734" ht="14.25" customHeight="1"/>
+    <row r="735" ht="14.25" customHeight="1"/>
+    <row r="736" ht="14.25" customHeight="1"/>
+    <row r="737" ht="14.25" customHeight="1"/>
+    <row r="738" ht="14.25" customHeight="1"/>
+    <row r="739" ht="14.25" customHeight="1"/>
+    <row r="740" ht="14.25" customHeight="1"/>
+    <row r="741" ht="14.25" customHeight="1"/>
+    <row r="742" ht="14.25" customHeight="1"/>
+    <row r="743" ht="14.25" customHeight="1"/>
+    <row r="744" ht="14.25" customHeight="1"/>
+    <row r="745" ht="14.25" customHeight="1"/>
+    <row r="746" ht="14.25" customHeight="1"/>
+    <row r="747" ht="14.25" customHeight="1"/>
+    <row r="748" ht="14.25" customHeight="1"/>
+    <row r="749" ht="14.25" customHeight="1"/>
+    <row r="750" ht="14.25" customHeight="1"/>
+    <row r="751" ht="14.25" customHeight="1"/>
+    <row r="752" ht="14.25" customHeight="1"/>
+    <row r="753" ht="14.25" customHeight="1"/>
+    <row r="754" ht="14.25" customHeight="1"/>
+    <row r="755" ht="14.25" customHeight="1"/>
+    <row r="756" ht="14.25" customHeight="1"/>
+    <row r="757" ht="14.25" customHeight="1"/>
+    <row r="758" ht="14.25" customHeight="1"/>
+    <row r="759" ht="14.25" customHeight="1"/>
+    <row r="760" ht="14.25" customHeight="1"/>
+    <row r="761" ht="14.25" customHeight="1"/>
+    <row r="762" ht="14.25" customHeight="1"/>
+    <row r="763" ht="14.25" customHeight="1"/>
+    <row r="764" ht="14.25" customHeight="1"/>
+    <row r="765" ht="14.25" customHeight="1"/>
+    <row r="766" ht="14.25" customHeight="1"/>
+    <row r="767" ht="14.25" customHeight="1"/>
+    <row r="768" ht="14.25" customHeight="1"/>
+    <row r="769" ht="14.25" customHeight="1"/>
+    <row r="770" ht="14.25" customHeight="1"/>
+    <row r="771" ht="14.25" customHeight="1"/>
+    <row r="772" ht="14.25" customHeight="1"/>
+    <row r="773" ht="14.25" customHeight="1"/>
+    <row r="774" ht="14.25" customHeight="1"/>
+    <row r="775" ht="14.25" customHeight="1"/>
+    <row r="776" ht="14.25" customHeight="1"/>
+    <row r="777" ht="14.25" customHeight="1"/>
+    <row r="778" ht="14.25" customHeight="1"/>
+    <row r="779" ht="14.25" customHeight="1"/>
+    <row r="780" ht="14.25" customHeight="1"/>
+    <row r="781" ht="14.25" customHeight="1"/>
+    <row r="782" ht="14.25" customHeight="1"/>
+    <row r="783" ht="14.25" customHeight="1"/>
+    <row r="784" ht="14.25" customHeight="1"/>
+    <row r="785" ht="14.25" customHeight="1"/>
+    <row r="786" ht="14.25" customHeight="1"/>
+    <row r="787" ht="14.25" customHeight="1"/>
+    <row r="788" ht="14.25" customHeight="1"/>
+    <row r="789" ht="14.25" customHeight="1"/>
+    <row r="790" ht="14.25" customHeight="1"/>
+    <row r="791" ht="14.25" customHeight="1"/>
+    <row r="792" ht="14.25" customHeight="1"/>
+    <row r="793" ht="14.25" customHeight="1"/>
+    <row r="794" ht="14.25" customHeight="1"/>
+    <row r="795" ht="14.25" customHeight="1"/>
+    <row r="796" ht="14.25" customHeight="1"/>
+    <row r="797" ht="14.25" customHeight="1"/>
+    <row r="798" ht="14.25" customHeight="1"/>
+    <row r="799" ht="14.25" customHeight="1"/>
+    <row r="800" ht="14.25" customHeight="1"/>
+    <row r="801" ht="14.25" customHeight="1"/>
+    <row r="802" ht="14.25" customHeight="1"/>
+    <row r="803" ht="14.25" customHeight="1"/>
+    <row r="804" ht="14.25" customHeight="1"/>
+    <row r="805" ht="14.25" customHeight="1"/>
+    <row r="806" ht="14.25" customHeight="1"/>
+    <row r="807" ht="14.25" customHeight="1"/>
+    <row r="808" ht="14.25" customHeight="1"/>
+    <row r="809" ht="14.25" customHeight="1"/>
+    <row r="810" ht="14.25" customHeight="1"/>
+    <row r="811" ht="14.25" customHeight="1"/>
+    <row r="812" ht="14.25" customHeight="1"/>
+    <row r="813" ht="14.25" customHeight="1"/>
+    <row r="814" ht="14.25" customHeight="1"/>
+    <row r="815" ht="14.25" customHeight="1"/>
+    <row r="816" ht="14.25" customHeight="1"/>
+    <row r="817" ht="14.25" customHeight="1"/>
+    <row r="818" ht="14.25" customHeight="1"/>
+    <row r="819" ht="14.25" customHeight="1"/>
+    <row r="820" ht="14.25" customHeight="1"/>
+    <row r="821" ht="14.25" customHeight="1"/>
+    <row r="822" ht="14.25" customHeight="1"/>
+    <row r="823" ht="14.25" customHeight="1"/>
+    <row r="824" ht="14.25" customHeight="1"/>
+    <row r="825" ht="14.25" customHeight="1"/>
+    <row r="826" ht="14.25" customHeight="1"/>
+    <row r="827" ht="14.25" customHeight="1"/>
+    <row r="828" ht="14.25" customHeight="1"/>
+    <row r="829" ht="14.25" customHeight="1"/>
+    <row r="830" ht="14.25" customHeight="1"/>
+    <row r="831" ht="14.25" customHeight="1"/>
+    <row r="832" ht="14.25" customHeight="1"/>
+    <row r="833" ht="14.25" customHeight="1"/>
+    <row r="834" ht="14.25" customHeight="1"/>
+    <row r="835" ht="14.25" customHeight="1"/>
+    <row r="836" ht="14.25" customHeight="1"/>
+    <row r="837" ht="14.25" customHeight="1"/>
+    <row r="838" ht="14.25" customHeight="1"/>
+    <row r="839" ht="14.25" customHeight="1"/>
+    <row r="840" ht="14.25" customHeight="1"/>
+    <row r="841" ht="14.25" customHeight="1"/>
+    <row r="842" ht="14.25" customHeight="1"/>
+    <row r="843" ht="14.25" customHeight="1"/>
+    <row r="844" ht="14.25" customHeight="1"/>
+    <row r="845" ht="14.25" customHeight="1"/>
+    <row r="846" ht="14.25" customHeight="1"/>
+    <row r="847" ht="14.25" customHeight="1"/>
+    <row r="848" ht="14.25" customHeight="1"/>
+    <row r="849" ht="14.25" customHeight="1"/>
+    <row r="850" ht="14.25" customHeight="1"/>
+    <row r="851" ht="14.25" customHeight="1"/>
+    <row r="852" ht="14.25" customHeight="1"/>
+    <row r="853" ht="14.25" customHeight="1"/>
+    <row r="854" ht="14.25" customHeight="1"/>
+    <row r="855" ht="14.25" customHeight="1"/>
+    <row r="856" ht="14.25" customHeight="1"/>
+    <row r="857" ht="14.25" customHeight="1"/>
+    <row r="858" ht="14.25" customHeight="1"/>
+    <row r="859" ht="14.25" customHeight="1"/>
+    <row r="860" ht="14.25" customHeight="1"/>
+    <row r="861" ht="14.25" customHeight="1"/>
+    <row r="862" ht="14.25" customHeight="1"/>
+    <row r="863" ht="14.25" customHeight="1"/>
+    <row r="864" ht="14.25" customHeight="1"/>
+    <row r="865" ht="14.25" customHeight="1"/>
+    <row r="866" ht="14.25" customHeight="1"/>
+    <row r="867" ht="14.25" customHeight="1"/>
+    <row r="868" ht="14.25" customHeight="1"/>
+    <row r="869" ht="14.25" customHeight="1"/>
+    <row r="870" ht="14.25" customHeight="1"/>
+    <row r="871" ht="14.25" customHeight="1"/>
+    <row r="872" ht="14.25" customHeight="1"/>
+    <row r="873" ht="14.25" customHeight="1"/>
+    <row r="874" ht="14.25" customHeight="1"/>
+    <row r="875" ht="14.25" customHeight="1"/>
+    <row r="876" ht="14.25" customHeight="1"/>
+    <row r="877" ht="14.25" customHeight="1"/>
+    <row r="878" ht="14.25" customHeight="1"/>
+    <row r="879" ht="14.25" customHeight="1"/>
+    <row r="880" ht="14.25" customHeight="1"/>
+    <row r="881" ht="14.25" customHeight="1"/>
+    <row r="882" ht="14.25" customHeight="1"/>
+    <row r="883" ht="14.25" customHeight="1"/>
+    <row r="884" ht="14.25" customHeight="1"/>
+    <row r="885" ht="14.25" customHeight="1"/>
+    <row r="886" ht="14.25" customHeight="1"/>
+    <row r="887" ht="14.25" customHeight="1"/>
+    <row r="888" ht="14.25" customHeight="1"/>
+    <row r="889" ht="14.25" customHeight="1"/>
+    <row r="890" ht="14.25" customHeight="1"/>
+    <row r="891" ht="14.25" customHeight="1"/>
+    <row r="892" ht="14.25" customHeight="1"/>
+    <row r="893" ht="14.25" customHeight="1"/>
+    <row r="894" ht="14.25" customHeight="1"/>
+    <row r="895" ht="14.25" customHeight="1"/>
+    <row r="896" ht="14.25" customHeight="1"/>
+    <row r="897" ht="14.25" customHeight="1"/>
+    <row r="898" ht="14.25" customHeight="1"/>
+    <row r="899" ht="14.25" customHeight="1"/>
+    <row r="900" ht="14.25" customHeight="1"/>
+    <row r="901" ht="14.25" customHeight="1"/>
+    <row r="902" ht="14.25" customHeight="1"/>
+    <row r="903" ht="14.25" customHeight="1"/>
+    <row r="904" ht="14.25" customHeight="1"/>
+    <row r="905" ht="14.25" customHeight="1"/>
+    <row r="906" ht="14.25" customHeight="1"/>
+    <row r="907" ht="14.25" customHeight="1"/>
+    <row r="908" ht="14.25" customHeight="1"/>
+    <row r="909" ht="14.25" customHeight="1"/>
+    <row r="910" ht="14.25" customHeight="1"/>
+    <row r="911" ht="14.25" customHeight="1"/>
+    <row r="912" ht="14.25" customHeight="1"/>
+    <row r="913" ht="14.25" customHeight="1"/>
+    <row r="914" ht="14.25" customHeight="1"/>
+    <row r="915" ht="14.25" customHeight="1"/>
+    <row r="916" ht="14.25" customHeight="1"/>
+    <row r="917" ht="14.25" customHeight="1"/>
+    <row r="918" ht="14.25" customHeight="1"/>
+    <row r="919" ht="14.25" customHeight="1"/>
+    <row r="920" ht="14.25" customHeight="1"/>
+    <row r="921" ht="14.25" customHeight="1"/>
+    <row r="922" ht="14.25" customHeight="1"/>
+    <row r="923" ht="14.25" customHeight="1"/>
+    <row r="924" ht="14.25" customHeight="1"/>
+    <row r="925" ht="14.25" customHeight="1"/>
+    <row r="926" ht="14.25" customHeight="1"/>
+    <row r="927" ht="14.25" customHeight="1"/>
+    <row r="928" ht="14.25" customHeight="1"/>
+    <row r="929" ht="14.25" customHeight="1"/>
+    <row r="930" ht="14.25" customHeight="1"/>
+    <row r="931" ht="14.25" customHeight="1"/>
+    <row r="932" ht="14.25" customHeight="1"/>
+    <row r="933" ht="14.25" customHeight="1"/>
+    <row r="934" ht="14.25" customHeight="1"/>
+    <row r="935" ht="14.25" customHeight="1"/>
+    <row r="936" ht="14.25" customHeight="1"/>
+    <row r="937" ht="14.25" customHeight="1"/>
+    <row r="938" ht="14.25" customHeight="1"/>
+    <row r="939" ht="14.25" customHeight="1"/>
+    <row r="940" ht="14.25" customHeight="1"/>
+    <row r="941" ht="14.25" customHeight="1"/>
+    <row r="942" ht="14.25" customHeight="1"/>
+    <row r="943" ht="14.25" customHeight="1"/>
+    <row r="944" ht="14.25" customHeight="1"/>
+    <row r="945" ht="14.25" customHeight="1"/>
+    <row r="946" ht="14.25" customHeight="1"/>
+    <row r="947" ht="14.25" customHeight="1"/>
+    <row r="948" ht="14.25" customHeight="1"/>
+    <row r="949" ht="14.25" customHeight="1"/>
+    <row r="950" ht="14.25" customHeight="1"/>
+    <row r="951" ht="14.25" customHeight="1"/>
+    <row r="952" ht="14.25" customHeight="1"/>
+    <row r="953" ht="14.25" customHeight="1"/>
+    <row r="954" ht="14.25" customHeight="1"/>
+    <row r="955" ht="14.25" customHeight="1"/>
+    <row r="956" ht="14.25" customHeight="1"/>
+    <row r="957" ht="14.25" customHeight="1"/>
+    <row r="958" ht="14.25" customHeight="1"/>
+    <row r="959" ht="14.25" customHeight="1"/>
+    <row r="960" ht="14.25" customHeight="1"/>
+    <row r="961" ht="14.25" customHeight="1"/>
+    <row r="962" ht="14.25" customHeight="1"/>
+    <row r="963" ht="14.25" customHeight="1"/>
+    <row r="964" ht="14.25" customHeight="1"/>
+    <row r="965" ht="14.25" customHeight="1"/>
+    <row r="966" ht="14.25" customHeight="1"/>
+    <row r="967" ht="14.25" customHeight="1"/>
+    <row r="968" ht="14.25" customHeight="1"/>
+    <row r="969" ht="14.25" customHeight="1"/>
+    <row r="970" ht="14.25" customHeight="1"/>
+    <row r="971" ht="14.25" customHeight="1"/>
+    <row r="972" ht="14.25" customHeight="1"/>
+    <row r="973" ht="14.25" customHeight="1"/>
+    <row r="974" ht="14.25" customHeight="1"/>
+    <row r="975" ht="14.25" customHeight="1"/>
+    <row r="976" ht="14.25" customHeight="1"/>
+    <row r="977" ht="14.25" customHeight="1"/>
+    <row r="978" ht="14.25" customHeight="1"/>
+    <row r="979" ht="14.25" customHeight="1"/>
+    <row r="980" ht="14.25" customHeight="1"/>
+    <row r="981" ht="14.25" customHeight="1"/>
+    <row r="982" ht="14.25" customHeight="1"/>
+    <row r="983" ht="14.25" customHeight="1"/>
+    <row r="984" ht="14.25" customHeight="1"/>
+    <row r="985" ht="14.25" customHeight="1"/>
+    <row r="986" ht="14.25" customHeight="1"/>
+    <row r="987" ht="14.25" customHeight="1"/>
+    <row r="988" ht="14.25" customHeight="1"/>
+    <row r="989" ht="14.25" customHeight="1"/>
+    <row r="990" ht="14.25" customHeight="1"/>
+    <row r="991" ht="14.25" customHeight="1"/>
+    <row r="992" ht="14.25" customHeight="1"/>
+    <row r="993" ht="14.25" customHeight="1"/>
+    <row r="994" ht="14.25" customHeight="1"/>
+    <row r="995" ht="14.25" customHeight="1"/>
+    <row r="996" ht="14.25" customHeight="1"/>
+    <row r="997" ht="14.25" customHeight="1"/>
+    <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
+    <row r="1000" ht="14.25" customHeight="1"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="45.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="16" width="11.5703125" customWidth="1"/>
+    <col min="17" max="26" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="47.25" customHeight="1">
+      <c r="A4" s="14">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="9" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" ht="12.75"/>
+    <row r="34" ht="12.75"/>
+    <row r="35" ht="12.75"/>
+    <row r="36" ht="12.75"/>
+    <row r="37" ht="12.75"/>
+    <row r="38" ht="12.75"/>
+    <row r="39" ht="12.75"/>
+    <row r="40" ht="12.75"/>
+    <row r="41" ht="12.75"/>
+    <row r="42" ht="12.75"/>
+    <row r="43" ht="12.75"/>
+    <row r="44" ht="12.75"/>
+    <row r="45" ht="12.75"/>
+    <row r="46" ht="12.75"/>
+    <row r="47" ht="12.75"/>
+    <row r="48" ht="12.75"/>
+    <row r="49" ht="12.75"/>
+    <row r="50" ht="12.75"/>
+    <row r="51" ht="12.75"/>
+    <row r="52" ht="12.75"/>
+    <row r="53" ht="12.75"/>
+    <row r="54" ht="12.75"/>
+    <row r="55" ht="12.75"/>
+    <row r="56" ht="12.75"/>
+    <row r="57" ht="12.75"/>
+    <row r="58" ht="12.75"/>
+    <row r="59" ht="12.75"/>
+    <row r="60" ht="12.75"/>
+    <row r="61" ht="12.75"/>
+    <row r="62" ht="12.75"/>
+    <row r="63" ht="12.75"/>
+    <row r="64" ht="12.75"/>
+    <row r="65" ht="12.75"/>
+    <row r="66" ht="12.75"/>
+    <row r="67" ht="12.75"/>
+    <row r="68" ht="12.75"/>
+    <row r="69" ht="12.75"/>
+    <row r="70" ht="12.75"/>
+    <row r="71" ht="12.75"/>
+    <row r="72" ht="12.75"/>
+    <row r="73" ht="12.75"/>
+    <row r="74" ht="12.75"/>
+    <row r="75" ht="12.75"/>
+    <row r="76" ht="12.75"/>
+    <row r="77" ht="12.75"/>
+    <row r="78" ht="12.75"/>
+    <row r="79" ht="12.75"/>
+    <row r="80" ht="12.75"/>
+    <row r="81" ht="12.75"/>
+    <row r="82" ht="12.75"/>
+    <row r="83" ht="12.75"/>
+    <row r="84" ht="12.75"/>
+    <row r="85" ht="12.75"/>
+    <row r="86" ht="12.75"/>
+    <row r="87" ht="12.75"/>
+    <row r="88" ht="12.75"/>
+    <row r="89" ht="12.75"/>
+    <row r="90" ht="12.75"/>
+    <row r="91" ht="12.75"/>
+    <row r="92" ht="12.75"/>
+    <row r="93" ht="12.75"/>
+    <row r="94" ht="12.75"/>
+    <row r="95" ht="12.75"/>
+    <row r="96" ht="12.75"/>
+    <row r="97" ht="12.75"/>
+    <row r="98" ht="12.75"/>
+    <row r="99" ht="12.75"/>
+    <row r="100" ht="12.75"/>
+    <row r="101" ht="12.75"/>
+    <row r="102" ht="12.75"/>
+    <row r="103" ht="12.75"/>
+    <row r="104" ht="12.75"/>
+    <row r="105" ht="12.75"/>
+    <row r="106" ht="12.75"/>
+    <row r="107" ht="12.75"/>
+    <row r="108" ht="12.75"/>
+    <row r="109" ht="12.75"/>
+    <row r="110" ht="12.75"/>
+    <row r="111" ht="12.75"/>
+    <row r="112" ht="12.75"/>
+    <row r="113" ht="12.75"/>
+    <row r="114" ht="12.75"/>
+    <row r="115" ht="12.75"/>
+    <row r="116" ht="12.75"/>
+    <row r="117" ht="12.75"/>
+    <row r="118" ht="12.75"/>
+    <row r="119" ht="12.75"/>
+    <row r="120" ht="12.75"/>
+    <row r="121" ht="12.75"/>
+    <row r="122" ht="12.75"/>
+    <row r="123" ht="12.75"/>
+    <row r="124" ht="12.75"/>
+    <row r="125" ht="12.75"/>
+    <row r="126" ht="12.75"/>
+    <row r="127" ht="12.75"/>
+    <row r="128" ht="12.75"/>
+    <row r="129" ht="12.75"/>
+    <row r="130" ht="12.75"/>
+    <row r="131" ht="12.75"/>
+    <row r="132" ht="12.75"/>
+    <row r="133" ht="12.75"/>
+    <row r="134" ht="12.75"/>
+    <row r="135" ht="12.75"/>
+    <row r="136" ht="12.75"/>
+    <row r="137" ht="12.75"/>
+    <row r="138" ht="12.75"/>
+    <row r="139" ht="12.75"/>
+    <row r="140" ht="12.75"/>
+    <row r="141" ht="12.75"/>
+    <row r="142" ht="12.75"/>
+    <row r="143" ht="12.75"/>
+    <row r="144" ht="12.75"/>
+    <row r="145" ht="12.75"/>
+    <row r="146" ht="12.75"/>
+    <row r="147" ht="12.75"/>
+    <row r="148" ht="12.75"/>
+    <row r="149" ht="12.75"/>
+    <row r="150" ht="12.75"/>
+    <row r="151" ht="12.75"/>
+    <row r="152" ht="12.75"/>
+    <row r="153" ht="12.75"/>
+    <row r="154" ht="12.75"/>
+    <row r="155" ht="12.75"/>
+    <row r="156" ht="12.75"/>
+    <row r="157" ht="12.75"/>
+    <row r="158" ht="12.75"/>
+    <row r="159" ht="12.75"/>
+    <row r="160" ht="12.75"/>
+    <row r="161" ht="12.75"/>
+    <row r="162" ht="12.75"/>
+    <row r="163" ht="12.75"/>
+    <row r="164" ht="12.75"/>
+    <row r="165" ht="12.75"/>
+    <row r="166" ht="12.75"/>
+    <row r="167" ht="12.75"/>
+    <row r="168" ht="12.75"/>
+    <row r="169" ht="12.75"/>
+    <row r="170" ht="12.75"/>
+    <row r="171" ht="12.75"/>
+    <row r="172" ht="12.75"/>
+    <row r="173" ht="12.75"/>
+    <row r="174" ht="12.75"/>
+    <row r="175" ht="12.75"/>
+    <row r="176" ht="12.75"/>
+    <row r="177" ht="12.75"/>
+    <row r="178" ht="12.75"/>
+    <row r="179" ht="12.75"/>
+    <row r="180" ht="12.75"/>
+    <row r="181" ht="12.75"/>
+    <row r="182" ht="12.75"/>
+    <row r="183" ht="12.75"/>
+    <row r="184" ht="12.75"/>
+    <row r="185" ht="12.75"/>
+    <row r="186" ht="12.75"/>
+    <row r="187" ht="12.75"/>
+    <row r="188" ht="12.75"/>
+    <row r="189" ht="12.75"/>
+    <row r="190" ht="12.75"/>
+    <row r="191" ht="12.75"/>
+    <row r="192" ht="12.75"/>
+    <row r="193" ht="12.75"/>
+    <row r="194" ht="12.75"/>
+    <row r="195" ht="12.75"/>
+    <row r="196" ht="12.75"/>
+    <row r="197" ht="12.75"/>
+    <row r="198" ht="12.75"/>
+    <row r="199" ht="12.75"/>
+    <row r="200" ht="12.75"/>
+    <row r="201" ht="12.75"/>
+    <row r="202" ht="12.75"/>
+    <row r="203" ht="12.75"/>
+    <row r="204" ht="12.75"/>
+    <row r="205" ht="12.75"/>
+    <row r="206" ht="12.75"/>
+    <row r="207" ht="12.75"/>
+    <row r="208" ht="12.75"/>
+    <row r="209" ht="12.75"/>
+    <row r="210" ht="12.75"/>
+    <row r="211" ht="12.75"/>
+    <row r="212" ht="12.75"/>
+    <row r="213" ht="12.75"/>
+    <row r="214" ht="12.75"/>
+    <row r="215" ht="12.75"/>
+    <row r="216" ht="12.75"/>
+    <row r="217" ht="12.75"/>
+    <row r="218" ht="12.75"/>
+    <row r="219" ht="12.75"/>
+    <row r="220" ht="12.75"/>
+    <row r="221" ht="12.75"/>
+    <row r="222" ht="12.75"/>
+    <row r="223" ht="12.75"/>
+    <row r="224" ht="12.75"/>
+    <row r="225" ht="12.75"/>
+    <row r="226" ht="12.75"/>
+    <row r="227" ht="12.75"/>
+    <row r="228" ht="12.75"/>
+    <row r="229" ht="12.75"/>
+    <row r="230" ht="12.75"/>
+    <row r="231" ht="12.75"/>
+    <row r="232" ht="12.75"/>
+    <row r="233" ht="12.75"/>
+    <row r="234" ht="12.75"/>
+    <row r="235" ht="12.75"/>
+    <row r="236" ht="12.75"/>
+    <row r="237" ht="12.75"/>
+    <row r="238" ht="12.75"/>
+    <row r="239" ht="12.75"/>
+    <row r="240" ht="12.75"/>
+    <row r="241" ht="12.75"/>
+    <row r="242" ht="12.75"/>
+    <row r="243" ht="12.75"/>
+    <row r="244" ht="12.75"/>
+    <row r="245" ht="12.75"/>
+    <row r="246" ht="12.75"/>
+    <row r="247" ht="12.75"/>
+    <row r="248" ht="12.75"/>
+    <row r="249" ht="12.75"/>
+    <row r="250" ht="12.75"/>
+    <row r="251" ht="12.75"/>
+    <row r="252" ht="12.75"/>
+    <row r="253" ht="12.75"/>
+    <row r="254" ht="12.75"/>
+    <row r="255" ht="12.75"/>
+    <row r="256" ht="12.75"/>
+    <row r="257" ht="12.75"/>
+    <row r="258" ht="12.75"/>
+    <row r="259" ht="12.75"/>
+    <row r="260" ht="12.75"/>
+    <row r="261" ht="12.75"/>
+    <row r="262" ht="12.75"/>
+    <row r="263" ht="12.75"/>
+    <row r="264" ht="12.75"/>
+    <row r="265" ht="12.75"/>
+    <row r="266" ht="12.75"/>
+    <row r="267" ht="12.75"/>
+    <row r="268" ht="12.75"/>
+    <row r="269" ht="12.75"/>
+    <row r="270" ht="12.75"/>
+    <row r="271" ht="12.75"/>
+    <row r="272" ht="12.75"/>
+    <row r="273" ht="12.75"/>
+    <row r="274" ht="12.75"/>
+    <row r="275" ht="12.75"/>
+    <row r="276" ht="12.75"/>
+    <row r="277" ht="12.75"/>
+    <row r="278" ht="12.75"/>
+    <row r="279" ht="12.75"/>
+    <row r="280" ht="12.75"/>
+    <row r="281" ht="12.75"/>
+    <row r="282" ht="12.75"/>
+    <row r="283" ht="12.75"/>
+    <row r="284" ht="12.75"/>
+    <row r="285" ht="12.75"/>
+    <row r="286" ht="12.75"/>
+    <row r="287" ht="12.75"/>
+    <row r="288" ht="12.75"/>
+    <row r="289" ht="12.75"/>
+    <row r="290" ht="12.75"/>
+    <row r="291" ht="12.75"/>
+    <row r="292" ht="12.75"/>
+    <row r="293" ht="12.75"/>
+    <row r="294" ht="12.75"/>
+    <row r="295" ht="12.75"/>
+    <row r="296" ht="12.75"/>
+    <row r="297" ht="12.75"/>
+    <row r="298" ht="12.75"/>
+    <row r="299" ht="12.75"/>
+    <row r="300" ht="12.75"/>
+    <row r="301" ht="12.75"/>
+    <row r="302" ht="12.75"/>
+    <row r="303" ht="12.75"/>
+    <row r="304" ht="12.75"/>
+    <row r="305" ht="12.75"/>
+    <row r="306" ht="12.75"/>
+    <row r="307" ht="12.75"/>
+    <row r="308" ht="12.75"/>
+    <row r="309" ht="12.75"/>
+    <row r="310" ht="12.75"/>
+    <row r="311" ht="12.75"/>
+    <row r="312" ht="12.75"/>
+    <row r="313" ht="12.75"/>
+    <row r="314" ht="12.75"/>
+    <row r="315" ht="12.75"/>
+    <row r="316" ht="12.75"/>
+    <row r="317" ht="12.75"/>
+    <row r="318" ht="12.75"/>
+    <row r="319" ht="12.75"/>
+    <row r="320" ht="12.75"/>
+    <row r="321" ht="12.75"/>
+    <row r="322" ht="12.75"/>
+    <row r="323" ht="12.75"/>
+    <row r="324" ht="12.75"/>
+    <row r="325" ht="12.75"/>
+    <row r="326" ht="12.75"/>
+    <row r="327" ht="12.75"/>
+    <row r="328" ht="12.75"/>
+    <row r="329" ht="12.75"/>
+    <row r="330" ht="12.75"/>
+    <row r="331" ht="12.75"/>
+    <row r="332" ht="12.75"/>
+    <row r="333" ht="12.75"/>
+    <row r="334" ht="12.75"/>
+    <row r="335" ht="12.75"/>
+    <row r="336" ht="12.75"/>
+    <row r="337" ht="12.75"/>
+    <row r="338" ht="12.75"/>
+    <row r="339" ht="12.75"/>
+    <row r="340" ht="12.75"/>
+    <row r="341" ht="12.75"/>
+    <row r="342" ht="12.75"/>
+    <row r="343" ht="12.75"/>
+    <row r="344" ht="12.75"/>
+    <row r="345" ht="12.75"/>
+    <row r="346" ht="12.75"/>
+    <row r="347" ht="12.75"/>
+    <row r="348" ht="12.75"/>
+    <row r="349" ht="12.75"/>
+    <row r="350" ht="12.75"/>
+    <row r="351" ht="12.75"/>
+    <row r="352" ht="12.75"/>
+    <row r="353" ht="12.75"/>
+    <row r="354" ht="12.75"/>
+    <row r="355" ht="12.75"/>
+    <row r="356" ht="12.75"/>
+    <row r="357" ht="12.75"/>
+    <row r="358" ht="12.75"/>
+    <row r="359" ht="12.75"/>
+    <row r="360" ht="12.75"/>
+    <row r="361" ht="12.75"/>
+    <row r="362" ht="12.75"/>
+    <row r="363" ht="12.75"/>
+    <row r="364" ht="12.75"/>
+    <row r="365" ht="12.75"/>
+    <row r="366" ht="12.75"/>
+    <row r="367" ht="12.75"/>
+    <row r="368" ht="12.75"/>
+    <row r="369" ht="12.75"/>
+    <row r="370" ht="12.75"/>
+    <row r="371" ht="12.75"/>
+    <row r="372" ht="12.75"/>
+    <row r="373" ht="12.75"/>
+    <row r="374" ht="12.75"/>
+    <row r="375" ht="12.75"/>
+    <row r="376" ht="12.75"/>
+    <row r="377" ht="12.75"/>
+    <row r="378" ht="12.75"/>
+    <row r="379" ht="12.75"/>
+    <row r="380" ht="12.75"/>
+    <row r="381" ht="12.75"/>
+    <row r="382" ht="12.75"/>
+    <row r="383" ht="12.75"/>
+    <row r="384" ht="12.75"/>
+    <row r="385" ht="12.75"/>
+    <row r="386" ht="12.75"/>
+    <row r="387" ht="12.75"/>
+    <row r="388" ht="12.75"/>
+    <row r="389" ht="12.75"/>
+    <row r="390" ht="12.75"/>
+    <row r="391" ht="12.75"/>
+    <row r="392" ht="12.75"/>
+    <row r="393" ht="12.75"/>
+    <row r="394" ht="12.75"/>
+    <row r="395" ht="12.75"/>
+    <row r="396" ht="12.75"/>
+    <row r="397" ht="12.75"/>
+    <row r="398" ht="12.75"/>
+    <row r="399" ht="12.75"/>
+    <row r="400" ht="12.75"/>
+    <row r="401" ht="12.75"/>
+    <row r="402" ht="12.75"/>
+    <row r="403" ht="12.75"/>
+    <row r="404" ht="12.75"/>
+    <row r="405" ht="12.75"/>
+    <row r="406" ht="12.75"/>
+    <row r="407" ht="12.75"/>
+    <row r="408" ht="12.75"/>
+    <row r="409" ht="12.75"/>
+    <row r="410" ht="12.75"/>
+    <row r="411" ht="12.75"/>
+    <row r="412" ht="12.75"/>
+    <row r="413" ht="12.75"/>
+    <row r="414" ht="12.75"/>
+    <row r="415" ht="12.75"/>
+    <row r="416" ht="12.75"/>
+    <row r="417" ht="12.75"/>
+    <row r="418" ht="12.75"/>
+    <row r="419" ht="12.75"/>
+    <row r="420" ht="12.75"/>
+    <row r="421" ht="12.75"/>
+    <row r="422" ht="12.75"/>
+    <row r="423" ht="12.75"/>
+    <row r="424" ht="12.75"/>
+    <row r="425" ht="12.75"/>
+    <row r="426" ht="12.75"/>
+    <row r="427" ht="12.75"/>
+    <row r="428" ht="12.75"/>
+    <row r="429" ht="12.75"/>
+    <row r="430" ht="12.75"/>
+    <row r="431" ht="12.75"/>
+    <row r="432" ht="12.75"/>
+    <row r="433" ht="12.75"/>
+    <row r="434" ht="12.75"/>
+    <row r="435" ht="12.75"/>
+    <row r="436" ht="12.75"/>
+    <row r="437" ht="12.75"/>
+    <row r="438" ht="12.75"/>
+    <row r="439" ht="12.75"/>
+    <row r="440" ht="12.75"/>
+    <row r="441" ht="12.75"/>
+    <row r="442" ht="12.75"/>
+    <row r="443" ht="12.75"/>
+    <row r="444" ht="12.75"/>
+    <row r="445" ht="12.75"/>
+    <row r="446" ht="12.75"/>
+    <row r="447" ht="12.75"/>
+    <row r="448" ht="12.75"/>
+    <row r="449" ht="12.75"/>
+    <row r="450" ht="12.75"/>
+    <row r="451" ht="12.75"/>
+    <row r="452" ht="12.75"/>
+    <row r="453" ht="12.75"/>
+    <row r="454" ht="12.75"/>
+    <row r="455" ht="12.75"/>
+    <row r="456" ht="12.75"/>
+    <row r="457" ht="12.75"/>
+    <row r="458" ht="12.75"/>
+    <row r="459" ht="12.75"/>
+    <row r="460" ht="12.75"/>
+    <row r="461" ht="12.75"/>
+    <row r="462" ht="12.75"/>
+    <row r="463" ht="12.75"/>
+    <row r="464" ht="12.75"/>
+    <row r="465" ht="12.75"/>
+    <row r="466" ht="12.75"/>
+    <row r="467" ht="12.75"/>
+    <row r="468" ht="12.75"/>
+    <row r="469" ht="12.75"/>
+    <row r="470" ht="12.75"/>
+    <row r="471" ht="12.75"/>
+    <row r="472" ht="12.75"/>
+    <row r="473" ht="12.75"/>
+    <row r="474" ht="12.75"/>
+    <row r="475" ht="12.75"/>
+    <row r="476" ht="12.75"/>
+    <row r="477" ht="12.75"/>
+    <row r="478" ht="12.75"/>
+    <row r="479" ht="12.75"/>
+    <row r="480" ht="12.75"/>
+    <row r="481" ht="12.75"/>
+    <row r="482" ht="12.75"/>
+    <row r="483" ht="12.75"/>
+    <row r="484" ht="12.75"/>
+    <row r="485" ht="12.75"/>
+    <row r="486" ht="12.75"/>
+    <row r="487" ht="12.75"/>
+    <row r="488" ht="12.75"/>
+    <row r="489" ht="12.75"/>
+    <row r="490" ht="12.75"/>
+    <row r="491" ht="12.75"/>
+    <row r="492" ht="12.75"/>
+    <row r="493" ht="12.75"/>
+    <row r="494" ht="12.75"/>
+    <row r="495" ht="12.75"/>
+    <row r="496" ht="12.75"/>
+    <row r="497" ht="12.75"/>
+    <row r="498" ht="12.75"/>
+    <row r="499" ht="12.75"/>
+    <row r="500" ht="12.75"/>
+    <row r="501" ht="12.75"/>
+    <row r="502" ht="12.75"/>
+    <row r="503" ht="12.75"/>
+    <row r="504" ht="12.75"/>
+    <row r="505" ht="12.75"/>
+    <row r="506" ht="12.75"/>
+    <row r="507" ht="12.75"/>
+    <row r="508" ht="12.75"/>
+    <row r="509" ht="12.75"/>
+    <row r="510" ht="12.75"/>
+    <row r="511" ht="12.75"/>
+    <row r="512" ht="12.75"/>
+    <row r="513" ht="12.75"/>
+    <row r="514" ht="12.75"/>
+    <row r="515" ht="12.75"/>
+    <row r="516" ht="12.75"/>
+    <row r="517" ht="12.75"/>
+    <row r="518" ht="12.75"/>
+    <row r="519" ht="12.75"/>
+    <row r="520" ht="12.75"/>
+    <row r="521" ht="12.75"/>
+    <row r="522" ht="12.75"/>
+    <row r="523" ht="12.75"/>
+    <row r="524" ht="12.75"/>
+    <row r="525" ht="12.75"/>
+    <row r="526" ht="12.75"/>
+    <row r="527" ht="12.75"/>
+    <row r="528" ht="12.75"/>
+    <row r="529" ht="12.75"/>
+    <row r="530" ht="12.75"/>
+    <row r="531" ht="12.75"/>
+    <row r="532" ht="12.75"/>
+    <row r="533" ht="12.75"/>
+    <row r="534" ht="12.75"/>
+    <row r="535" ht="12.75"/>
+    <row r="536" ht="12.75"/>
+    <row r="537" ht="12.75"/>
+    <row r="538" ht="12.75"/>
+    <row r="539" ht="12.75"/>
+    <row r="540" ht="12.75"/>
+    <row r="541" ht="12.75"/>
+    <row r="542" ht="12.75"/>
+    <row r="543" ht="12.75"/>
+    <row r="544" ht="12.75"/>
+    <row r="545" ht="12.75"/>
+    <row r="546" ht="12.75"/>
+    <row r="547" ht="12.75"/>
+    <row r="548" ht="12.75"/>
+    <row r="549" ht="12.75"/>
+    <row r="550" ht="12.75"/>
+    <row r="551" ht="12.75"/>
+    <row r="552" ht="12.75"/>
+    <row r="553" ht="12.75"/>
+    <row r="554" ht="12.75"/>
+    <row r="555" ht="12.75"/>
+    <row r="556" ht="12.75"/>
+    <row r="557" ht="12.75"/>
+    <row r="558" ht="12.75"/>
+    <row r="559" ht="12.75"/>
+    <row r="560" ht="12.75"/>
+    <row r="561" ht="12.75"/>
+    <row r="562" ht="12.75"/>
+    <row r="563" ht="12.75"/>
+    <row r="564" ht="12.75"/>
+    <row r="565" ht="12.75"/>
+    <row r="566" ht="12.75"/>
+    <row r="567" ht="12.75"/>
+    <row r="568" ht="12.75"/>
+    <row r="569" ht="12.75"/>
+    <row r="570" ht="12.75"/>
+    <row r="571" ht="12.75"/>
+    <row r="572" ht="12.75"/>
+    <row r="573" ht="12.75"/>
+    <row r="574" ht="12.75"/>
+    <row r="575" ht="12.75"/>
+    <row r="576" ht="12.75"/>
+    <row r="577" ht="12.75"/>
+    <row r="578" ht="12.75"/>
+    <row r="579" ht="12.75"/>
+    <row r="580" ht="12.75"/>
+    <row r="581" ht="12.75"/>
+    <row r="582" ht="12.75"/>
+    <row r="583" ht="12.75"/>
+    <row r="584" ht="12.75"/>
+    <row r="585" ht="12.75"/>
+    <row r="586" ht="12.75"/>
+    <row r="587" ht="12.75"/>
+    <row r="588" ht="12.75"/>
+    <row r="589" ht="12.75"/>
+    <row r="590" ht="12.75"/>
+    <row r="591" ht="12.75"/>
+    <row r="592" ht="12.75"/>
+    <row r="593" ht="12.75"/>
+    <row r="594" ht="12.75"/>
+    <row r="595" ht="12.75"/>
+    <row r="596" ht="12.75"/>
+    <row r="597" ht="12.75"/>
+    <row r="598" ht="12.75"/>
+    <row r="599" ht="12.75"/>
+    <row r="600" ht="12.75"/>
+    <row r="601" ht="12.75"/>
+    <row r="602" ht="12.75"/>
+    <row r="603" ht="12.75"/>
+    <row r="604" ht="12.75"/>
+    <row r="605" ht="12.75"/>
+    <row r="606" ht="12.75"/>
+    <row r="607" ht="12.75"/>
+    <row r="608" ht="12.75"/>
+    <row r="609" ht="12.75"/>
+    <row r="610" ht="12.75"/>
+    <row r="611" ht="12.75"/>
+    <row r="612" ht="12.75"/>
+    <row r="613" ht="12.75"/>
+    <row r="614" ht="12.75"/>
+    <row r="615" ht="12.75"/>
+    <row r="616" ht="12.75"/>
+    <row r="617" ht="12.75"/>
+    <row r="618" ht="12.75"/>
+    <row r="619" ht="12.75"/>
+    <row r="620" ht="12.75"/>
+    <row r="621" ht="12.75"/>
+    <row r="622" ht="12.75"/>
+    <row r="623" ht="12.75"/>
+    <row r="624" ht="12.75"/>
+    <row r="625" ht="12.75"/>
+    <row r="626" ht="12.75"/>
+    <row r="627" ht="12.75"/>
+    <row r="628" ht="12.75"/>
+    <row r="629" ht="12.75"/>
+    <row r="630" ht="12.75"/>
+    <row r="631" ht="12.75"/>
+    <row r="632" ht="12.75"/>
+    <row r="633" ht="12.75"/>
+    <row r="634" ht="12.75"/>
+    <row r="635" ht="12.75"/>
+    <row r="636" ht="12.75"/>
+    <row r="637" ht="12.75"/>
+    <row r="638" ht="12.75"/>
+    <row r="639" ht="12.75"/>
+    <row r="640" ht="12.75"/>
+    <row r="641" ht="12.75"/>
+    <row r="642" ht="12.75"/>
+    <row r="643" ht="12.75"/>
+    <row r="644" ht="12.75"/>
+    <row r="645" ht="12.75"/>
+    <row r="646" ht="12.75"/>
+    <row r="647" ht="12.75"/>
+    <row r="648" ht="12.75"/>
+    <row r="649" ht="12.75"/>
+    <row r="650" ht="12.75"/>
+    <row r="651" ht="12.75"/>
+    <row r="652" ht="12.75"/>
+    <row r="653" ht="12.75"/>
+    <row r="654" ht="12.75"/>
+    <row r="655" ht="12.75"/>
+    <row r="656" ht="12.75"/>
+    <row r="657" ht="12.75"/>
+    <row r="658" ht="12.75"/>
+    <row r="659" ht="12.75"/>
+    <row r="660" ht="12.75"/>
+    <row r="661" ht="12.75"/>
+    <row r="662" ht="12.75"/>
+    <row r="663" ht="12.75"/>
+    <row r="664" ht="12.75"/>
+    <row r="665" ht="12.75"/>
+    <row r="666" ht="12.75"/>
+    <row r="667" ht="12.75"/>
+    <row r="668" ht="12.75"/>
+    <row r="669" ht="12.75"/>
+    <row r="670" ht="12.75"/>
+    <row r="671" ht="12.75"/>
+    <row r="672" ht="12.75"/>
+    <row r="673" ht="12.75"/>
+    <row r="674" ht="12.75"/>
+    <row r="675" ht="12.75"/>
+    <row r="676" ht="12.75"/>
+    <row r="677" ht="12.75"/>
+    <row r="678" ht="12.75"/>
+    <row r="679" ht="12.75"/>
+    <row r="680" ht="12.75"/>
+    <row r="681" ht="12.75"/>
+    <row r="682" ht="12.75"/>
+    <row r="683" ht="12.75"/>
+    <row r="684" ht="12.75"/>
+    <row r="685" ht="12.75"/>
+    <row r="686" ht="12.75"/>
+    <row r="687" ht="12.75"/>
+    <row r="688" ht="12.75"/>
+    <row r="689" ht="12.75"/>
+    <row r="690" ht="12.75"/>
+    <row r="691" ht="12.75"/>
+    <row r="692" ht="12.75"/>
+    <row r="693" ht="12.75"/>
+    <row r="694" ht="12.75"/>
+    <row r="695" ht="12.75"/>
+    <row r="696" ht="12.75"/>
+    <row r="697" ht="12.75"/>
+    <row r="698" ht="12.75"/>
+    <row r="699" ht="12.75"/>
+    <row r="700" ht="12.75"/>
+    <row r="701" ht="12.75"/>
+    <row r="702" ht="12.75"/>
+    <row r="703" ht="12.75"/>
+    <row r="704" ht="12.75"/>
+    <row r="705" ht="12.75"/>
+    <row r="706" ht="12.75"/>
+    <row r="707" ht="12.75"/>
+    <row r="708" ht="12.75"/>
+    <row r="709" ht="12.75"/>
+    <row r="710" ht="12.75"/>
+    <row r="711" ht="12.75"/>
+    <row r="712" ht="12.75"/>
+    <row r="713" ht="12.75"/>
+    <row r="714" ht="12.75"/>
+    <row r="715" ht="12.75"/>
+    <row r="716" ht="12.75"/>
+    <row r="717" ht="12.75"/>
+    <row r="718" ht="12.75"/>
+    <row r="719" ht="12.75"/>
+    <row r="720" ht="12.75"/>
+    <row r="721" ht="12.75"/>
+    <row r="722" ht="12.75"/>
+    <row r="723" ht="12.75"/>
+    <row r="724" ht="12.75"/>
+    <row r="725" ht="12.75"/>
+    <row r="726" ht="12.75"/>
+    <row r="727" ht="12.75"/>
+    <row r="728" ht="12.75"/>
+    <row r="729" ht="12.75"/>
+    <row r="730" ht="12.75"/>
+    <row r="731" ht="12.75"/>
+    <row r="732" ht="12.75"/>
+    <row r="733" ht="12.75"/>
+    <row r="734" ht="12.75"/>
+    <row r="735" ht="12.75"/>
+    <row r="736" ht="12.75"/>
+    <row r="737" ht="12.75"/>
+    <row r="738" ht="12.75"/>
+    <row r="739" ht="12.75"/>
+    <row r="740" ht="12.75"/>
+    <row r="741" ht="12.75"/>
+    <row r="742" ht="12.75"/>
+    <row r="743" ht="12.75"/>
+    <row r="744" ht="12.75"/>
+    <row r="745" ht="12.75"/>
+    <row r="746" ht="12.75"/>
+    <row r="747" ht="12.75"/>
+    <row r="748" ht="12.75"/>
+    <row r="749" ht="12.75"/>
+    <row r="750" ht="12.75"/>
+    <row r="751" ht="12.75"/>
+    <row r="752" ht="12.75"/>
+    <row r="753" ht="12.75"/>
+    <row r="754" ht="12.75"/>
+    <row r="755" ht="12.75"/>
+    <row r="756" ht="12.75"/>
+    <row r="757" ht="12.75"/>
+    <row r="758" ht="12.75"/>
+    <row r="759" ht="12.75"/>
+    <row r="760" ht="12.75"/>
+    <row r="761" ht="12.75"/>
+    <row r="762" ht="12.75"/>
+    <row r="763" ht="12.75"/>
+    <row r="764" ht="12.75"/>
+    <row r="765" ht="12.75"/>
+    <row r="766" ht="12.75"/>
+    <row r="767" ht="12.75"/>
+    <row r="768" ht="12.75"/>
+    <row r="769" ht="12.75"/>
+    <row r="770" ht="12.75"/>
+    <row r="771" ht="12.75"/>
+    <row r="772" ht="12.75"/>
+    <row r="773" ht="12.75"/>
+    <row r="774" ht="12.75"/>
+    <row r="775" ht="12.75"/>
+    <row r="776" ht="12.75"/>
+    <row r="777" ht="12.75"/>
+    <row r="778" ht="12.75"/>
+    <row r="779" ht="12.75"/>
+    <row r="780" ht="12.75"/>
+    <row r="781" ht="12.75"/>
+    <row r="782" ht="12.75"/>
+    <row r="783" ht="12.75"/>
+    <row r="784" ht="12.75"/>
+    <row r="785" ht="12.75"/>
+    <row r="786" ht="12.75"/>
+    <row r="787" ht="12.75"/>
+    <row r="788" ht="12.75"/>
+    <row r="789" ht="12.75"/>
+    <row r="790" ht="12.75"/>
+    <row r="791" ht="12.75"/>
+    <row r="792" ht="12.75"/>
+    <row r="793" ht="12.75"/>
+    <row r="794" ht="12.75"/>
+    <row r="795" ht="12.75"/>
+    <row r="796" ht="12.75"/>
+    <row r="797" ht="12.75"/>
+    <row r="798" ht="12.75"/>
+    <row r="799" ht="12.75"/>
+    <row r="800" ht="12.75"/>
+    <row r="801" ht="12.75"/>
+    <row r="802" ht="12.75"/>
+    <row r="803" ht="12.75"/>
+    <row r="804" ht="12.75"/>
+    <row r="805" ht="12.75"/>
+    <row r="806" ht="12.75"/>
+    <row r="807" ht="12.75"/>
+    <row r="808" ht="12.75"/>
+    <row r="809" ht="12.75"/>
+    <row r="810" ht="12.75"/>
+    <row r="811" ht="12.75"/>
+    <row r="812" ht="12.75"/>
+    <row r="813" ht="12.75"/>
+    <row r="814" ht="12.75"/>
+    <row r="815" ht="12.75"/>
+    <row r="816" ht="12.75"/>
+    <row r="817" ht="12.75"/>
+    <row r="818" ht="12.75"/>
+    <row r="819" ht="12.75"/>
+    <row r="820" ht="12.75"/>
+    <row r="821" ht="12.75"/>
+    <row r="822" ht="12.75"/>
+    <row r="823" ht="12.75"/>
+    <row r="824" ht="12.75"/>
+    <row r="825" ht="12.75"/>
+    <row r="826" ht="12.75"/>
+    <row r="827" ht="12.75"/>
+    <row r="828" ht="12.75"/>
+    <row r="829" ht="12.75"/>
+    <row r="830" ht="12.75"/>
+    <row r="831" ht="12.75"/>
+    <row r="832" ht="12.75"/>
+    <row r="833" ht="12.75"/>
+    <row r="834" ht="12.75"/>
+    <row r="835" ht="12.75"/>
+    <row r="836" ht="12.75"/>
+    <row r="837" ht="12.75"/>
+    <row r="838" ht="12.75"/>
+    <row r="839" ht="12.75"/>
+    <row r="840" ht="12.75"/>
+    <row r="841" ht="12.75"/>
+    <row r="842" ht="12.75"/>
+    <row r="843" ht="12.75"/>
+    <row r="844" ht="12.75"/>
+    <row r="845" ht="12.75"/>
+    <row r="846" ht="12.75"/>
+    <row r="847" ht="12.75"/>
+    <row r="848" ht="12.75"/>
+    <row r="849" ht="12.75"/>
+    <row r="850" ht="12.75"/>
+    <row r="851" ht="12.75"/>
+    <row r="852" ht="12.75"/>
+    <row r="853" ht="12.75"/>
+    <row r="854" ht="12.75"/>
+    <row r="855" ht="12.75"/>
+    <row r="856" ht="12.75"/>
+    <row r="857" ht="12.75"/>
+    <row r="858" ht="12.75"/>
+    <row r="859" ht="12.75"/>
+    <row r="860" ht="12.75"/>
+    <row r="861" ht="12.75"/>
+    <row r="862" ht="12.75"/>
+    <row r="863" ht="12.75"/>
+    <row r="864" ht="12.75"/>
+    <row r="865" ht="12.75"/>
+    <row r="866" ht="12.75"/>
+    <row r="867" ht="12.75"/>
+    <row r="868" ht="12.75"/>
+    <row r="869" ht="12.75"/>
+    <row r="870" ht="12.75"/>
+    <row r="871" ht="12.75"/>
+    <row r="872" ht="12.75"/>
+    <row r="873" ht="12.75"/>
+    <row r="874" ht="12.75"/>
+    <row r="875" ht="12.75"/>
+    <row r="876" ht="12.75"/>
+    <row r="877" ht="12.75"/>
+    <row r="878" ht="12.75"/>
+    <row r="879" ht="12.75"/>
+    <row r="880" ht="12.75"/>
+    <row r="881" ht="12.75"/>
+    <row r="882" ht="12.75"/>
+    <row r="883" ht="12.75"/>
+    <row r="884" ht="12.75"/>
+    <row r="885" ht="12.75"/>
+    <row r="886" ht="12.75"/>
+    <row r="887" ht="12.75"/>
+    <row r="888" ht="12.75"/>
+    <row r="889" ht="12.75"/>
+    <row r="890" ht="12.75"/>
+    <row r="891" ht="12.75"/>
+    <row r="892" ht="12.75"/>
+    <row r="893" ht="12.75"/>
+    <row r="894" ht="12.75"/>
+    <row r="895" ht="12.75"/>
+    <row r="896" ht="12.75"/>
+    <row r="897" ht="12.75"/>
+    <row r="898" ht="12.75"/>
+    <row r="899" ht="12.75"/>
+    <row r="900" ht="12.75"/>
+    <row r="901" ht="12.75"/>
+    <row r="902" ht="12.75"/>
+    <row r="903" ht="12.75"/>
+    <row r="904" ht="12.75"/>
+    <row r="905" ht="12.75"/>
+    <row r="906" ht="12.75"/>
+    <row r="907" ht="12.75"/>
+    <row r="908" ht="12.75"/>
+    <row r="909" ht="12.75"/>
+    <row r="910" ht="12.75"/>
+    <row r="911" ht="12.75"/>
+    <row r="912" ht="12.75"/>
+    <row r="913" ht="12.75"/>
+    <row r="914" ht="12.75"/>
+    <row r="915" ht="12.75"/>
+    <row r="916" ht="12.75"/>
+    <row r="917" ht="12.75"/>
+    <row r="918" ht="12.75"/>
+    <row r="919" ht="12.75"/>
+    <row r="920" ht="12.75"/>
+    <row r="921" ht="12.75"/>
+    <row r="922" ht="12.75"/>
+    <row r="923" ht="12.75"/>
+    <row r="924" ht="12.75"/>
+    <row r="925" ht="12.75"/>
+    <row r="926" ht="12.75"/>
+    <row r="927" ht="12.75"/>
+    <row r="928" ht="12.75"/>
+    <row r="929" ht="12.75"/>
+    <row r="930" ht="12.75"/>
+    <row r="931" ht="12.75"/>
+    <row r="932" ht="12.75"/>
+    <row r="933" ht="12.75"/>
+    <row r="934" ht="12.75"/>
+    <row r="935" ht="12.75"/>
+    <row r="936" ht="12.75"/>
+    <row r="937" ht="12.75"/>
+    <row r="938" ht="12.75"/>
+    <row r="939" ht="12.75"/>
+    <row r="940" ht="12.75"/>
+    <row r="941" ht="12.75"/>
+    <row r="942" ht="12.75"/>
+    <row r="943" ht="12.75"/>
+    <row r="944" ht="12.75"/>
+    <row r="945" ht="12.75"/>
+    <row r="946" ht="12.75"/>
+    <row r="947" ht="12.75"/>
+    <row r="948" ht="12.75"/>
+    <row r="949" ht="12.75"/>
+    <row r="950" ht="12.75"/>
+    <row r="951" ht="12.75"/>
+    <row r="952" ht="12.75"/>
+    <row r="953" ht="12.75"/>
+    <row r="954" ht="12.75"/>
+    <row r="955" ht="12.75"/>
+    <row r="956" ht="12.75"/>
+    <row r="957" ht="12.75"/>
+    <row r="958" ht="12.75"/>
+    <row r="959" ht="12.75"/>
+    <row r="960" ht="12.75"/>
+    <row r="961" ht="12.75"/>
+    <row r="962" ht="12.75"/>
+    <row r="963" ht="12.75"/>
+    <row r="964" ht="12.75"/>
+    <row r="965" ht="12.75"/>
+    <row r="966" ht="12.75"/>
+    <row r="967" ht="12.75"/>
+    <row r="968" ht="12.75"/>
+    <row r="969" ht="12.75"/>
+    <row r="970" ht="12.75"/>
+    <row r="971" ht="12.75"/>
+    <row r="972" ht="12.75"/>
+    <row r="973" ht="12.75"/>
+    <row r="974" ht="12.75"/>
+    <row r="975" ht="12.75"/>
+    <row r="976" ht="12.75"/>
+    <row r="977" ht="12.75"/>
+    <row r="978" ht="12.75"/>
+    <row r="979" ht="12.75"/>
+    <row r="980" ht="12.75"/>
+    <row r="981" ht="12.75"/>
+    <row r="982" ht="12.75"/>
+    <row r="983" ht="12.75"/>
+    <row r="984" ht="12.75"/>
+    <row r="985" ht="12.75"/>
+    <row r="986" ht="12.75"/>
+    <row r="987" ht="12.75"/>
+    <row r="988" ht="12.75"/>
+    <row r="989" ht="12.75"/>
+    <row r="990" ht="12.75"/>
+    <row r="991" ht="12.75"/>
+    <row r="992" ht="12.75"/>
+    <row r="993" ht="12.75"/>
+    <row r="994" ht="12.75"/>
+    <row r="995" ht="12.75"/>
+    <row r="996" ht="12.75"/>
+    <row r="997" ht="12.75"/>
+    <row r="998" ht="12.75"/>
+    <row r="999" ht="12.75"/>
+    <row r="1000" ht="12.75"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F1000"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="45.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="16" width="11.5703125" customWidth="1"/>
+    <col min="17" max="26" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" ht="12.75"/>
+    <row r="34" ht="12.75"/>
+    <row r="35" ht="12.75"/>
+    <row r="36" ht="12.75"/>
+    <row r="37" ht="12.75"/>
+    <row r="38" ht="12.75"/>
+    <row r="39" ht="12.75"/>
+    <row r="40" ht="12.75"/>
+    <row r="41" ht="12.75"/>
+    <row r="42" ht="12.75"/>
+    <row r="43" ht="12.75"/>
+    <row r="44" ht="12.75"/>
+    <row r="45" ht="12.75"/>
+    <row r="46" ht="12.75"/>
+    <row r="47" ht="12.75"/>
+    <row r="48" ht="12.75"/>
+    <row r="49" ht="12.75"/>
+    <row r="50" ht="12.75"/>
+    <row r="51" ht="12.75"/>
+    <row r="52" ht="12.75"/>
+    <row r="53" ht="12.75"/>
+    <row r="54" ht="12.75"/>
+    <row r="55" ht="12.75"/>
+    <row r="56" ht="12.75"/>
+    <row r="57" ht="12.75"/>
+    <row r="58" ht="12.75"/>
+    <row r="59" ht="12.75"/>
+    <row r="60" ht="12.75"/>
+    <row r="61" ht="12.75"/>
+    <row r="62" ht="12.75"/>
+    <row r="63" ht="12.75"/>
+    <row r="64" ht="12.75"/>
+    <row r="65" ht="12.75"/>
+    <row r="66" ht="12.75"/>
+    <row r="67" ht="12.75"/>
+    <row r="68" ht="12.75"/>
+    <row r="69" ht="12.75"/>
+    <row r="70" ht="12.75"/>
+    <row r="71" ht="12.75"/>
+    <row r="72" ht="12.75"/>
+    <row r="73" ht="12.75"/>
+    <row r="74" ht="12.75"/>
+    <row r="75" ht="12.75"/>
+    <row r="76" ht="12.75"/>
+    <row r="77" ht="12.75"/>
+    <row r="78" ht="12.75"/>
+    <row r="79" ht="12.75"/>
+    <row r="80" ht="12.75"/>
+    <row r="81" ht="12.75"/>
+    <row r="82" ht="12.75"/>
+    <row r="83" ht="12.75"/>
+    <row r="84" ht="12.75"/>
+    <row r="85" ht="12.75"/>
+    <row r="86" ht="12.75"/>
+    <row r="87" ht="12.75"/>
+    <row r="88" ht="12.75"/>
+    <row r="89" ht="12.75"/>
+    <row r="90" ht="12.75"/>
+    <row r="91" ht="12.75"/>
+    <row r="92" ht="12.75"/>
+    <row r="93" ht="12.75"/>
+    <row r="94" ht="12.75"/>
+    <row r="95" ht="12.75"/>
+    <row r="96" ht="12.75"/>
+    <row r="97" ht="12.75"/>
+    <row r="98" ht="12.75"/>
+    <row r="99" ht="12.75"/>
+    <row r="100" ht="12.75"/>
+    <row r="101" ht="12.75"/>
+    <row r="102" ht="12.75"/>
+    <row r="103" ht="12.75"/>
+    <row r="104" ht="12.75"/>
+    <row r="105" ht="12.75"/>
+    <row r="106" ht="12.75"/>
+    <row r="107" ht="12.75"/>
+    <row r="108" ht="12.75"/>
+    <row r="109" ht="12.75"/>
+    <row r="110" ht="12.75"/>
+    <row r="111" ht="12.75"/>
+    <row r="112" ht="12.75"/>
+    <row r="113" ht="12.75"/>
+    <row r="114" ht="12.75"/>
+    <row r="115" ht="12.75"/>
+    <row r="116" ht="12.75"/>
+    <row r="117" ht="12.75"/>
+    <row r="118" ht="12.75"/>
+    <row r="119" ht="12.75"/>
+    <row r="120" ht="12.75"/>
+    <row r="121" ht="12.75"/>
+    <row r="122" ht="12.75"/>
+    <row r="123" ht="12.75"/>
+    <row r="124" ht="12.75"/>
+    <row r="125" ht="12.75"/>
+    <row r="126" ht="12.75"/>
+    <row r="127" ht="12.75"/>
+    <row r="128" ht="12.75"/>
+    <row r="129" ht="12.75"/>
+    <row r="130" ht="12.75"/>
+    <row r="131" ht="12.75"/>
+    <row r="132" ht="12.75"/>
+    <row r="133" ht="12.75"/>
+    <row r="134" ht="12.75"/>
+    <row r="135" ht="12.75"/>
+    <row r="136" ht="12.75"/>
+    <row r="137" ht="12.75"/>
+    <row r="138" ht="12.75"/>
+    <row r="139" ht="12.75"/>
+    <row r="140" ht="12.75"/>
+    <row r="141" ht="12.75"/>
+    <row r="142" ht="12.75"/>
+    <row r="143" ht="12.75"/>
+    <row r="144" ht="12.75"/>
+    <row r="145" ht="12.75"/>
+    <row r="146" ht="12.75"/>
+    <row r="147" ht="12.75"/>
+    <row r="148" ht="12.75"/>
+    <row r="149" ht="12.75"/>
+    <row r="150" ht="12.75"/>
+    <row r="151" ht="12.75"/>
+    <row r="152" ht="12.75"/>
+    <row r="153" ht="12.75"/>
+    <row r="154" ht="12.75"/>
+    <row r="155" ht="12.75"/>
+    <row r="156" ht="12.75"/>
+    <row r="157" ht="12.75"/>
+    <row r="158" ht="12.75"/>
+    <row r="159" ht="12.75"/>
+    <row r="160" ht="12.75"/>
+    <row r="161" ht="12.75"/>
+    <row r="162" ht="12.75"/>
+    <row r="163" ht="12.75"/>
+    <row r="164" ht="12.75"/>
+    <row r="165" ht="12.75"/>
+    <row r="166" ht="12.75"/>
+    <row r="167" ht="12.75"/>
+    <row r="168" ht="12.75"/>
+    <row r="169" ht="12.75"/>
+    <row r="170" ht="12.75"/>
+    <row r="171" ht="12.75"/>
+    <row r="172" ht="12.75"/>
+    <row r="173" ht="12.75"/>
+    <row r="174" ht="12.75"/>
+    <row r="175" ht="12.75"/>
+    <row r="176" ht="12.75"/>
+    <row r="177" ht="12.75"/>
+    <row r="178" ht="12.75"/>
+    <row r="179" ht="12.75"/>
+    <row r="180" ht="12.75"/>
+    <row r="181" ht="12.75"/>
+    <row r="182" ht="12.75"/>
+    <row r="183" ht="12.75"/>
+    <row r="184" ht="12.75"/>
+    <row r="185" ht="12.75"/>
+    <row r="186" ht="12.75"/>
+    <row r="187" ht="12.75"/>
+    <row r="188" ht="12.75"/>
+    <row r="189" ht="12.75"/>
+    <row r="190" ht="12.75"/>
+    <row r="191" ht="12.75"/>
+    <row r="192" ht="12.75"/>
+    <row r="193" ht="12.75"/>
+    <row r="194" ht="12.75"/>
+    <row r="195" ht="12.75"/>
+    <row r="196" ht="12.75"/>
+    <row r="197" ht="12.75"/>
+    <row r="198" ht="12.75"/>
+    <row r="199" ht="12.75"/>
+    <row r="200" ht="12.75"/>
+    <row r="201" ht="12.75"/>
+    <row r="202" ht="12.75"/>
+    <row r="203" ht="12.75"/>
+    <row r="204" ht="12.75"/>
+    <row r="205" ht="12.75"/>
+    <row r="206" ht="12.75"/>
+    <row r="207" ht="12.75"/>
+    <row r="208" ht="12.75"/>
+    <row r="209" ht="12.75"/>
+    <row r="210" ht="12.75"/>
+    <row r="211" ht="12.75"/>
+    <row r="212" ht="12.75"/>
+    <row r="213" ht="12.75"/>
+    <row r="214" ht="12.75"/>
+    <row r="215" ht="12.75"/>
+    <row r="216" ht="12.75"/>
+    <row r="217" ht="12.75"/>
+    <row r="218" ht="12.75"/>
+    <row r="219" ht="12.75"/>
+    <row r="220" ht="12.75"/>
+    <row r="221" ht="12.75"/>
+    <row r="222" ht="12.75"/>
+    <row r="223" ht="12.75"/>
+    <row r="224" ht="12.75"/>
+    <row r="225" ht="12.75"/>
+    <row r="226" ht="12.75"/>
+    <row r="227" ht="12.75"/>
+    <row r="228" ht="12.75"/>
+    <row r="229" ht="12.75"/>
+    <row r="230" ht="12.75"/>
+    <row r="231" ht="12.75"/>
+    <row r="232" ht="12.75"/>
+    <row r="233" ht="12.75"/>
+    <row r="234" ht="12.75"/>
+    <row r="235" ht="12.75"/>
+    <row r="236" ht="12.75"/>
+    <row r="237" ht="12.75"/>
+    <row r="238" ht="12.75"/>
+    <row r="239" ht="12.75"/>
+    <row r="240" ht="12.75"/>
+    <row r="241" ht="12.75"/>
+    <row r="242" ht="12.75"/>
+    <row r="243" ht="12.75"/>
+    <row r="244" ht="12.75"/>
+    <row r="245" ht="12.75"/>
+    <row r="246" ht="12.75"/>
+    <row r="247" ht="12.75"/>
+    <row r="248" ht="12.75"/>
+    <row r="249" ht="12.75"/>
+    <row r="250" ht="12.75"/>
+    <row r="251" ht="12.75"/>
+    <row r="252" ht="12.75"/>
+    <row r="253" ht="12.75"/>
+    <row r="254" ht="12.75"/>
+    <row r="255" ht="12.75"/>
+    <row r="256" ht="12.75"/>
+    <row r="257" ht="12.75"/>
+    <row r="258" ht="12.75"/>
+    <row r="259" ht="12.75"/>
+    <row r="260" ht="12.75"/>
+    <row r="261" ht="12.75"/>
+    <row r="262" ht="12.75"/>
+    <row r="263" ht="12.75"/>
+    <row r="264" ht="12.75"/>
+    <row r="265" ht="12.75"/>
+    <row r="266" ht="12.75"/>
+    <row r="267" ht="12.75"/>
+    <row r="268" ht="12.75"/>
+    <row r="269" ht="12.75"/>
+    <row r="270" ht="12.75"/>
+    <row r="271" ht="12.75"/>
+    <row r="272" ht="12.75"/>
+    <row r="273" ht="12.75"/>
+    <row r="274" ht="12.75"/>
+    <row r="275" ht="12.75"/>
+    <row r="276" ht="12.75"/>
+    <row r="277" ht="12.75"/>
+    <row r="278" ht="12.75"/>
+    <row r="279" ht="12.75"/>
+    <row r="280" ht="12.75"/>
+    <row r="281" ht="12.75"/>
+    <row r="282" ht="12.75"/>
+    <row r="283" ht="12.75"/>
+    <row r="284" ht="12.75"/>
+    <row r="285" ht="12.75"/>
+    <row r="286" ht="12.75"/>
+    <row r="287" ht="12.75"/>
+    <row r="288" ht="12.75"/>
+    <row r="289" ht="12.75"/>
+    <row r="290" ht="12.75"/>
+    <row r="291" ht="12.75"/>
+    <row r="292" ht="12.75"/>
+    <row r="293" ht="12.75"/>
+    <row r="294" ht="12.75"/>
+    <row r="295" ht="12.75"/>
+    <row r="296" ht="12.75"/>
+    <row r="297" ht="12.75"/>
+    <row r="298" ht="12.75"/>
+    <row r="299" ht="12.75"/>
+    <row r="300" ht="12.75"/>
+    <row r="301" ht="12.75"/>
+    <row r="302" ht="12.75"/>
+    <row r="303" ht="12.75"/>
+    <row r="304" ht="12.75"/>
+    <row r="305" ht="12.75"/>
+    <row r="306" ht="12.75"/>
+    <row r="307" ht="12.75"/>
+    <row r="308" ht="12.75"/>
+    <row r="309" ht="12.75"/>
+    <row r="310" ht="12.75"/>
+    <row r="311" ht="12.75"/>
+    <row r="312" ht="12.75"/>
+    <row r="313" ht="12.75"/>
+    <row r="314" ht="12.75"/>
+    <row r="315" ht="12.75"/>
+    <row r="316" ht="12.75"/>
+    <row r="317" ht="12.75"/>
+    <row r="318" ht="12.75"/>
+    <row r="319" ht="12.75"/>
+    <row r="320" ht="12.75"/>
+    <row r="321" ht="12.75"/>
+    <row r="322" ht="12.75"/>
+    <row r="323" ht="12.75"/>
+    <row r="324" ht="12.75"/>
+    <row r="325" ht="12.75"/>
+    <row r="326" ht="12.75"/>
+    <row r="327" ht="12.75"/>
+    <row r="328" ht="12.75"/>
+    <row r="329" ht="12.75"/>
+    <row r="330" ht="12.75"/>
+    <row r="331" ht="12.75"/>
+    <row r="332" ht="12.75"/>
+    <row r="333" ht="12.75"/>
+    <row r="334" ht="12.75"/>
+    <row r="335" ht="12.75"/>
+    <row r="336" ht="12.75"/>
+    <row r="337" ht="12.75"/>
+    <row r="338" ht="12.75"/>
+    <row r="339" ht="12.75"/>
+    <row r="340" ht="12.75"/>
+    <row r="341" ht="12.75"/>
+    <row r="342" ht="12.75"/>
+    <row r="343" ht="12.75"/>
+    <row r="344" ht="12.75"/>
+    <row r="345" ht="12.75"/>
+    <row r="346" ht="12.75"/>
+    <row r="347" ht="12.75"/>
+    <row r="348" ht="12.75"/>
+    <row r="349" ht="12.75"/>
+    <row r="350" ht="12.75"/>
+    <row r="351" ht="12.75"/>
+    <row r="352" ht="12.75"/>
+    <row r="353" ht="12.75"/>
+    <row r="354" ht="12.75"/>
+    <row r="355" ht="12.75"/>
+    <row r="356" ht="12.75"/>
+    <row r="357" ht="12.75"/>
+    <row r="358" ht="12.75"/>
+    <row r="359" ht="12.75"/>
+    <row r="360" ht="12.75"/>
+    <row r="361" ht="12.75"/>
+    <row r="362" ht="12.75"/>
+    <row r="363" ht="12.75"/>
+    <row r="364" ht="12.75"/>
+    <row r="365" ht="12.75"/>
+    <row r="366" ht="12.75"/>
+    <row r="367" ht="12.75"/>
+    <row r="368" ht="12.75"/>
+    <row r="369" ht="12.75"/>
+    <row r="370" ht="12.75"/>
+    <row r="371" ht="12.75"/>
+    <row r="372" ht="12.75"/>
+    <row r="373" ht="12.75"/>
+    <row r="374" ht="12.75"/>
+    <row r="375" ht="12.75"/>
+    <row r="376" ht="12.75"/>
+    <row r="377" ht="12.75"/>
+    <row r="378" ht="12.75"/>
+    <row r="379" ht="12.75"/>
+    <row r="380" ht="12.75"/>
+    <row r="381" ht="12.75"/>
+    <row r="382" ht="12.75"/>
+    <row r="383" ht="12.75"/>
+    <row r="384" ht="12.75"/>
+    <row r="385" ht="12.75"/>
+    <row r="386" ht="12.75"/>
+    <row r="387" ht="12.75"/>
+    <row r="388" ht="12.75"/>
+    <row r="389" ht="12.75"/>
+    <row r="390" ht="12.75"/>
+    <row r="391" ht="12.75"/>
+    <row r="392" ht="12.75"/>
+    <row r="393" ht="12.75"/>
+    <row r="394" ht="12.75"/>
+    <row r="395" ht="12.75"/>
+    <row r="396" ht="12.75"/>
+    <row r="397" ht="12.75"/>
+    <row r="398" ht="12.75"/>
+    <row r="399" ht="12.75"/>
+    <row r="400" ht="12.75"/>
+    <row r="401" ht="12.75"/>
+    <row r="402" ht="12.75"/>
+    <row r="403" ht="12.75"/>
+    <row r="404" ht="12.75"/>
+    <row r="405" ht="12.75"/>
+    <row r="406" ht="12.75"/>
+    <row r="407" ht="12.75"/>
+    <row r="408" ht="12.75"/>
+    <row r="409" ht="12.75"/>
+    <row r="410" ht="12.75"/>
+    <row r="411" ht="12.75"/>
+    <row r="412" ht="12.75"/>
+    <row r="413" ht="12.75"/>
+    <row r="414" ht="12.75"/>
+    <row r="415" ht="12.75"/>
+    <row r="416" ht="12.75"/>
+    <row r="417" ht="12.75"/>
+    <row r="418" ht="12.75"/>
+    <row r="419" ht="12.75"/>
+    <row r="420" ht="12.75"/>
+    <row r="421" ht="12.75"/>
+    <row r="422" ht="12.75"/>
+    <row r="423" ht="12.75"/>
+    <row r="424" ht="12.75"/>
+    <row r="425" ht="12.75"/>
+    <row r="426" ht="12.75"/>
+    <row r="427" ht="12.75"/>
+    <row r="428" ht="12.75"/>
+    <row r="429" ht="12.75"/>
+    <row r="430" ht="12.75"/>
+    <row r="431" ht="12.75"/>
+    <row r="432" ht="12.75"/>
+    <row r="433" ht="12.75"/>
+    <row r="434" ht="12.75"/>
+    <row r="435" ht="12.75"/>
+    <row r="436" ht="12.75"/>
+    <row r="437" ht="12.75"/>
+    <row r="438" ht="12.75"/>
+    <row r="439" ht="12.75"/>
+    <row r="440" ht="12.75"/>
+    <row r="441" ht="12.75"/>
+    <row r="442" ht="12.75"/>
+    <row r="443" ht="12.75"/>
+    <row r="444" ht="12.75"/>
+    <row r="445" ht="12.75"/>
+    <row r="446" ht="12.75"/>
+    <row r="447" ht="12.75"/>
+    <row r="448" ht="12.75"/>
+    <row r="449" ht="12.75"/>
+    <row r="450" ht="12.75"/>
+    <row r="451" ht="12.75"/>
+    <row r="452" ht="12.75"/>
+    <row r="453" ht="12.75"/>
+    <row r="454" ht="12.75"/>
+    <row r="455" ht="12.75"/>
+    <row r="456" ht="12.75"/>
+    <row r="457" ht="12.75"/>
+    <row r="458" ht="12.75"/>
+    <row r="459" ht="12.75"/>
+    <row r="460" ht="12.75"/>
+    <row r="461" ht="12.75"/>
+    <row r="462" ht="12.75"/>
+    <row r="463" ht="12.75"/>
+    <row r="464" ht="12.75"/>
+    <row r="465" ht="12.75"/>
+    <row r="466" ht="12.75"/>
+    <row r="467" ht="12.75"/>
+    <row r="468" ht="12.75"/>
+    <row r="469" ht="12.75"/>
+    <row r="470" ht="12.75"/>
+    <row r="471" ht="12.75"/>
+    <row r="472" ht="12.75"/>
+    <row r="473" ht="12.75"/>
+    <row r="474" ht="12.75"/>
+    <row r="475" ht="12.75"/>
+    <row r="476" ht="12.75"/>
+    <row r="477" ht="12.75"/>
+    <row r="478" ht="12.75"/>
+    <row r="479" ht="12.75"/>
+    <row r="480" ht="12.75"/>
+    <row r="481" ht="12.75"/>
+    <row r="482" ht="12.75"/>
+    <row r="483" ht="12.75"/>
+    <row r="484" ht="12.75"/>
+    <row r="485" ht="12.75"/>
+    <row r="486" ht="12.75"/>
+    <row r="487" ht="12.75"/>
+    <row r="488" ht="12.75"/>
+    <row r="489" ht="12.75"/>
+    <row r="490" ht="12.75"/>
+    <row r="491" ht="12.75"/>
+    <row r="492" ht="12.75"/>
+    <row r="493" ht="12.75"/>
+    <row r="494" ht="12.75"/>
+    <row r="495" ht="12.75"/>
+    <row r="496" ht="12.75"/>
+    <row r="497" ht="12.75"/>
+    <row r="498" ht="12.75"/>
+    <row r="499" ht="12.75"/>
+    <row r="500" ht="12.75"/>
+    <row r="501" ht="12.75"/>
+    <row r="502" ht="12.75"/>
+    <row r="503" ht="12.75"/>
+    <row r="504" ht="12.75"/>
+    <row r="505" ht="12.75"/>
+    <row r="506" ht="12.75"/>
+    <row r="507" ht="12.75"/>
+    <row r="508" ht="12.75"/>
+    <row r="509" ht="12.75"/>
+    <row r="510" ht="12.75"/>
+    <row r="511" ht="12.75"/>
+    <row r="512" ht="12.75"/>
+    <row r="513" ht="12.75"/>
+    <row r="514" ht="12.75"/>
+    <row r="515" ht="12.75"/>
+    <row r="516" ht="12.75"/>
+    <row r="517" ht="12.75"/>
+    <row r="518" ht="12.75"/>
+    <row r="519" ht="12.75"/>
+    <row r="520" ht="12.75"/>
+    <row r="521" ht="12.75"/>
+    <row r="522" ht="12.75"/>
+    <row r="523" ht="12.75"/>
+    <row r="524" ht="12.75"/>
+    <row r="525" ht="12.75"/>
+    <row r="526" ht="12.75"/>
+    <row r="527" ht="12.75"/>
+    <row r="528" ht="12.75"/>
+    <row r="529" ht="12.75"/>
+    <row r="530" ht="12.75"/>
+    <row r="531" ht="12.75"/>
+    <row r="532" ht="12.75"/>
+    <row r="533" ht="12.75"/>
+    <row r="534" ht="12.75"/>
+    <row r="535" ht="12.75"/>
+    <row r="536" ht="12.75"/>
+    <row r="537" ht="12.75"/>
+    <row r="538" ht="12.75"/>
+    <row r="539" ht="12.75"/>
+    <row r="540" ht="12.75"/>
+    <row r="541" ht="12.75"/>
+    <row r="542" ht="12.75"/>
+    <row r="543" ht="12.75"/>
+    <row r="544" ht="12.75"/>
+    <row r="545" ht="12.75"/>
+    <row r="546" ht="12.75"/>
+    <row r="547" ht="12.75"/>
+    <row r="548" ht="12.75"/>
+    <row r="549" ht="12.75"/>
+    <row r="550" ht="12.75"/>
+    <row r="551" ht="12.75"/>
+    <row r="552" ht="12.75"/>
+    <row r="553" ht="12.75"/>
+    <row r="554" ht="12.75"/>
+    <row r="555" ht="12.75"/>
+    <row r="556" ht="12.75"/>
+    <row r="557" ht="12.75"/>
+    <row r="558" ht="12.75"/>
+    <row r="559" ht="12.75"/>
+    <row r="560" ht="12.75"/>
+    <row r="561" ht="12.75"/>
+    <row r="562" ht="12.75"/>
+    <row r="563" ht="12.75"/>
+    <row r="564" ht="12.75"/>
+    <row r="565" ht="12.75"/>
+    <row r="566" ht="12.75"/>
+    <row r="567" ht="12.75"/>
+    <row r="568" ht="12.75"/>
+    <row r="569" ht="12.75"/>
+    <row r="570" ht="12.75"/>
+    <row r="571" ht="12.75"/>
+    <row r="572" ht="12.75"/>
+    <row r="573" ht="12.75"/>
+    <row r="574" ht="12.75"/>
+    <row r="575" ht="12.75"/>
+    <row r="576" ht="12.75"/>
+    <row r="577" ht="12.75"/>
+    <row r="578" ht="12.75"/>
+    <row r="579" ht="12.75"/>
+    <row r="580" ht="12.75"/>
+    <row r="581" ht="12.75"/>
+    <row r="582" ht="12.75"/>
+    <row r="583" ht="12.75"/>
+    <row r="584" ht="12.75"/>
+    <row r="585" ht="12.75"/>
+    <row r="586" ht="12.75"/>
+    <row r="587" ht="12.75"/>
+    <row r="588" ht="12.75"/>
+    <row r="589" ht="12.75"/>
+    <row r="590" ht="12.75"/>
+    <row r="591" ht="12.75"/>
+    <row r="592" ht="12.75"/>
+    <row r="593" ht="12.75"/>
+    <row r="594" ht="12.75"/>
+    <row r="595" ht="12.75"/>
+    <row r="596" ht="12.75"/>
+    <row r="597" ht="12.75"/>
+    <row r="598" ht="12.75"/>
+    <row r="599" ht="12.75"/>
+    <row r="600" ht="12.75"/>
+    <row r="601" ht="12.75"/>
+    <row r="602" ht="12.75"/>
+    <row r="603" ht="12.75"/>
+    <row r="604" ht="12.75"/>
+    <row r="605" ht="12.75"/>
+    <row r="606" ht="12.75"/>
+    <row r="607" ht="12.75"/>
+    <row r="608" ht="12.75"/>
+    <row r="609" ht="12.75"/>
+    <row r="610" ht="12.75"/>
+    <row r="611" ht="12.75"/>
+    <row r="612" ht="12.75"/>
+    <row r="613" ht="12.75"/>
+    <row r="614" ht="12.75"/>
+    <row r="615" ht="12.75"/>
+    <row r="616" ht="12.75"/>
+    <row r="617" ht="12.75"/>
+    <row r="618" ht="12.75"/>
+    <row r="619" ht="12.75"/>
+    <row r="620" ht="12.75"/>
+    <row r="621" ht="12.75"/>
+    <row r="622" ht="12.75"/>
+    <row r="623" ht="12.75"/>
+    <row r="624" ht="12.75"/>
+    <row r="625" ht="12.75"/>
+    <row r="626" ht="12.75"/>
+    <row r="627" ht="12.75"/>
+    <row r="628" ht="12.75"/>
+    <row r="629" ht="12.75"/>
+    <row r="630" ht="12.75"/>
+    <row r="631" ht="12.75"/>
+    <row r="632" ht="12.75"/>
+    <row r="633" ht="12.75"/>
+    <row r="634" ht="12.75"/>
+    <row r="635" ht="12.75"/>
+    <row r="636" ht="12.75"/>
+    <row r="637" ht="12.75"/>
+    <row r="638" ht="12.75"/>
+    <row r="639" ht="12.75"/>
+    <row r="640" ht="12.75"/>
+    <row r="641" ht="12.75"/>
+    <row r="642" ht="12.75"/>
+    <row r="643" ht="12.75"/>
+    <row r="644" ht="12.75"/>
+    <row r="645" ht="12.75"/>
+    <row r="646" ht="12.75"/>
+    <row r="647" ht="12.75"/>
+    <row r="648" ht="12.75"/>
+    <row r="649" ht="12.75"/>
+    <row r="650" ht="12.75"/>
+    <row r="651" ht="12.75"/>
+    <row r="652" ht="12.75"/>
+    <row r="653" ht="12.75"/>
+    <row r="654" ht="12.75"/>
+    <row r="655" ht="12.75"/>
+    <row r="656" ht="12.75"/>
+    <row r="657" ht="12.75"/>
+    <row r="658" ht="12.75"/>
+    <row r="659" ht="12.75"/>
+    <row r="660" ht="12.75"/>
+    <row r="661" ht="12.75"/>
+    <row r="662" ht="12.75"/>
+    <row r="663" ht="12.75"/>
+    <row r="664" ht="12.75"/>
+    <row r="665" ht="12.75"/>
+    <row r="666" ht="12.75"/>
+    <row r="667" ht="12.75"/>
+    <row r="668" ht="12.75"/>
+    <row r="669" ht="12.75"/>
+    <row r="670" ht="12.75"/>
+    <row r="671" ht="12.75"/>
+    <row r="672" ht="12.75"/>
+    <row r="673" ht="12.75"/>
+    <row r="674" ht="12.75"/>
+    <row r="675" ht="12.75"/>
+    <row r="676" ht="12.75"/>
+    <row r="677" ht="12.75"/>
+    <row r="678" ht="12.75"/>
+    <row r="679" ht="12.75"/>
+    <row r="680" ht="12.75"/>
+    <row r="681" ht="12.75"/>
+    <row r="682" ht="12.75"/>
+    <row r="683" ht="12.75"/>
+    <row r="684" ht="12.75"/>
+    <row r="685" ht="12.75"/>
+    <row r="686" ht="12.75"/>
+    <row r="687" ht="12.75"/>
+    <row r="688" ht="12.75"/>
+    <row r="689" ht="12.75"/>
+    <row r="690" ht="12.75"/>
+    <row r="691" ht="12.75"/>
+    <row r="692" ht="12.75"/>
+    <row r="693" ht="12.75"/>
+    <row r="694" ht="12.75"/>
+    <row r="695" ht="12.75"/>
+    <row r="696" ht="12.75"/>
+    <row r="697" ht="12.75"/>
+    <row r="698" ht="12.75"/>
+    <row r="699" ht="12.75"/>
+    <row r="700" ht="12.75"/>
+    <row r="701" ht="12.75"/>
+    <row r="702" ht="12.75"/>
+    <row r="703" ht="12.75"/>
+    <row r="704" ht="12.75"/>
+    <row r="705" ht="12.75"/>
+    <row r="706" ht="12.75"/>
+    <row r="707" ht="12.75"/>
+    <row r="708" ht="12.75"/>
+    <row r="709" ht="12.75"/>
+    <row r="710" ht="12.75"/>
+    <row r="711" ht="12.75"/>
+    <row r="712" ht="12.75"/>
+    <row r="713" ht="12.75"/>
+    <row r="714" ht="12.75"/>
+    <row r="715" ht="12.75"/>
+    <row r="716" ht="12.75"/>
+    <row r="717" ht="12.75"/>
+    <row r="718" ht="12.75"/>
+    <row r="719" ht="12.75"/>
+    <row r="720" ht="12.75"/>
+    <row r="721" ht="12.75"/>
+    <row r="722" ht="12.75"/>
+    <row r="723" ht="12.75"/>
+    <row r="724" ht="12.75"/>
+    <row r="725" ht="12.75"/>
+    <row r="726" ht="12.75"/>
+    <row r="727" ht="12.75"/>
+    <row r="728" ht="12.75"/>
+    <row r="729" ht="12.75"/>
+    <row r="730" ht="12.75"/>
+    <row r="731" ht="12.75"/>
+    <row r="732" ht="12.75"/>
+    <row r="733" ht="12.75"/>
+    <row r="734" ht="12.75"/>
+    <row r="735" ht="12.75"/>
+    <row r="736" ht="12.75"/>
+    <row r="737" ht="12.75"/>
+    <row r="738" ht="12.75"/>
+    <row r="739" ht="12.75"/>
+    <row r="740" ht="12.75"/>
+    <row r="741" ht="12.75"/>
+    <row r="742" ht="12.75"/>
+    <row r="743" ht="12.75"/>
+    <row r="744" ht="12.75"/>
+    <row r="745" ht="12.75"/>
+    <row r="746" ht="12.75"/>
+    <row r="747" ht="12.75"/>
+    <row r="748" ht="12.75"/>
+    <row r="749" ht="12.75"/>
+    <row r="750" ht="12.75"/>
+    <row r="751" ht="12.75"/>
+    <row r="752" ht="12.75"/>
+    <row r="753" ht="12.75"/>
+    <row r="754" ht="12.75"/>
+    <row r="755" ht="12.75"/>
+    <row r="756" ht="12.75"/>
+    <row r="757" ht="12.75"/>
+    <row r="758" ht="12.75"/>
+    <row r="759" ht="12.75"/>
+    <row r="760" ht="12.75"/>
+    <row r="761" ht="12.75"/>
+    <row r="762" ht="12.75"/>
+    <row r="763" ht="12.75"/>
+    <row r="764" ht="12.75"/>
+    <row r="765" ht="12.75"/>
+    <row r="766" ht="12.75"/>
+    <row r="767" ht="12.75"/>
+    <row r="768" ht="12.75"/>
+    <row r="769" ht="12.75"/>
+    <row r="770" ht="12.75"/>
+    <row r="771" ht="12.75"/>
+    <row r="772" ht="12.75"/>
+    <row r="773" ht="12.75"/>
+    <row r="774" ht="12.75"/>
+    <row r="775" ht="12.75"/>
+    <row r="776" ht="12.75"/>
+    <row r="777" ht="12.75"/>
+    <row r="778" ht="12.75"/>
+    <row r="779" ht="12.75"/>
+    <row r="780" ht="12.75"/>
+    <row r="781" ht="12.75"/>
+    <row r="782" ht="12.75"/>
+    <row r="783" ht="12.75"/>
+    <row r="784" ht="12.75"/>
+    <row r="785" ht="12.75"/>
+    <row r="786" ht="12.75"/>
+    <row r="787" ht="12.75"/>
+    <row r="788" ht="12.75"/>
+    <row r="789" ht="12.75"/>
+    <row r="790" ht="12.75"/>
+    <row r="791" ht="12.75"/>
+    <row r="792" ht="12.75"/>
+    <row r="793" ht="12.75"/>
+    <row r="794" ht="12.75"/>
+    <row r="795" ht="12.75"/>
+    <row r="796" ht="12.75"/>
+    <row r="797" ht="12.75"/>
+    <row r="798" ht="12.75"/>
+    <row r="799" ht="12.75"/>
+    <row r="800" ht="12.75"/>
+    <row r="801" ht="12.75"/>
+    <row r="802" ht="12.75"/>
+    <row r="803" ht="12.75"/>
+    <row r="804" ht="12.75"/>
+    <row r="805" ht="12.75"/>
+    <row r="806" ht="12.75"/>
+    <row r="807" ht="12.75"/>
+    <row r="808" ht="12.75"/>
+    <row r="809" ht="12.75"/>
+    <row r="810" ht="12.75"/>
+    <row r="811" ht="12.75"/>
+    <row r="812" ht="12.75"/>
+    <row r="813" ht="12.75"/>
+    <row r="814" ht="12.75"/>
+    <row r="815" ht="12.75"/>
+    <row r="816" ht="12.75"/>
+    <row r="817" ht="12.75"/>
+    <row r="818" ht="12.75"/>
+    <row r="819" ht="12.75"/>
+    <row r="820" ht="12.75"/>
+    <row r="821" ht="12.75"/>
+    <row r="822" ht="12.75"/>
+    <row r="823" ht="12.75"/>
+    <row r="824" ht="12.75"/>
+    <row r="825" ht="12.75"/>
+    <row r="826" ht="12.75"/>
+    <row r="827" ht="12.75"/>
+    <row r="828" ht="12.75"/>
+    <row r="829" ht="12.75"/>
+    <row r="830" ht="12.75"/>
+    <row r="831" ht="12.75"/>
+    <row r="832" ht="12.75"/>
+    <row r="833" ht="12.75"/>
+    <row r="834" ht="12.75"/>
+    <row r="835" ht="12.75"/>
+    <row r="836" ht="12.75"/>
+    <row r="837" ht="12.75"/>
+    <row r="838" ht="12.75"/>
+    <row r="839" ht="12.75"/>
+    <row r="840" ht="12.75"/>
+    <row r="841" ht="12.75"/>
+    <row r="842" ht="12.75"/>
+    <row r="843" ht="12.75"/>
+    <row r="844" ht="12.75"/>
+    <row r="845" ht="12.75"/>
+    <row r="846" ht="12.75"/>
+    <row r="847" ht="12.75"/>
+    <row r="848" ht="12.75"/>
+    <row r="849" ht="12.75"/>
+    <row r="850" ht="12.75"/>
+    <row r="851" ht="12.75"/>
+    <row r="852" ht="12.75"/>
+    <row r="853" ht="12.75"/>
+    <row r="854" ht="12.75"/>
+    <row r="855" ht="12.75"/>
+    <row r="856" ht="12.75"/>
+    <row r="857" ht="12.75"/>
+    <row r="858" ht="12.75"/>
+    <row r="859" ht="12.75"/>
+    <row r="860" ht="12.75"/>
+    <row r="861" ht="12.75"/>
+    <row r="862" ht="12.75"/>
+    <row r="863" ht="12.75"/>
+    <row r="864" ht="12.75"/>
+    <row r="865" ht="12.75"/>
+    <row r="866" ht="12.75"/>
+    <row r="867" ht="12.75"/>
+    <row r="868" ht="12.75"/>
+    <row r="869" ht="12.75"/>
+    <row r="870" ht="12.75"/>
+    <row r="871" ht="12.75"/>
+    <row r="872" ht="12.75"/>
+    <row r="873" ht="12.75"/>
+    <row r="874" ht="12.75"/>
+    <row r="875" ht="12.75"/>
+    <row r="876" ht="12.75"/>
+    <row r="877" ht="12.75"/>
+    <row r="878" ht="12.75"/>
+    <row r="879" ht="12.75"/>
+    <row r="880" ht="12.75"/>
+    <row r="881" ht="12.75"/>
+    <row r="882" ht="12.75"/>
+    <row r="883" ht="12.75"/>
+    <row r="884" ht="12.75"/>
+    <row r="885" ht="12.75"/>
+    <row r="886" ht="12.75"/>
+    <row r="887" ht="12.75"/>
+    <row r="888" ht="12.75"/>
+    <row r="889" ht="12.75"/>
+    <row r="890" ht="12.75"/>
+    <row r="891" ht="12.75"/>
+    <row r="892" ht="12.75"/>
+    <row r="893" ht="12.75"/>
+    <row r="894" ht="12.75"/>
+    <row r="895" ht="12.75"/>
+    <row r="896" ht="12.75"/>
+    <row r="897" ht="12.75"/>
+    <row r="898" ht="12.75"/>
+    <row r="899" ht="12.75"/>
+    <row r="900" ht="12.75"/>
+    <row r="901" ht="12.75"/>
+    <row r="902" ht="12.75"/>
+    <row r="903" ht="12.75"/>
+    <row r="904" ht="12.75"/>
+    <row r="905" ht="12.75"/>
+    <row r="906" ht="12.75"/>
+    <row r="907" ht="12.75"/>
+    <row r="908" ht="12.75"/>
+    <row r="909" ht="12.75"/>
+    <row r="910" ht="12.75"/>
+    <row r="911" ht="12.75"/>
+    <row r="912" ht="12.75"/>
+    <row r="913" ht="12.75"/>
+    <row r="914" ht="12.75"/>
+    <row r="915" ht="12.75"/>
+    <row r="916" ht="12.75"/>
+    <row r="917" ht="12.75"/>
+    <row r="918" ht="12.75"/>
+    <row r="919" ht="12.75"/>
+    <row r="920" ht="12.75"/>
+    <row r="921" ht="12.75"/>
+    <row r="922" ht="12.75"/>
+    <row r="923" ht="12.75"/>
+    <row r="924" ht="12.75"/>
+    <row r="925" ht="12.75"/>
+    <row r="926" ht="12.75"/>
+    <row r="927" ht="12.75"/>
+    <row r="928" ht="12.75"/>
+    <row r="929" ht="12.75"/>
+    <row r="930" ht="12.75"/>
+    <row r="931" ht="12.75"/>
+    <row r="932" ht="12.75"/>
+    <row r="933" ht="12.75"/>
+    <row r="934" ht="12.75"/>
+    <row r="935" ht="12.75"/>
+    <row r="936" ht="12.75"/>
+    <row r="937" ht="12.75"/>
+    <row r="938" ht="12.75"/>
+    <row r="939" ht="12.75"/>
+    <row r="940" ht="12.75"/>
+    <row r="941" ht="12.75"/>
+    <row r="942" ht="12.75"/>
+    <row r="943" ht="12.75"/>
+    <row r="944" ht="12.75"/>
+    <row r="945" ht="12.75"/>
+    <row r="946" ht="12.75"/>
+    <row r="947" ht="12.75"/>
+    <row r="948" ht="12.75"/>
+    <row r="949" ht="12.75"/>
+    <row r="950" ht="12.75"/>
+    <row r="951" ht="12.75"/>
+    <row r="952" ht="12.75"/>
+    <row r="953" ht="12.75"/>
+    <row r="954" ht="12.75"/>
+    <row r="955" ht="12.75"/>
+    <row r="956" ht="12.75"/>
+    <row r="957" ht="12.75"/>
+    <row r="958" ht="12.75"/>
+    <row r="959" ht="12.75"/>
+    <row r="960" ht="12.75"/>
+    <row r="961" ht="12.75"/>
+    <row r="962" ht="12.75"/>
+    <row r="963" ht="12.75"/>
+    <row r="964" ht="12.75"/>
+    <row r="965" ht="12.75"/>
+    <row r="966" ht="12.75"/>
+    <row r="967" ht="12.75"/>
+    <row r="968" ht="12.75"/>
+    <row r="969" ht="12.75"/>
+    <row r="970" ht="12.75"/>
+    <row r="971" ht="12.75"/>
+    <row r="972" ht="12.75"/>
+    <row r="973" ht="12.75"/>
+    <row r="974" ht="12.75"/>
+    <row r="975" ht="12.75"/>
+    <row r="976" ht="12.75"/>
+    <row r="977" ht="12.75"/>
+    <row r="978" ht="12.75"/>
+    <row r="979" ht="12.75"/>
+    <row r="980" ht="12.75"/>
+    <row r="981" ht="12.75"/>
+    <row r="982" ht="12.75"/>
+    <row r="983" ht="12.75"/>
+    <row r="984" ht="12.75"/>
+    <row r="985" ht="12.75"/>
+    <row r="986" ht="12.75"/>
+    <row r="987" ht="12.75"/>
+    <row r="988" ht="12.75"/>
+    <row r="989" ht="12.75"/>
+    <row r="990" ht="12.75"/>
+    <row r="991" ht="12.75"/>
+    <row r="992" ht="12.75"/>
+    <row r="993" ht="12.75"/>
+    <row r="994" ht="12.75"/>
+    <row r="995" ht="12.75"/>
+    <row r="996" ht="12.75"/>
+    <row r="997" ht="12.75"/>
+    <row r="998" ht="12.75"/>
+    <row r="999" ht="12.75"/>
+    <row r="1000" ht="12.75"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/task.xlsx
+++ b/task.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="495" windowWidth="19815" windowHeight="7110" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="495" windowWidth="19815" windowHeight="7110" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Rajesh.E" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="44">
   <si>
     <t>S.no</t>
   </si>
@@ -81,6 +81,75 @@
   <si>
     <t>E.Rajesh</t>
   </si>
+  <si>
+    <t>10.40-2:00</t>
+  </si>
+  <si>
+    <t>Solving Heptagon interview problems</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>Learning 5th Lesson in certification course</t>
+  </si>
+  <si>
+    <t>2:00-3:30</t>
+  </si>
+  <si>
+    <t>3:30-4:30</t>
+  </si>
+  <si>
+    <t>Meeting in KGFSL with mentor Jyothi prokash</t>
+  </si>
+  <si>
+    <t>10:40-2:30</t>
+  </si>
+  <si>
+    <t>2:30-415</t>
+  </si>
+  <si>
+    <t>Learning 6th  Lesson in certification course</t>
+  </si>
+  <si>
+    <t>Went to Heptagon technologies</t>
+  </si>
+  <si>
+    <t>Absent</t>
+  </si>
+  <si>
+    <t>Lesson 8 Completed and Lesson 9 in progress</t>
+  </si>
+  <si>
+    <t>Lesson 9 in progress</t>
+  </si>
+  <si>
+    <t>1.00-5.15</t>
+  </si>
+  <si>
+    <t>Lesson 9 completed and Lesson 10 in progress</t>
+  </si>
+  <si>
+    <t>Lesson 10 in progress</t>
+  </si>
+  <si>
+    <t>11-4.30</t>
+  </si>
+  <si>
+    <t>10.50-5.00</t>
+  </si>
+  <si>
+    <t>lesson 4 completed</t>
+  </si>
+  <si>
+    <t>lesson 5 completed</t>
+  </si>
+  <si>
+    <t>lesson 6 and 7 completed</t>
+  </si>
+  <si>
+    <t>placement drive</t>
+  </si>
 </sst>
 </file>
 
@@ -89,7 +158,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -123,8 +192,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,6 +235,11 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -191,12 +272,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -233,8 +315,20 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,7 +626,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -621,26 +715,50 @@
     <row r="6" spans="1:6" ht="14.25" customHeight="1">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="C6" s="20">
+        <v>43132</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="C7" s="20">
+        <v>43160</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" customHeight="1">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="C8" s="20">
+        <v>43191</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" customHeight="1">
       <c r="A9" s="7"/>
@@ -1812,7 +1930,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1901,34 +2019,60 @@
     <row r="6" spans="1:6" ht="14.25" customHeight="1">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="C6" s="17">
+        <v>43132</v>
+      </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="C7" s="17">
+        <v>43160</v>
+      </c>
       <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" customHeight="1">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="C8" s="17">
+        <v>43191</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" customHeight="1">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" customHeight="1">
       <c r="A10" s="7"/>
@@ -3089,10 +3233,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1000"/>
+  <dimension ref="A1:F1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3164,67 +3308,107 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="9" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="13" t="s">
+    <row r="5" spans="1:6" ht="47.25" customHeight="1">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="18">
+        <v>43132</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="9" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="C7" s="17">
+        <v>43160</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" customHeight="1">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" customHeight="1">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" customHeight="1">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="C10" s="17">
+        <v>43191</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" customHeight="1">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" customHeight="1">
       <c r="A12" s="7"/>
@@ -3394,22 +3578,29 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" ht="12.75"/>
-    <row r="34" ht="12.75"/>
-    <row r="35" ht="12.75"/>
-    <row r="36" ht="12.75"/>
-    <row r="37" ht="12.75"/>
-    <row r="38" ht="12.75"/>
-    <row r="39" ht="12.75"/>
-    <row r="40" ht="12.75"/>
-    <row r="41" ht="12.75"/>
-    <row r="42" ht="12.75"/>
-    <row r="43" ht="12.75"/>
-    <row r="44" ht="12.75"/>
-    <row r="45" ht="12.75"/>
-    <row r="46" ht="12.75"/>
-    <row r="47" ht="12.75"/>
-    <row r="48" ht="12.75"/>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="1:6" ht="12.75"/>
+    <row r="35" spans="1:6" ht="12.75"/>
+    <row r="36" spans="1:6" ht="12.75"/>
+    <row r="37" spans="1:6" ht="12.75"/>
+    <row r="38" spans="1:6" ht="12.75"/>
+    <row r="39" spans="1:6" ht="12.75"/>
+    <row r="40" spans="1:6" ht="12.75"/>
+    <row r="41" spans="1:6" ht="12.75"/>
+    <row r="42" spans="1:6" ht="12.75"/>
+    <row r="43" spans="1:6" ht="12.75"/>
+    <row r="44" spans="1:6" ht="12.75"/>
+    <row r="45" spans="1:6" ht="12.75"/>
+    <row r="46" spans="1:6" ht="12.75"/>
+    <row r="47" spans="1:6" ht="12.75"/>
+    <row r="48" spans="1:6" ht="12.75"/>
     <row r="49" ht="12.75"/>
     <row r="50" ht="12.75"/>
     <row r="51" ht="12.75"/>
@@ -4362,6 +4553,7 @@
     <row r="998" ht="12.75"/>
     <row r="999" ht="12.75"/>
     <row r="1000" ht="12.75"/>
+    <row r="1001" ht="12.75"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4371,8 +4563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4461,9 +4653,13 @@
     <row r="6" spans="1:6" ht="14.25" customHeight="1">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+      <c r="C6" s="20">
+        <v>43191</v>
+      </c>
       <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1">

--- a/task.xlsx
+++ b/task.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="495" windowWidth="19815" windowHeight="7110" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="495" windowWidth="19815" windowHeight="7110" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Rajesh.E" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="63">
   <si>
     <t>S.no</t>
   </si>
@@ -171,9 +171,6 @@
     <t xml:space="preserve">saving individual pdf in individual text file </t>
   </si>
   <si>
-    <t>completed course</t>
-  </si>
-  <si>
     <t>sent and received mail</t>
   </si>
   <si>
@@ -193,6 +190,27 @@
   </si>
   <si>
     <t>ABSENT</t>
+  </si>
+  <si>
+    <t>solved 1 problem in hacker rank</t>
+  </si>
+  <si>
+    <t>1.00-4.30</t>
+  </si>
+  <si>
+    <t>lesson 8 completed</t>
+  </si>
+  <si>
+    <t>pdf scraping recap in uipath course</t>
+  </si>
+  <si>
+    <t>in progress</t>
+  </si>
+  <si>
+    <t>pdf scraping done for individual element</t>
+  </si>
+  <si>
+    <t>lesson 9,10 completed in uipath certification</t>
   </si>
 </sst>
 </file>
@@ -322,7 +340,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -369,7 +387,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
@@ -681,7 +698,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -770,7 +787,7 @@
     <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="20">
+      <c r="C6" s="17">
         <v>43132</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -786,7 +803,7 @@
     <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="20">
+      <c r="C7" s="17">
         <v>43160</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -802,7 +819,7 @@
     <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
-      <c r="C8" s="20">
+      <c r="C8" s="17">
         <v>43191</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -818,14 +835,14 @@
     <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="20">
+      <c r="C9" s="17">
         <v>43313</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>44</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F9" s="11" t="s">
         <v>6</v>
@@ -837,7 +854,7 @@
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>6</v>
@@ -849,7 +866,7 @@
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>6</v>
@@ -861,7 +878,7 @@
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>6</v>
@@ -873,7 +890,7 @@
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>6</v>
@@ -885,7 +902,7 @@
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F14" s="11" t="s">
         <v>6</v>
@@ -899,21 +916,35 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="17">
+        <v>43344</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
@@ -2013,7 +2044,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2215,21 +2246,33 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
     </row>
-    <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="17">
+        <v>43344</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="E16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
@@ -3336,8 +3379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3514,24 +3557,30 @@
     <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
-      <c r="C12" s="20">
+      <c r="C12" s="17">
         <v>43313</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="C13" s="17">
+        <v>43344</v>
+      </c>
       <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="E13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
@@ -4670,8 +4719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4760,7 +4809,7 @@
     <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="20">
+      <c r="C6" s="17">
         <v>43191</v>
       </c>
       <c r="D6" s="7"/>
@@ -4772,24 +4821,30 @@
     <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="20">
+      <c r="C7" s="17">
         <v>43313</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="C8" s="17">
+        <v>43344</v>
+      </c>
       <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>

--- a/task.xlsx
+++ b/task.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="66">
   <si>
     <t>S.no</t>
   </si>
@@ -211,6 +211,15 @@
   </si>
   <si>
     <t>lesson 9,10 completed in uipath certification</t>
+  </si>
+  <si>
+    <t>10.40-4.10</t>
+  </si>
+  <si>
+    <t>Completed uipath certification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uipath Certification </t>
   </si>
 </sst>
 </file>
@@ -340,7 +349,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -388,6 +397,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -698,7 +708,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -946,13 +956,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="C18" s="17">
+        <v>43374</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
@@ -2044,7 +2062,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2274,13 +2292,21 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="C17" s="17">
+        <v>43374</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
@@ -3380,7 +3406,7 @@
   <dimension ref="A1:F1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4720,7 +4746,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4849,10 +4875,18 @@
     <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="C9" s="21">
+        <v>43374</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>

--- a/task.xlsx
+++ b/task.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="495" windowWidth="19815" windowHeight="7110" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="495" windowWidth="19815" windowHeight="7110" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Rajesh.E" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="72">
   <si>
     <t>S.no</t>
   </si>
@@ -220,6 +220,24 @@
   </si>
   <si>
     <t xml:space="preserve">Uipath Certification </t>
+  </si>
+  <si>
+    <t>Extracting values from excel</t>
+  </si>
+  <si>
+    <t>01-17-2018</t>
+  </si>
+  <si>
+    <t>10.40-5.05</t>
+  </si>
+  <si>
+    <t>PPT and SRS document creation</t>
+  </si>
+  <si>
+    <t>IN PROGRESS</t>
+  </si>
+  <si>
+    <t>FETCHING DATA FROM EXCEL FILLING IN APPLICATION</t>
   </si>
 </sst>
 </file>
@@ -312,7 +330,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -342,6 +360,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -349,7 +393,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -397,7 +441,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -707,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -972,21 +1021,37 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="17">
+        <v>43405</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="C20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
@@ -994,7 +1059,7 @@
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="F21" s="20"/>
     </row>
     <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
@@ -2062,7 +2127,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C19" sqref="C19:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2308,21 +2373,37 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="17">
+        <v>43405</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
@@ -3405,7 +3486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -4745,8 +4826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4875,7 +4956,7 @@
     <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="21">
+      <c r="C9" s="17">
         <v>43374</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -4888,28 +4969,44 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="17">
+        <v>43405</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6041,6 +6138,9 @@
     <row r="999" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E11:E12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/task.xlsx
+++ b/task.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="495" windowWidth="19815" windowHeight="7110" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="495" windowWidth="19815" windowHeight="7110" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Rajesh.E" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="76">
   <si>
     <t>S.no</t>
   </si>
@@ -238,6 +238,18 @@
   </si>
   <si>
     <t>FETCHING DATA FROM EXCEL FILLING IN APPLICATION</t>
+  </si>
+  <si>
+    <t>01-22-2018</t>
+  </si>
+  <si>
+    <t>10.40-5.00</t>
+  </si>
+  <si>
+    <t>Cutomizing the created application</t>
+  </si>
+  <si>
+    <t>Scraping particular data from PDF</t>
   </si>
 </sst>
 </file>
@@ -757,7 +769,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C21" sqref="C21:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1053,13 +1065,21 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="20"/>
+      <c r="C21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
@@ -2126,8 +2146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2405,13 +2425,21 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="C20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
@@ -4826,8 +4854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5009,13 +5037,21 @@
       <c r="E12" s="22"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>

--- a/task.xlsx
+++ b/task.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="495" windowWidth="19815" windowHeight="7110" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="495" windowWidth="19815" windowHeight="7110"/>
   </bookViews>
   <sheets>
     <sheet name="Rajesh.E" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="77">
   <si>
     <t>S.no</t>
   </si>
@@ -250,6 +250,9 @@
   </si>
   <si>
     <t>Scraping particular data from PDF</t>
+  </si>
+  <si>
+    <t>01-25-2018</t>
   </si>
 </sst>
 </file>
@@ -768,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:F21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="C22:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1081,13 +1084,21 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="C22" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
@@ -2146,8 +2157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2441,13 +2452,21 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="C21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
@@ -4855,7 +4874,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:F13"/>
+      <selection activeCell="C14" sqref="C14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5053,13 +5072,21 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>

--- a/task.xlsx
+++ b/task.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="82">
   <si>
     <t>S.no</t>
   </si>
@@ -253,6 +253,21 @@
   </si>
   <si>
     <t>01-25-2018</t>
+  </si>
+  <si>
+    <t>01-24-2018</t>
+  </si>
+  <si>
+    <t>01-29-2018</t>
+  </si>
+  <si>
+    <t>01-30-2018</t>
+  </si>
+  <si>
+    <t>Exams</t>
+  </si>
+  <si>
+    <t>01-31-2018</t>
   </si>
 </sst>
 </file>
@@ -408,7 +423,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -461,6 +476,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -771,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="C22:F22"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1088,7 +1106,7 @@
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>73</v>
@@ -1111,49 +1129,77 @@
     <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="C24" s="7" t="s">
+        <v>76</v>
+      </c>
       <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
+      <c r="C25" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="C26" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="C27" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
+      <c r="C28" s="23">
+        <v>43102</v>
+      </c>
       <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
+      <c r="E28" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
+      <c r="C29" s="17">
+        <v>43102</v>
+      </c>
       <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
+      <c r="E29" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2157,8 +2203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:F21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2456,7 +2502,7 @@
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>73</v>
@@ -2471,49 +2517,77 @@
     <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="C22" s="7" t="s">
+        <v>76</v>
+      </c>
       <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
+      <c r="E22" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="C23" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="E23" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="C24" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="C25" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
+      <c r="C26" s="23">
+        <v>43102</v>
+      </c>
       <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="C27" s="17">
+        <v>43102</v>
+      </c>
       <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4874,7 +4948,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:F14"/>
+      <selection activeCell="C19" sqref="C19:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5076,7 +5150,7 @@
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>73</v>
@@ -5091,49 +5165,77 @@
     <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>76</v>
+      </c>
       <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="E16" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>79</v>
+      </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="C18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="C19" s="23">
+        <v>43102</v>
+      </c>
       <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="E19" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="C20" s="17">
+        <v>43102</v>
+      </c>
       <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="E20" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">

--- a/task.xlsx
+++ b/task.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="495" windowWidth="19815" windowHeight="7110"/>
+    <workbookView xWindow="360" yWindow="495" windowWidth="19815" windowHeight="7110" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Rajesh.E" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="85">
   <si>
     <t>S.no</t>
   </si>
@@ -268,6 +268,15 @@
   </si>
   <si>
     <t>01-31-2018</t>
+  </si>
+  <si>
+    <t>LEAVE</t>
+  </si>
+  <si>
+    <t>New flow was introduced</t>
+  </si>
+  <si>
+    <t>STARTED</t>
   </si>
 </sst>
 </file>
@@ -471,14 +480,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -789,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1181,7 +1190,7 @@
     <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="23">
+      <c r="C28" s="21">
         <v>43102</v>
       </c>
       <c r="D28" s="7"/>
@@ -1194,7 +1203,7 @@
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="17">
-        <v>43102</v>
+        <v>43133</v>
       </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7" t="s">
@@ -1205,26 +1214,42 @@
     <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
+      <c r="C30" s="17">
+        <v>43161</v>
+      </c>
       <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
+      <c r="E30" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
+      <c r="C31" s="17">
+        <v>43192</v>
+      </c>
       <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+      <c r="E31" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="C32" s="17">
+        <v>43222</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2203,8 +2228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:E27"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2569,7 +2594,7 @@
     <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="23">
+      <c r="C26" s="21">
         <v>43102</v>
       </c>
       <c r="D26" s="7"/>
@@ -2582,7 +2607,7 @@
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="17">
-        <v>43102</v>
+        <v>43133</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7" t="s">
@@ -2593,26 +2618,42 @@
     <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
+      <c r="C28" s="17">
+        <v>43161</v>
+      </c>
       <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
+      <c r="E28" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
+      <c r="C29" s="17">
+        <v>43192</v>
+      </c>
       <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
+      <c r="E29" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="C30" s="17">
+        <v>43222</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
@@ -4947,8 +4988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5115,7 +5156,7 @@
       <c r="D11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="22" t="s">
         <v>71</v>
       </c>
       <c r="F11" s="12" t="s">
@@ -5127,7 +5168,7 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="22"/>
+      <c r="E12" s="23"/>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5217,7 +5258,7 @@
     <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
-      <c r="C19" s="23">
+      <c r="C19" s="21">
         <v>43102</v>
       </c>
       <c r="D19" s="7"/>
@@ -5230,7 +5271,7 @@
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="17">
-        <v>43102</v>
+        <v>43133</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
@@ -5241,26 +5282,42 @@
     <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
+      <c r="C21" s="17">
+        <v>43161</v>
+      </c>
       <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="E21" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="C22" s="17">
+        <v>43192</v>
+      </c>
       <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
+      <c r="E22" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="C23" s="17">
+        <v>43222</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>

--- a/task.xlsx
+++ b/task.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="87">
   <si>
     <t>S.no</t>
   </si>
@@ -277,6 +277,12 @@
   </si>
   <si>
     <t>STARTED</t>
+  </si>
+  <si>
+    <t>Prepared documentation</t>
+  </si>
+  <si>
+    <t>Created database and worked with it.</t>
   </si>
 </sst>
 </file>
@@ -369,7 +375,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -425,6 +431,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -432,7 +449,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -483,6 +500,10 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -796,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1000"/>
+  <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1033,7 +1054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1047,7 +1068,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="17">
@@ -1063,7 +1084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="17">
@@ -1079,7 +1100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7" t="s">
@@ -1095,7 +1116,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7" t="s">
@@ -1111,7 +1132,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7" t="s">
@@ -1127,7 +1148,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1135,7 +1156,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7" t="s">
@@ -1147,7 +1168,7 @@
       </c>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7" t="s">
@@ -1159,7 +1180,7 @@
       </c>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7" t="s">
@@ -1171,7 +1192,7 @@
       </c>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7" t="s">
@@ -1187,7 +1208,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="21">
@@ -1199,7 +1220,7 @@
       </c>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="17">
@@ -1211,7 +1232,7 @@
       </c>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="17">
@@ -1223,7 +1244,7 @@
       </c>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="17">
@@ -1235,7 +1256,7 @@
       </c>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="17">
@@ -1247,26 +1268,42 @@
       <c r="E32" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="F32" s="17" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="12"/>
+    </row>
+    <row r="33" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="22">
+        <v>43253</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2229,7 +2266,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="C31" sqref="C31:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2655,13 +2692,21 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+      <c r="C31" s="17">
+        <v>43253</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
@@ -4986,10 +5031,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1000"/>
+  <dimension ref="A1:F999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5156,7 +5201,7 @@
       <c r="D11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="24" t="s">
         <v>71</v>
       </c>
       <c r="F11" s="12" t="s">
@@ -5168,7 +5213,7 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="23"/>
+      <c r="E12" s="25"/>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5319,13 +5364,21 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="C24" s="17">
+        <v>43253</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
@@ -5383,14 +5436,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-    </row>
+    <row r="32" spans="1:6" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="33" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="34" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="35" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -6358,7 +6404,6 @@
     <row r="997" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="998" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="999" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E11:E12"/>

--- a/task.xlsx
+++ b/task.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="495" windowWidth="19815" windowHeight="7110" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="495" windowWidth="19815" windowHeight="7110" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Rajesh.E" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="109">
   <si>
     <t>S.no</t>
   </si>
@@ -283,6 +283,72 @@
   </si>
   <si>
     <t>Created database and worked with it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fetched the database in an excel sheet </t>
+  </si>
+  <si>
+    <t>Worked with the NCB condition and checked the workflow</t>
+  </si>
+  <si>
+    <t>02-13-2018</t>
+  </si>
+  <si>
+    <t>02-14-2018</t>
+  </si>
+  <si>
+    <t>02-15-2018</t>
+  </si>
+  <si>
+    <t>02-16-2018</t>
+  </si>
+  <si>
+    <t>02-17-2018</t>
+  </si>
+  <si>
+    <t>02-18-2018</t>
+  </si>
+  <si>
+    <t>02-19-2018</t>
+  </si>
+  <si>
+    <t>Placement Drive</t>
+  </si>
+  <si>
+    <t>Workshop</t>
+  </si>
+  <si>
+    <t>Worked with the Blacklist condition and checked the workflow</t>
+  </si>
+  <si>
+    <t>Referred materials to prepare documentation</t>
+  </si>
+  <si>
+    <t>Prepared documentation for the first Chapter</t>
+  </si>
+  <si>
+    <t>Prepared documentation for the first and Second Chapter</t>
+  </si>
+  <si>
+    <t>Prepared Documentation for the next chapter</t>
+  </si>
+  <si>
+    <t>Checked the first chapter in the documentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checked the second chapter in the documentation and worked with the checked the working the  NCB condition </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked with the blacklist condition and attended meeting with the mentor in KGFSL at 3.30pm </t>
+  </si>
+  <si>
+    <t>Worked with the PDF  to scrape the data</t>
+  </si>
+  <si>
+    <t>checked the workflow</t>
+  </si>
+  <si>
+    <t>Checked the whole documentation</t>
   </si>
 </sst>
 </file>
@@ -375,7 +441,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -442,6 +508,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -449,7 +524,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -509,6 +584,14 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -819,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -828,7 +911,7 @@
     <col min="1" max="1" width="9.5703125" customWidth="1"/>
     <col min="2" max="2" width="25.42578125" customWidth="1"/>
     <col min="3" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="49.140625" customWidth="1"/>
+    <col min="5" max="5" width="58.28515625" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" customWidth="1"/>
     <col min="7" max="16" width="11.5703125" customWidth="1"/>
     <col min="17" max="26" width="10" customWidth="1"/>
@@ -1289,19 +1372,150 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="22">
+        <v>43283</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="22">
+        <v>43314</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="22">
+        <v>43345</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="22">
+        <v>43375</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="22">
+        <v>43406</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="23"/>
+    </row>
+    <row r="39" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="22">
+        <v>43436</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" s="9" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" t="s">
+        <v>107</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" t="s">
+        <v>82</v>
+      </c>
+    </row>
     <row r="47" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="48" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2265,8 +2479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:F31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2274,7 +2488,7 @@
     <col min="1" max="1" width="9.5703125" customWidth="1"/>
     <col min="2" max="2" width="25.42578125" customWidth="1"/>
     <col min="3" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="45.5703125" customWidth="1"/>
+    <col min="5" max="5" width="47.85546875" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" customWidth="1"/>
     <col min="7" max="16" width="11.5703125" customWidth="1"/>
     <col min="17" max="26" width="10" customWidth="1"/>
@@ -2692,7 +2906,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="17">
@@ -2704,34 +2918,165 @@
       <c r="E31" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F31" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F31" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="C32" s="22">
+        <v>43283</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="22">
+        <v>43314</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="22">
+        <v>43345</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="22">
+        <v>43375</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="22">
+        <v>43406</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="22">
+        <v>43436</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5033,8 +5378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5042,7 +5387,7 @@
     <col min="1" max="1" width="9.5703125" customWidth="1"/>
     <col min="2" max="2" width="25.42578125" customWidth="1"/>
     <col min="3" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="45.5703125" customWidth="1"/>
+    <col min="5" max="5" width="49.42578125" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" customWidth="1"/>
     <col min="7" max="16" width="11.5703125" customWidth="1"/>
     <col min="17" max="26" width="10" customWidth="1"/>
@@ -5376,83 +5721,178 @@
       <c r="E24" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F24" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F24" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="C25" s="22">
+        <v>43283</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="22">
+        <v>43314</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="C27" s="22">
+        <v>43345</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
+      <c r="C28" s="22">
+        <v>43375</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>82</v>
+      </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
+      <c r="C29" s="22">
+        <v>43406</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>82</v>
+      </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="C30" s="22">
+        <v>43436</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
+      <c r="C31" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:6" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C32" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C34" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C35" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C36" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C37" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="49" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="50" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="51" ht="12.75" x14ac:dyDescent="0.2"/>

--- a/task.xlsx
+++ b/task.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="495" windowWidth="19815" windowHeight="7110" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="495" windowWidth="19815" windowHeight="7110" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Rajesh.E" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="111">
   <si>
     <t>S.no</t>
   </si>
@@ -349,6 +349,12 @@
   </si>
   <si>
     <t>Checked the whole documentation</t>
+  </si>
+  <si>
+    <t>02-20-2018</t>
+  </si>
+  <si>
+    <t>Checked the workflow of the project</t>
   </si>
 </sst>
 </file>
@@ -524,7 +530,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -579,12 +585,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -593,6 +593,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -902,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1321,8 +1328,7 @@
       <c r="C30" s="17">
         <v>43161</v>
       </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7" t="s">
+      <c r="D30" s="7" t="s">
         <v>82</v>
       </c>
       <c r="F30" s="7"/>
@@ -1333,8 +1339,7 @@
       <c r="C31" s="17">
         <v>43192</v>
       </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7" t="s">
+      <c r="D31" s="7" t="s">
         <v>82</v>
       </c>
       <c r="F31" s="7"/>
@@ -1446,13 +1451,13 @@
       </c>
     </row>
     <row r="40" spans="3:6" s="9" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="29" t="s">
+      <c r="C40" s="27" t="s">
         <v>89</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E40" s="28" t="s">
+      <c r="E40" s="26" t="s">
         <v>105</v>
       </c>
       <c r="F40" s="12" t="s">
@@ -1460,7 +1465,7 @@
       </c>
     </row>
     <row r="41" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="24" t="s">
         <v>90</v>
       </c>
       <c r="D41" s="7" t="s">
@@ -1474,7 +1479,7 @@
       </c>
     </row>
     <row r="42" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="24" t="s">
         <v>91</v>
       </c>
       <c r="E42" t="s">
@@ -1485,7 +1490,7 @@
       </c>
     </row>
     <row r="43" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="26" t="s">
+      <c r="C43" s="24" t="s">
         <v>92</v>
       </c>
       <c r="E43" t="s">
@@ -1493,7 +1498,7 @@
       </c>
     </row>
     <row r="44" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C44" s="26" t="s">
+      <c r="C44" s="24" t="s">
         <v>93</v>
       </c>
       <c r="D44" t="s">
@@ -1501,7 +1506,7 @@
       </c>
     </row>
     <row r="45" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="26" t="s">
+      <c r="C45" s="24" t="s">
         <v>94</v>
       </c>
       <c r="D45" t="s">
@@ -1509,14 +1514,21 @@
       </c>
     </row>
     <row r="46" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="24" t="s">
         <v>95</v>
       </c>
       <c r="D46" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D47" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="48" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2479,8 +2491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E45" sqref="C45:E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2989,7 +3001,7 @@
       <c r="D37" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E37" s="27" t="s">
+      <c r="E37" s="25" t="s">
         <v>102</v>
       </c>
       <c r="F37" s="11" t="s">
@@ -2997,13 +3009,13 @@
       </c>
     </row>
     <row r="38" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="27" t="s">
         <v>89</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E38" s="27" t="s">
+      <c r="E38" s="25" t="s">
         <v>106</v>
       </c>
       <c r="F38" s="20" t="s">
@@ -3011,13 +3023,13 @@
       </c>
     </row>
     <row r="39" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="24" t="s">
         <v>90</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E39" s="27" t="s">
+      <c r="E39" s="25" t="s">
         <v>106</v>
       </c>
       <c r="F39" s="12" t="s">
@@ -3025,13 +3037,13 @@
       </c>
     </row>
     <row r="40" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="24" t="s">
         <v>91</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E40" s="27" t="s">
+      <c r="E40" s="25" t="s">
         <v>106</v>
       </c>
       <c r="F40" s="12" t="s">
@@ -3039,7 +3051,7 @@
       </c>
     </row>
     <row r="41" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="24" t="s">
         <v>92</v>
       </c>
       <c r="E41" t="s">
@@ -3047,15 +3059,15 @@
       </c>
     </row>
     <row r="42" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D42" t="s">
-        <v>82</v>
+      <c r="E42" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="26" t="s">
+      <c r="C43" s="24" t="s">
         <v>94</v>
       </c>
       <c r="D43" t="s">
@@ -3063,7 +3075,7 @@
       </c>
     </row>
     <row r="44" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C44" s="26" t="s">
+      <c r="C44" s="24" t="s">
         <v>95</v>
       </c>
       <c r="D44" s="7" t="s">
@@ -3073,7 +3085,17 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E45" t="s">
+        <v>110</v>
+      </c>
+    </row>
     <row r="46" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="47" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="48" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5378,8 +5400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F999"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5546,7 +5568,7 @@
       <c r="D11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="28" t="s">
         <v>71</v>
       </c>
       <c r="F11" s="12" t="s">
@@ -5558,7 +5580,7 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="25"/>
+      <c r="E12" s="29"/>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5816,7 +5838,7 @@
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="27" t="s">
         <v>89</v>
       </c>
       <c r="D31" s="8" t="s">
@@ -5826,7 +5848,7 @@
       <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="24" t="s">
         <v>90</v>
       </c>
       <c r="D32" s="7" t="s">
@@ -5834,7 +5856,7 @@
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="24" t="s">
         <v>91</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -5848,7 +5870,7 @@
       </c>
     </row>
     <row r="34" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="24" t="s">
         <v>92</v>
       </c>
       <c r="E34" t="s">
@@ -5856,15 +5878,15 @@
       </c>
     </row>
     <row r="35" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D35" t="s">
-        <v>82</v>
+      <c r="E35" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="24" t="s">
         <v>94</v>
       </c>
       <c r="D36" t="s">
@@ -5872,7 +5894,7 @@
       </c>
     </row>
     <row r="37" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="24" t="s">
         <v>95</v>
       </c>
       <c r="D37" s="7" t="s">
@@ -5882,7 +5904,17 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C38" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" t="s">
+        <v>110</v>
+      </c>
+    </row>
     <row r="39" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="40" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="41" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>

--- a/task.xlsx
+++ b/task.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="495" windowWidth="19815" windowHeight="7110" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="495" windowWidth="19815" windowHeight="7110"/>
   </bookViews>
   <sheets>
     <sheet name="Rajesh.E" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,15 @@
     <sheet name="Sampath kumar.P.N" sheetId="3" r:id="rId3"/>
     <sheet name="Soundarayaa.R.K" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="a0">Rajesh.E!$B:$B</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="121">
   <si>
     <t>S.no</t>
   </si>
@@ -355,6 +358,36 @@
   </si>
   <si>
     <t>Checked the workflow of the project</t>
+  </si>
+  <si>
+    <t>02-21-2018</t>
+  </si>
+  <si>
+    <t>REVIEW</t>
+  </si>
+  <si>
+    <t>02-22-2018</t>
+  </si>
+  <si>
+    <t>Created a new table for the blacklist and worked with the condition.</t>
+  </si>
+  <si>
+    <t>02-23-2018</t>
+  </si>
+  <si>
+    <t>Worked with the blacklist condition</t>
+  </si>
+  <si>
+    <t>02-24-2018</t>
+  </si>
+  <si>
+    <t>02-25-2018</t>
+  </si>
+  <si>
+    <t>10.40-12.00</t>
+  </si>
+  <si>
+    <t>1.00-5.00</t>
   </si>
 </sst>
 </file>
@@ -530,7 +563,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -593,13 +626,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -909,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="C40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1529,23 +1563,70 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C48" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E49" t="s">
+        <v>114</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E50" t="s">
+        <v>116</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C51" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C52" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2491,8 +2572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E45" sqref="C45:E45"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3086,7 +3167,7 @@
       </c>
     </row>
     <row r="45" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="30" t="s">
+      <c r="C45" s="28" t="s">
         <v>109</v>
       </c>
       <c r="D45" s="7" t="s">
@@ -3096,25 +3177,72 @@
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C50" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5400,8 +5528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5568,7 +5696,7 @@
       <c r="D11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="29" t="s">
         <v>71</v>
       </c>
       <c r="F11" s="12" t="s">
@@ -5580,7 +5708,7 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="29"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5904,8 +6032,8 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C38" s="30" t="s">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C38" s="28" t="s">
         <v>109</v>
       </c>
       <c r="D38" s="7" t="s">
@@ -5914,15 +6042,75 @@
       <c r="E38" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="39" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
+      <c r="F38" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C39" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C40" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" t="s">
+        <v>114</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C41" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" t="s">
+        <v>82</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="D42" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" t="s">
+        <v>116</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
     <row r="43" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="44" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C45" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C46" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" t="s">
+        <v>82</v>
+      </c>
+    </row>
     <row r="47" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="48" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="49" ht="12.75" x14ac:dyDescent="0.2"/>

--- a/task.xlsx
+++ b/task.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="495" windowWidth="19815" windowHeight="7110"/>
+    <workbookView xWindow="360" yWindow="495" windowWidth="19815" windowHeight="7110" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Rajesh.E" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="126">
   <si>
     <t>S.no</t>
   </si>
@@ -384,10 +384,25 @@
     <t>02-25-2018</t>
   </si>
   <si>
-    <t>10.40-12.00</t>
-  </si>
-  <si>
     <t>1.00-5.00</t>
+  </si>
+  <si>
+    <t>02-26-2018</t>
+  </si>
+  <si>
+    <t>10.40-4.00</t>
+  </si>
+  <si>
+    <t>11.30-5.00</t>
+  </si>
+  <si>
+    <t>11.40-5.00</t>
+  </si>
+  <si>
+    <t>Prepared for review and PPT</t>
+  </si>
+  <si>
+    <t>11.40-12.00</t>
   </si>
 </sst>
 </file>
@@ -627,13 +642,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -943,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView topLeftCell="C40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53:F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1576,7 +1591,7 @@
         <v>113</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="E49" t="s">
         <v>114</v>
@@ -1590,7 +1605,7 @@
         <v>115</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="E50" t="s">
         <v>116</v>
@@ -1615,7 +1630,20 @@
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E53" t="s">
+        <v>116</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
     <row r="54" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="55" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="56" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2572,8 +2600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51:F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3190,7 +3218,7 @@
         <v>113</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="E47" s="25" t="s">
         <v>106</v>
@@ -3204,7 +3232,7 @@
         <v>115</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="E48" s="25" t="s">
         <v>106</v>
@@ -3213,7 +3241,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="28" t="s">
         <v>117</v>
       </c>
@@ -3221,7 +3249,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="28" t="s">
         <v>118</v>
       </c>
@@ -3229,20 +3257,33 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E51" t="s">
+        <v>124</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5528,7 +5569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F999"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
@@ -5696,7 +5737,7 @@
       <c r="D11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="30" t="s">
         <v>71</v>
       </c>
       <c r="F11" s="12" t="s">
@@ -5708,7 +5749,7 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="30"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6059,7 +6100,7 @@
         <v>113</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="E40" t="s">
         <v>114</v>
@@ -6073,7 +6114,7 @@
         <v>115</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E41" t="s">
         <v>82</v>
@@ -6083,8 +6124,8 @@
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D42" s="31" t="s">
-        <v>120</v>
+      <c r="D42" s="29" t="s">
+        <v>119</v>
       </c>
       <c r="E42" t="s">
         <v>116</v>
@@ -6111,7 +6152,20 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C47" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E47" t="s">
+        <v>124</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="48" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="49" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="50" ht="12.75" x14ac:dyDescent="0.2"/>

--- a/task.xlsx
+++ b/task.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="495" windowWidth="19815" windowHeight="7110" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="495" windowWidth="19815" windowHeight="7110" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Rajesh.E" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="128">
   <si>
     <t>S.no</t>
   </si>
@@ -403,6 +403,12 @@
   </si>
   <si>
     <t>11.40-12.00</t>
+  </si>
+  <si>
+    <t>02-27-2018</t>
+  </si>
+  <si>
+    <t>Prepared for review in college</t>
   </si>
 </sst>
 </file>
@@ -958,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView topLeftCell="C40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53:F53"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54:E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1644,7 +1650,14 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C54" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="E54" t="s">
+        <v>127</v>
+      </c>
+    </row>
     <row r="55" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="56" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="57" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2600,8 +2613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51:F51"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52:E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3271,7 +3284,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C52" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="E52" t="s">
+        <v>127</v>
+      </c>
+    </row>
     <row r="53" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="54" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="55" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5569,8 +5589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6166,7 +6186,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C48" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="E48" t="s">
+        <v>127</v>
+      </c>
+    </row>
     <row r="49" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="50" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="51" ht="12.75" x14ac:dyDescent="0.2"/>

--- a/task.xlsx
+++ b/task.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="495" windowWidth="19815" windowHeight="7110" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="495" windowWidth="19815" windowHeight="7110" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Rajesh.E" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="132">
   <si>
     <t>S.no</t>
   </si>
@@ -409,6 +409,18 @@
   </si>
   <si>
     <t>Prepared for review in college</t>
+  </si>
+  <si>
+    <t>02-28-2018</t>
+  </si>
+  <si>
+    <t>8.30-12.15</t>
+  </si>
+  <si>
+    <t>EXAMS</t>
+  </si>
+  <si>
+    <t>12.15-4.30</t>
   </si>
 </sst>
 </file>
@@ -584,7 +596,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -654,6 +666,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -965,7 +980,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54:E54"/>
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1658,15 +1673,1831 @@
         <v>127</v>
       </c>
     </row>
-    <row r="55" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C55" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E55" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C56" s="32">
+        <v>43103</v>
+      </c>
+      <c r="E56" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C57" s="32">
+        <v>43134</v>
+      </c>
+      <c r="E57" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C58" s="22">
+        <v>43162</v>
+      </c>
+      <c r="E58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C59" s="22">
+        <v>43193</v>
+      </c>
+      <c r="E59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C60" s="22">
+        <v>43223</v>
+      </c>
+      <c r="D60" t="s">
+        <v>129</v>
+      </c>
+      <c r="E60" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C61" s="22">
+        <v>43223</v>
+      </c>
+      <c r="D61" t="s">
+        <v>131</v>
+      </c>
+      <c r="E61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C62" s="22">
+        <v>43223</v>
+      </c>
+      <c r="D62" t="s">
+        <v>129</v>
+      </c>
+      <c r="E62" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C63" s="22"/>
+      <c r="D63" t="s">
+        <v>131</v>
+      </c>
+      <c r="E63" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C64" s="22">
+        <v>43223</v>
+      </c>
+      <c r="D64" t="s">
+        <v>129</v>
+      </c>
+      <c r="E64" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D65" t="s">
+        <v>131</v>
+      </c>
+      <c r="E65" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1002"/>
+  <sheetViews>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="47.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="16" width="11.5703125" customWidth="1"/>
+    <col min="17" max="26" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="17">
+        <v>43132</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="17">
+        <v>43160</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="17">
+        <v>43191</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="17">
+        <v>43313</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="17">
+        <v>43344</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="17">
+        <v>43374</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="17">
+        <v>43405</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="21">
+        <v>43102</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="17">
+        <v>43133</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="17">
+        <v>43161</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="17">
+        <v>43192</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="17">
+        <v>43222</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="17">
+        <v>43253</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="22">
+        <v>43283</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="22">
+        <v>43314</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="22">
+        <v>43345</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="22">
+        <v>43375</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="22">
+        <v>43406</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="22">
+        <v>43436</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E44" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D46" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C50" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E51" t="s">
+        <v>124</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C52" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="E52" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C53" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E53" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C54" s="32">
+        <v>43103</v>
+      </c>
+      <c r="E54" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C55" s="32">
+        <v>43134</v>
+      </c>
+      <c r="E55" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C56" s="22">
+        <v>43162</v>
+      </c>
+      <c r="E56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C57" s="22">
+        <v>43193</v>
+      </c>
+      <c r="E57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C58" s="22">
+        <v>43223</v>
+      </c>
+      <c r="D58" t="s">
+        <v>129</v>
+      </c>
+      <c r="E58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C59" s="22">
+        <v>43223</v>
+      </c>
+      <c r="D59" t="s">
+        <v>131</v>
+      </c>
+      <c r="E59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C60" s="22">
+        <v>43223</v>
+      </c>
+      <c r="D60" t="s">
+        <v>129</v>
+      </c>
+      <c r="E60" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C61" s="22"/>
+      <c r="D61" t="s">
+        <v>131</v>
+      </c>
+      <c r="E61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C62" s="22">
+        <v>43223</v>
+      </c>
+      <c r="D62" t="s">
+        <v>129</v>
+      </c>
+      <c r="E62" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D63" t="s">
+        <v>131</v>
+      </c>
+      <c r="E63" t="s">
+        <v>82</v>
+      </c>
+    </row>
     <row r="64" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2604,1642 +4435,8 @@
     <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1000"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52:E52"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
-    <col min="3" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="47.85546875" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" customWidth="1"/>
-    <col min="7" max="16" width="11.5703125" customWidth="1"/>
-    <col min="17" max="26" width="10" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="17">
-        <v>43132</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="17">
-        <v>43160</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="17">
-        <v>43191</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="17">
-        <v>43313</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="17">
-        <v>43344</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="17">
-        <v>43374</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="17">
-        <v>43405</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="21">
-        <v>43102</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="17">
-        <v>43133</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="17">
-        <v>43161</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="17">
-        <v>43192</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="17">
-        <v>43222</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F30" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="17">
-        <v>43253</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="22">
-        <v>43283</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="22">
-        <v>43314</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="22">
-        <v>43345</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="22">
-        <v>43375</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="22">
-        <v>43406</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="22">
-        <v>43436</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E38" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="F38" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E40" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="E41" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="42" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E42" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D43" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C44" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E44" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E45" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="46" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C46" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="D46" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="47" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E47" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E48" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C49" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="D49" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="50" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C50" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="D50" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E51" t="s">
-        <v>124</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C52" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="E52" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="53" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1001" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1002" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5589,8 +5786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F999"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6194,22 +6391,112 @@
         <v>127</v>
       </c>
     </row>
-    <row r="49" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="49" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C49" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E49" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C50" s="32">
+        <v>43103</v>
+      </c>
+      <c r="E50" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C51" s="32">
+        <v>43134</v>
+      </c>
+      <c r="E51" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C52" s="22">
+        <v>43162</v>
+      </c>
+      <c r="E52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C53" s="22">
+        <v>43193</v>
+      </c>
+      <c r="E53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C54" s="22">
+        <v>43223</v>
+      </c>
+      <c r="D54" t="s">
+        <v>129</v>
+      </c>
+      <c r="E54" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C55" s="22">
+        <v>43223</v>
+      </c>
+      <c r="D55" t="s">
+        <v>131</v>
+      </c>
+      <c r="E55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C56" s="22">
+        <v>43223</v>
+      </c>
+      <c r="D56" t="s">
+        <v>129</v>
+      </c>
+      <c r="E56" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C57" s="22"/>
+      <c r="D57" t="s">
+        <v>131</v>
+      </c>
+      <c r="E57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C58" s="22">
+        <v>43223</v>
+      </c>
+      <c r="D58" t="s">
+        <v>129</v>
+      </c>
+      <c r="E58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>131</v>
+      </c>
+      <c r="E59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="3:5" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="3:5" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="3:5" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="3:5" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="65" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="66" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="67" ht="12.75" x14ac:dyDescent="0.2"/>

--- a/task.xlsx
+++ b/task.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="133">
   <si>
     <t>S.no</t>
   </si>
@@ -421,6 +421,9 @@
   </si>
   <si>
     <t>12.15-4.30</t>
+  </si>
+  <si>
+    <t>PLACEMENT</t>
   </si>
 </sst>
 </file>
@@ -661,14 +664,14 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -979,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68:D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1682,7 +1685,7 @@
       </c>
     </row>
     <row r="56" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C56" s="32">
+      <c r="C56" s="30">
         <v>43103</v>
       </c>
       <c r="E56" t="s">
@@ -1690,7 +1693,7 @@
       </c>
     </row>
     <row r="57" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C57" s="32">
+      <c r="C57" s="30">
         <v>43134</v>
       </c>
       <c r="E57" t="s">
@@ -1737,7 +1740,7 @@
     </row>
     <row r="62" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" s="22">
-        <v>43223</v>
+        <v>43254</v>
       </c>
       <c r="D62" t="s">
         <v>129</v>
@@ -1757,7 +1760,7 @@
     </row>
     <row r="64" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="22">
-        <v>43223</v>
+        <v>43284</v>
       </c>
       <c r="D64" t="s">
         <v>129</v>
@@ -1766,7 +1769,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="65" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D65" t="s">
         <v>131</v>
       </c>
@@ -1774,21 +1777,55 @@
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C66" s="22">
+        <v>43315</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E66" t="s">
+        <v>116</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C67" s="22">
+        <v>43346</v>
+      </c>
+      <c r="D67" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C68" s="22">
+        <v>43376</v>
+      </c>
+      <c r="D68" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C69" s="22">
+        <v>43407</v>
+      </c>
+      <c r="D69" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2718,8 +2755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1002"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66:D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3406,7 +3443,7 @@
       </c>
     </row>
     <row r="54" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C54" s="32">
+      <c r="C54" s="30">
         <v>43103</v>
       </c>
       <c r="E54" t="s">
@@ -3414,7 +3451,7 @@
       </c>
     </row>
     <row r="55" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C55" s="32">
+      <c r="C55" s="30">
         <v>43134</v>
       </c>
       <c r="E55" t="s">
@@ -3461,7 +3498,7 @@
     </row>
     <row r="60" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" s="22">
-        <v>43223</v>
+        <v>43254</v>
       </c>
       <c r="D60" t="s">
         <v>129</v>
@@ -3481,7 +3518,7 @@
     </row>
     <row r="62" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" s="22">
-        <v>43223</v>
+        <v>43284</v>
       </c>
       <c r="D62" t="s">
         <v>129</v>
@@ -3498,23 +3535,57 @@
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C64" s="22">
+        <v>43315</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E64" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C65" s="22">
+        <v>43346</v>
+      </c>
+      <c r="D65" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C66" s="22">
+        <v>43376</v>
+      </c>
+      <c r="D66" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C67" s="22">
+        <v>43407</v>
+      </c>
+      <c r="D67" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5786,8 +5857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62:D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5954,7 +6025,7 @@
       <c r="D11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="31" t="s">
         <v>71</v>
       </c>
       <c r="F11" s="12" t="s">
@@ -5966,7 +6037,7 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="31"/>
+      <c r="E12" s="32"/>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6391,7 +6462,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C49" s="28" t="s">
         <v>128</v>
       </c>
@@ -6399,23 +6470,23 @@
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C50" s="32">
+    <row r="50" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C50" s="30">
         <v>43103</v>
       </c>
       <c r="E50" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C51" s="32">
+    <row r="51" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C51" s="30">
         <v>43134</v>
       </c>
       <c r="E51" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C52" s="22">
         <v>43162</v>
       </c>
@@ -6423,7 +6494,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C53" s="22">
         <v>43193</v>
       </c>
@@ -6431,7 +6502,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C54" s="22">
         <v>43223</v>
       </c>
@@ -6442,7 +6513,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="55" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C55" s="22">
         <v>43223</v>
       </c>
@@ -6453,9 +6524,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C56" s="22">
-        <v>43223</v>
+        <v>43254</v>
       </c>
       <c r="D56" t="s">
         <v>129</v>
@@ -6464,7 +6535,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C57" s="22"/>
       <c r="D57" t="s">
         <v>131</v>
@@ -6473,9 +6544,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C58" s="22">
-        <v>43223</v>
+        <v>43284</v>
       </c>
       <c r="D58" t="s">
         <v>129</v>
@@ -6484,7 +6555,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="59" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D59" t="s">
         <v>131</v>
       </c>
@@ -6492,11 +6563,45 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="3:5" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="3:5" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="3:5" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="3:5" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="3:5" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C60" s="22">
+        <v>43315</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C61" s="22">
+        <v>43346</v>
+      </c>
+      <c r="D61" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C62" s="22">
+        <v>43376</v>
+      </c>
+      <c r="D62" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C63" s="22">
+        <v>43407</v>
+      </c>
+      <c r="D63" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="65" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="66" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="67" ht="12.75" x14ac:dyDescent="0.2"/>

--- a/task.xlsx
+++ b/task.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="495" windowWidth="19815" windowHeight="7110" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="495" windowWidth="19815" windowHeight="7110"/>
   </bookViews>
   <sheets>
     <sheet name="Rajesh.E" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="138">
   <si>
     <t>S.no</t>
   </si>
@@ -421,6 +421,24 @@
   </si>
   <si>
     <t>12.15-4.30</t>
+  </si>
+  <si>
+    <t>PLACEMENT</t>
+  </si>
+  <si>
+    <t>03-13-2018</t>
+  </si>
+  <si>
+    <t>03-14-2018</t>
+  </si>
+  <si>
+    <t>9.00-4.00</t>
+  </si>
+  <si>
+    <t>Worked with the database</t>
+  </si>
+  <si>
+    <t>Worked with the PDF  to scrape multiple files</t>
   </si>
 </sst>
 </file>
@@ -661,14 +679,14 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -979,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="B56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1682,7 +1700,7 @@
       </c>
     </row>
     <row r="56" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C56" s="32">
+      <c r="C56" s="30">
         <v>43103</v>
       </c>
       <c r="E56" t="s">
@@ -1690,7 +1708,7 @@
       </c>
     </row>
     <row r="57" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C57" s="32">
+      <c r="C57" s="30">
         <v>43134</v>
       </c>
       <c r="E57" t="s">
@@ -1737,7 +1755,7 @@
     </row>
     <row r="62" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" s="22">
-        <v>43223</v>
+        <v>43254</v>
       </c>
       <c r="D62" t="s">
         <v>129</v>
@@ -1757,7 +1775,7 @@
     </row>
     <row r="64" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="22">
-        <v>43223</v>
+        <v>43284</v>
       </c>
       <c r="D64" t="s">
         <v>129</v>
@@ -1766,7 +1784,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="65" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D65" t="s">
         <v>131</v>
       </c>
@@ -1774,21 +1792,94 @@
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="4:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C66" s="22">
+        <v>43315</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E66" t="s">
+        <v>116</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C67" s="22">
+        <v>43346</v>
+      </c>
+      <c r="D67" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C68" s="22">
+        <v>43376</v>
+      </c>
+      <c r="D68" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C69" s="22">
+        <v>43407</v>
+      </c>
+      <c r="D69" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C70" s="22">
+        <v>43437</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>133</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E71" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>134</v>
+      </c>
+      <c r="D72" t="s">
+        <v>135</v>
+      </c>
+      <c r="E72" t="s">
+        <v>136</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2718,8 +2809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1002"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3406,7 +3497,7 @@
       </c>
     </row>
     <row r="54" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C54" s="32">
+      <c r="C54" s="30">
         <v>43103</v>
       </c>
       <c r="E54" t="s">
@@ -3414,7 +3505,7 @@
       </c>
     </row>
     <row r="55" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C55" s="32">
+      <c r="C55" s="30">
         <v>43134</v>
       </c>
       <c r="E55" t="s">
@@ -3461,7 +3552,7 @@
     </row>
     <row r="60" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" s="22">
-        <v>43223</v>
+        <v>43254</v>
       </c>
       <c r="D60" t="s">
         <v>129</v>
@@ -3481,7 +3572,7 @@
     </row>
     <row r="62" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" s="22">
-        <v>43223</v>
+        <v>43284</v>
       </c>
       <c r="D62" t="s">
         <v>129</v>
@@ -3498,23 +3589,96 @@
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C64" s="22">
+        <v>43315</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E64" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C65" s="22">
+        <v>43346</v>
+      </c>
+      <c r="D65" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C66" s="22">
+        <v>43376</v>
+      </c>
+      <c r="D66" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C67" s="22">
+        <v>43407</v>
+      </c>
+      <c r="D67" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C68" s="22">
+        <v>43437</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E68" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="F68" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>133</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E69" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>134</v>
+      </c>
+      <c r="D70" t="s">
+        <v>135</v>
+      </c>
+      <c r="E70" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5786,8 +5950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5954,7 +6118,7 @@
       <c r="D11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="31" t="s">
         <v>71</v>
       </c>
       <c r="F11" s="12" t="s">
@@ -5966,7 +6130,7 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="31"/>
+      <c r="E12" s="32"/>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6391,7 +6555,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C49" s="28" t="s">
         <v>128</v>
       </c>
@@ -6399,23 +6563,23 @@
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C50" s="32">
+    <row r="50" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C50" s="30">
         <v>43103</v>
       </c>
       <c r="E50" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C51" s="32">
+    <row r="51" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C51" s="30">
         <v>43134</v>
       </c>
       <c r="E51" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C52" s="22">
         <v>43162</v>
       </c>
@@ -6423,7 +6587,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="53" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C53" s="22">
         <v>43193</v>
       </c>
@@ -6431,7 +6595,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C54" s="22">
         <v>43223</v>
       </c>
@@ -6442,7 +6606,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="55" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C55" s="22">
         <v>43223</v>
       </c>
@@ -6453,9 +6617,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C56" s="22">
-        <v>43223</v>
+        <v>43254</v>
       </c>
       <c r="D56" t="s">
         <v>129</v>
@@ -6464,7 +6628,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="57" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C57" s="22"/>
       <c r="D57" t="s">
         <v>131</v>
@@ -6473,9 +6637,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C58" s="22">
-        <v>43223</v>
+        <v>43284</v>
       </c>
       <c r="D58" t="s">
         <v>129</v>
@@ -6484,7 +6648,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="59" spans="3:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D59" t="s">
         <v>131</v>
       </c>
@@ -6492,27 +6656,100 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="3:5" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="3:5" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="3:5" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="3:5" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="3:5" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C60" s="22">
+        <v>43315</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C61" s="22">
+        <v>43346</v>
+      </c>
+      <c r="D61" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C62" s="22">
+        <v>43376</v>
+      </c>
+      <c r="D62" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C63" s="22">
+        <v>43407</v>
+      </c>
+      <c r="D63" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C64" s="22">
+        <v>43437</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E64" t="s">
+        <v>116</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>133</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E65" t="s">
+        <v>116</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>134</v>
+      </c>
+      <c r="D66" t="s">
+        <v>135</v>
+      </c>
+      <c r="E66" t="s">
+        <v>116</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="68" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="69" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="81" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="82" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="83" ht="12.75" x14ac:dyDescent="0.2"/>

--- a/task.xlsx
+++ b/task.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="495" windowWidth="19815" windowHeight="7110" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="495" windowWidth="19815" windowHeight="7110"/>
   </bookViews>
   <sheets>
     <sheet name="Rajesh.E" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="146">
   <si>
     <t>S.no</t>
   </si>
@@ -424,6 +424,45 @@
   </si>
   <si>
     <t>PLACEMENT</t>
+  </si>
+  <si>
+    <t>03-13-2018</t>
+  </si>
+  <si>
+    <t>03-14-2018</t>
+  </si>
+  <si>
+    <t>9.00-4.00</t>
+  </si>
+  <si>
+    <t>Worked with the database</t>
+  </si>
+  <si>
+    <t>Worked with the PDF  to scrape multiple files</t>
+  </si>
+  <si>
+    <t>03-15-2018</t>
+  </si>
+  <si>
+    <t>03-16-2018</t>
+  </si>
+  <si>
+    <t>03-17-2018</t>
+  </si>
+  <si>
+    <t>03-18-2018</t>
+  </si>
+  <si>
+    <t>03-19-2018</t>
+  </si>
+  <si>
+    <t>checked the database flow</t>
+  </si>
+  <si>
+    <t>Integrated the workflow</t>
+  </si>
+  <si>
+    <t>Checked the workflow of the module</t>
   </si>
 </sst>
 </file>
@@ -599,7 +638,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -673,6 +712,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -982,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68:D69"/>
+    <sheetView tabSelected="1" topLeftCell="B57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1815,14 +1856,106 @@
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C70" s="22">
+        <v>43437</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>133</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E71" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>134</v>
+      </c>
+      <c r="D72" t="s">
+        <v>135</v>
+      </c>
+      <c r="E72" t="s">
+        <v>136</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>138</v>
+      </c>
+      <c r="D73" t="s">
+        <v>135</v>
+      </c>
+      <c r="E73" t="s">
+        <v>136</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>139</v>
+      </c>
+      <c r="D74" t="s">
+        <v>135</v>
+      </c>
+      <c r="E74" t="s">
+        <v>143</v>
+      </c>
+      <c r="F74" s="34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
+        <v>140</v>
+      </c>
+      <c r="D75" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C76" t="s">
+        <v>141</v>
+      </c>
+      <c r="D76" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
+        <v>142</v>
+      </c>
+      <c r="D77" t="s">
+        <v>135</v>
+      </c>
+      <c r="E77" t="s">
+        <v>144</v>
+      </c>
+      <c r="F77" t="s">
+        <v>84</v>
+      </c>
+    </row>
     <row r="78" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="79" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="80" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2755,8 +2888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1002"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66:D67"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3549,7 +3682,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" s="22">
         <v>43346</v>
       </c>
@@ -3557,7 +3690,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="66" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="22">
         <v>43376</v>
       </c>
@@ -3565,7 +3698,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" s="22">
         <v>43407</v>
       </c>
@@ -3573,19 +3706,99 @@
         <v>82</v>
       </c>
     </row>
-    <row r="68" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" spans="3:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C68" s="22">
+        <v>43437</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E68" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="F68" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>133</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E69" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>134</v>
+      </c>
+      <c r="D70" t="s">
+        <v>135</v>
+      </c>
+      <c r="E70" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>138</v>
+      </c>
+      <c r="D71" t="s">
+        <v>135</v>
+      </c>
+      <c r="E71" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
+        <v>139</v>
+      </c>
+      <c r="D72" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
+        <v>140</v>
+      </c>
+      <c r="D73" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
+        <v>141</v>
+      </c>
+      <c r="D74" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
+        <v>142</v>
+      </c>
+      <c r="D75" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="3:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="81" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="82" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="83" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5857,8 +6070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62:D63"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6601,23 +6814,109 @@
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C64" s="22">
+        <v>43437</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E64" t="s">
+        <v>116</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>133</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E65" t="s">
+        <v>116</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>134</v>
+      </c>
+      <c r="D66" t="s">
+        <v>135</v>
+      </c>
+      <c r="E66" t="s">
+        <v>116</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>138</v>
+      </c>
+      <c r="D67" t="s">
+        <v>135</v>
+      </c>
+      <c r="E67" t="s">
+        <v>116</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>139</v>
+      </c>
+      <c r="D68" t="s">
+        <v>135</v>
+      </c>
+      <c r="E68" t="s">
+        <v>145</v>
+      </c>
+      <c r="F68" s="33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>140</v>
+      </c>
+      <c r="D69" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
+        <v>141</v>
+      </c>
+      <c r="D70" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C71" t="s">
+        <v>142</v>
+      </c>
+      <c r="D71" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="3:6" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="81" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="82" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="83" ht="12.75" x14ac:dyDescent="0.2"/>
